--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60484E6-5F68-4AD0-B334-CA68B40F9DEF}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EF6B6D-D666-45DD-AFB5-038E044DA539}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="610">
   <si>
     <t>Title</t>
   </si>
@@ -1912,18 +1912,12 @@
     <t>not specified</t>
   </si>
   <si>
-    <t>surgery,chemotherapy,radiotherapy,other</t>
-  </si>
-  <si>
     <t>surgery,chemotherapy,radiotherapy,targeted therapy</t>
   </si>
   <si>
     <t>surgery,radiotherapy</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>immunotherapy</t>
   </si>
   <si>
@@ -2012,13 +2006,79 @@
   </si>
   <si>
     <t>Pre_post</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity,communication with providers</t>
+  </si>
+  <si>
+    <t>emotional distress/anxiety/depression,preparedness for treatment</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity,preparedness for treatment</t>
+  </si>
+  <si>
+    <t>communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management</t>
+  </si>
+  <si>
+    <t>accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>Challenge_recode</t>
+  </si>
+  <si>
+    <t>palliative/hospice</t>
+  </si>
+  <si>
+    <t>intervention_type</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>decision support and guidance</t>
+  </si>
+  <si>
+    <t>education and information delivery</t>
+  </si>
+  <si>
+    <t>promotion of healthy behavior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,6 +2179,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2134,7 +2207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2183,11 +2256,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2233,6 +2321,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3189,6 +3283,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}" name="Table2" displayName="Table2" ref="A1:W296" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:W296" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W200">
+    <sortCondition ref="C1:C296"/>
+  </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{3FCD09ED-4669-4B6A-AA10-CA8EEB1F9114}" name="ID"/>
     <tableColumn id="2" xr3:uid="{B8D395BC-0555-4334-8BD5-E7B1A7D165F3}" name="Title"/>
@@ -3219,9 +3316,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AE1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="X1:AE1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AG1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="X1:AG1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DFE2B5C0-4535-4D3C-AE33-93CE5AE4D24E}" name="Impact of technology on treatment outcomes"/>
     <tableColumn id="2" xr3:uid="{D63BE219-238D-499A-A804-1C9D67AC2E34}" name="Challenges of technology use"/>
     <tableColumn id="3" xr3:uid="{8D569B08-204B-49B5-9725-B30BDDB921A6}" name="Findings"/>
@@ -3230,6 +3327,8 @@
     <tableColumn id="6" xr3:uid="{0EAFCAAA-2D49-48B0-8A7A-2A41463DA5AF}" name="Length (in months)"/>
     <tableColumn id="7" xr3:uid="{29717171-C5A6-45AA-857D-97ACBB2CA000}" name="Treatment 2"/>
     <tableColumn id="8" xr3:uid="{7A49C9F5-5988-4F1A-AD3C-EE8AEC3F28B7}" name="Pre_post"/>
+    <tableColumn id="9" xr3:uid="{68A0A4C4-E16A-4F46-9616-2DDFBDB58C02}" name="symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity"/>
+    <tableColumn id="10" xr3:uid="{3B1D6E5A-0729-4731-A45E-3D73B2205C0B}" name="Challenge_recode"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3515,16 +3614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE200"/>
+  <dimension ref="A1:AG200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X12" zoomScale="86" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView topLeftCell="A15" zoomScale="198" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="58.36328125" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="53.26953125" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
@@ -3554,7 +3653,7 @@
     <col min="31" max="31" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -3622,7 +3721,7 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>21</v>
@@ -3643,81 +3742,87 @@
         <v>544</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>587</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>533</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>547</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="W2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -3741,78 +3846,84 @@
         <v>550</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>581</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
-        <v>521</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>431</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="P3" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q3" t="s">
         <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>437</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="W3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X3" t="s">
         <v>58</v>
@@ -3827,7 +3938,7 @@
         <v>61</v>
       </c>
       <c r="AB3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC3">
         <v>1.5</v>
@@ -3836,78 +3947,84 @@
         <v>55</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="C4">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="N4" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="P4" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="U4" t="s">
         <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="W4" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
@@ -3922,7 +4039,7 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC4">
         <v>3</v>
@@ -3931,30 +4048,36 @@
         <v>55</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>522</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
@@ -3963,46 +4086,46 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
         <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q5" t="s">
         <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V5" t="s">
         <v>40</v>
       </c>
       <c r="W5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X5" t="s">
         <v>92</v>
@@ -4017,7 +4140,7 @@
         <v>93</v>
       </c>
       <c r="AB5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -4026,78 +4149,84 @@
         <v>551</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>525</v>
       </c>
       <c r="H6" t="s">
         <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>533</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="O6" t="s">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="P6" t="s">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="S6" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="U6" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
         <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="X6" t="s">
         <v>117</v>
@@ -4121,69 +4250,75 @@
         <v>552</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H7" t="s">
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
         <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="U7" t="s">
         <v>39</v>
@@ -4192,7 +4327,7 @@
         <v>40</v>
       </c>
       <c r="W7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="X7" t="s">
         <v>140</v>
@@ -4216,78 +4351,84 @@
         <v>553</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>526</v>
       </c>
       <c r="H8" t="s">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="K8" t="s">
         <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="O8" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
         <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>303</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="T8" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="U8" t="s">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
         <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="X8" t="s">
         <v>118</v>
@@ -4311,51 +4452,57 @@
         <v>554</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF8" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG8" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -4364,25 +4511,25 @@
         <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="S9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="T9" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="U9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="V9" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X9" t="s">
         <v>179</v>
@@ -4406,78 +4553,84 @@
         <v>551</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>585</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG9" s="20" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>534</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q10" t="s">
         <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="T10" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="U10" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
         <v>40</v>
       </c>
       <c r="W10" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="X10" t="s">
         <v>162</v>
@@ -4501,78 +4654,84 @@
         <v>550</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>581</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG10" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J11" t="s">
-        <v>532</v>
+        <v>355</v>
       </c>
       <c r="K11" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="N11" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q11" t="s">
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="S11" t="s">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="T11" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
       <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
         <v>562</v>
-      </c>
-      <c r="V11" t="s">
-        <v>189</v>
-      </c>
-      <c r="W11" t="s">
-        <v>571</v>
       </c>
       <c r="X11" t="s">
         <v>195</v>
@@ -4596,39 +4755,45 @@
         <v>55</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF11" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG11" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>202</v>
+        <v>541</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
@@ -4637,10 +4802,10 @@
         <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="N12" t="s">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="O12" t="s">
         <v>389</v>
@@ -4652,22 +4817,22 @@
         <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="T12" t="s">
-        <v>210</v>
+        <v>383</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="X12" t="s">
         <v>205</v>
@@ -4691,39 +4856,45 @@
         <v>555</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG12" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>362</v>
       </c>
       <c r="C13">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -4732,37 +4903,37 @@
         <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="N13" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="O13" t="s">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="P13" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q13" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="T13" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="U13" t="s">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
         <v>40</v>
       </c>
       <c r="W13" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="X13" t="s">
         <v>229</v>
@@ -4786,78 +4957,84 @@
         <v>55</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF13" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG13" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J14" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="N14" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>546</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="S14" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="U14" t="s">
         <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="X14" t="s">
         <v>243</v>
@@ -4881,78 +5058,84 @@
         <v>555</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF14" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG14" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J15" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="K15" t="s">
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="M15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N15" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="O15" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="T15" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
         <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="W15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X15" t="s">
         <v>254</v>
@@ -4967,87 +5150,93 @@
         <v>261</v>
       </c>
       <c r="AB15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC15">
         <v>18</v>
       </c>
       <c r="AD15" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+      <c r="AF15" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG15" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="O16" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
         <v>40</v>
       </c>
       <c r="W16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="X16" t="s">
         <v>273</v>
@@ -5062,7 +5251,7 @@
         <v>270</v>
       </c>
       <c r="AB16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC16">
         <v>15</v>
@@ -5071,78 +5260,84 @@
         <v>55</v>
       </c>
       <c r="AE16" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF16" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG16" s="20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
         <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>545</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>549</v>
+        <v>40</v>
       </c>
       <c r="Q17" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R17" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="T17" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="U17" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V17" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="W17" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="X17" t="s">
         <v>289</v>
@@ -5166,78 +5361,84 @@
         <v>555</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>586</v>
+      </c>
+      <c r="AF17" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG17" s="20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C18">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G18" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J18" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="K18" t="s">
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="M18" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="N18" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
       </c>
       <c r="R18" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="T18" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="U18" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V18" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="W18" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="X18" t="s">
         <v>300</v>
@@ -5261,78 +5462,84 @@
         <v>551</v>
       </c>
       <c r="AE18" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AG18" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="C19">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="I19" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="J19" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
+        <v>412</v>
+      </c>
+      <c r="P19" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q19" t="s">
         <v>40</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" t="s">
+        <v>148</v>
+      </c>
+      <c r="U19" t="s">
+        <v>555</v>
+      </c>
+      <c r="V19" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" t="s">
-        <v>329</v>
-      </c>
-      <c r="R19" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s">
-        <v>331</v>
-      </c>
-      <c r="T19" t="s">
-        <v>312</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" t="s">
-        <v>282</v>
-      </c>
       <c r="W19" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
@@ -5356,39 +5563,45 @@
         <v>555</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF19" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG19" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="C20">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F20" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="G20" t="s">
-        <v>527</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J20" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="K20" t="s">
         <v>40</v>
@@ -5397,37 +5610,37 @@
         <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="N20" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q20" t="s">
         <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="S20" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="T20" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V20" t="s">
         <v>183</v>
       </c>
       <c r="W20" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="X20" t="s">
         <v>349</v>
@@ -5451,78 +5664,84 @@
         <v>555</v>
       </c>
       <c r="AE20" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG20" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="F21" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="H21" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>539</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
+        <v>476</v>
       </c>
       <c r="K21" t="s">
         <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
       <c r="N21" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="O21" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="P21" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q21" t="s">
         <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="S21" t="s">
-        <v>323</v>
+        <v>480</v>
       </c>
       <c r="T21" t="s">
-        <v>334</v>
+        <v>475</v>
       </c>
       <c r="U21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="V21" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="W21" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="X21" t="s">
         <v>336</v>
@@ -5546,54 +5765,60 @@
         <v>555</v>
       </c>
       <c r="AE21" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG21" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C22">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D22" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>523</v>
       </c>
       <c r="H22" t="s">
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J22" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>356</v>
+        <v>138</v>
       </c>
       <c r="N22" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="P22" t="s">
         <v>412</v>
@@ -5602,13 +5827,13 @@
         <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>357</v>
+        <v>139</v>
       </c>
       <c r="S22" t="s">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="T22" t="s">
-        <v>359</v>
+        <v>116</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
@@ -5617,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="W22" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="X22" t="s">
         <v>360</v>
@@ -5629,87 +5854,93 @@
         <v>361</v>
       </c>
       <c r="AB22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC22">
         <v>13</v>
       </c>
       <c r="AD22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AE22" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="C23">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
         <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="K23" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" t="s">
+        <v>328</v>
+      </c>
+      <c r="N23" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" t="s">
         <v>40</v>
       </c>
-      <c r="L23" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" t="s">
-        <v>380</v>
-      </c>
-      <c r="N23" t="s">
-        <v>381</v>
-      </c>
-      <c r="O23" t="s">
-        <v>389</v>
-      </c>
       <c r="P23" t="s">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="R23" t="s">
         <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="T23" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="U23" t="s">
         <v>39</v>
       </c>
       <c r="V23" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="W23" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="X23" t="s">
         <v>385</v>
@@ -5733,78 +5964,84 @@
         <v>555</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG23" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="C24">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D24" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="E24" t="s">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="K24" t="s">
         <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="M24" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="N24" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="O24" t="s">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="P24" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="S24" t="s">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="T24" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="U24" t="s">
         <v>39</v>
       </c>
       <c r="V24" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="W24" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="X24" t="s">
         <v>364</v>
@@ -5819,7 +6056,7 @@
         <v>375</v>
       </c>
       <c r="AB24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC24">
         <v>6</v>
@@ -5828,69 +6065,75 @@
         <v>55</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF24" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="AG24" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>392</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>393</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>529</v>
       </c>
       <c r="H25" t="s">
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>530</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>394</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="N25" t="s">
-        <v>395</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P25" t="s">
         <v>412</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s">
         <v>39</v>
@@ -5899,7 +6142,7 @@
         <v>40</v>
       </c>
       <c r="W25" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="X25" t="s">
         <v>402</v>
@@ -5923,39 +6166,45 @@
         <v>550</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF25" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG25" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C26">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="K26" t="s">
         <v>40</v>
@@ -5964,37 +6213,37 @@
         <v>170</v>
       </c>
       <c r="M26" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="N26" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="O26" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="P26" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q26" t="s">
         <v>40</v>
       </c>
       <c r="R26" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="S26" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="T26" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="U26" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s">
         <v>183</v>
       </c>
       <c r="W26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X26" t="s">
         <v>415</v>
@@ -6015,81 +6264,87 @@
         <v>3</v>
       </c>
       <c r="AD26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG26" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>2007</v>
+        <v>2024</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>426</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>521</v>
       </c>
       <c r="H27" t="s">
         <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>428</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="N27" t="s">
-        <v>431</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q27" t="s">
         <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="S27" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>433</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
         <v>39</v>
       </c>
       <c r="V27" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X27" t="s">
         <v>434</v>
@@ -6113,39 +6368,45 @@
         <v>55</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF27" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG27" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>216</v>
       </c>
       <c r="C28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
         <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>542</v>
+        <v>219</v>
       </c>
       <c r="J28" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
@@ -6154,10 +6415,10 @@
         <v>170</v>
       </c>
       <c r="M28" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="N28" t="s">
-        <v>447</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
         <v>448</v>
@@ -6166,25 +6427,25 @@
         <v>448</v>
       </c>
       <c r="Q28" t="s">
+        <v>227</v>
+      </c>
+      <c r="R28" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" t="s">
+        <v>222</v>
+      </c>
+      <c r="T28" t="s">
+        <v>223</v>
+      </c>
+      <c r="U28" t="s">
+        <v>555</v>
+      </c>
+      <c r="V28" t="s">
         <v>40</v>
       </c>
-      <c r="R28" t="s">
-        <v>445</v>
-      </c>
-      <c r="S28" t="s">
-        <v>449</v>
-      </c>
-      <c r="T28" t="s">
-        <v>443</v>
-      </c>
-      <c r="U28" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" t="s">
-        <v>183</v>
-      </c>
       <c r="W28" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="X28" t="s">
         <v>450</v>
@@ -6199,60 +6460,66 @@
         <v>452</v>
       </c>
       <c r="AB28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF28" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG28" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D29" t="s">
-        <v>454</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>455</v>
+        <v>271</v>
       </c>
       <c r="F29" t="s">
-        <v>456</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="J29" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>457</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s">
-        <v>465</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s">
-        <v>466</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
         <v>448</v>
@@ -6264,22 +6531,22 @@
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="S29" t="s">
-        <v>462</v>
+        <v>268</v>
       </c>
       <c r="T29" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="U29" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="V29" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="X29" t="s">
         <v>467</v>
@@ -6297,81 +6564,87 @@
         <v>518</v>
       </c>
       <c r="AD29" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AF29" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG29" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="C30">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="E30" t="s">
-        <v>473</v>
+        <v>339</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="G30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H30" t="s">
         <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>537</v>
       </c>
       <c r="J30" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
       <c r="K30" t="s">
         <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s">
-        <v>478</v>
+        <v>347</v>
       </c>
       <c r="N30" t="s">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="O30" t="s">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
         <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>479</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="T30" t="s">
-        <v>475</v>
+        <v>344</v>
       </c>
       <c r="U30" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="V30" t="s">
         <v>183</v>
       </c>
       <c r="W30" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="X30" t="s">
         <v>482</v>
@@ -6389,521 +6662,694 @@
         <v>514</v>
       </c>
       <c r="AD30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE30" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+      <c r="AG30" s="20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE31" s="20"/>
-    </row>
-    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG31" s="20"/>
+    </row>
+    <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE32" s="20"/>
-    </row>
-    <row r="33" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE33" s="20"/>
-    </row>
-    <row r="34" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG33" s="20"/>
+    </row>
+    <row r="34" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE34" s="20"/>
-    </row>
-    <row r="35" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG34" s="20"/>
+    </row>
+    <row r="35" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE35" s="20"/>
-    </row>
-    <row r="36" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG35" s="20"/>
+    </row>
+    <row r="36" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE36" s="20"/>
-    </row>
-    <row r="37" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG36" s="20"/>
+    </row>
+    <row r="37" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE37" s="20"/>
-    </row>
-    <row r="38" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG37" s="20"/>
+    </row>
+    <row r="38" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE38" s="20"/>
-    </row>
-    <row r="39" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG38" s="20"/>
+    </row>
+    <row r="39" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE39" s="20"/>
-    </row>
-    <row r="40" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG39" s="20"/>
+    </row>
+    <row r="40" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE40" s="20"/>
-    </row>
-    <row r="41" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG40" s="20"/>
+    </row>
+    <row r="41" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE41" s="20"/>
-    </row>
-    <row r="42" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG41" s="20"/>
+    </row>
+    <row r="42" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE42" s="20"/>
-    </row>
-    <row r="43" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG42" s="20"/>
+    </row>
+    <row r="43" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE43" s="20"/>
-    </row>
-    <row r="44" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG43" s="20"/>
+    </row>
+    <row r="44" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE44" s="20"/>
-    </row>
-    <row r="45" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG44" s="20"/>
+    </row>
+    <row r="45" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE45" s="20"/>
-    </row>
-    <row r="46" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG45" s="20"/>
+    </row>
+    <row r="46" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE46" s="20"/>
-    </row>
-    <row r="47" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG46" s="20"/>
+    </row>
+    <row r="47" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE47" s="20"/>
-    </row>
-    <row r="48" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG47" s="20"/>
+    </row>
+    <row r="48" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE48" s="20"/>
-    </row>
-    <row r="49" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG48" s="20"/>
+    </row>
+    <row r="49" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE49" s="20"/>
-    </row>
-    <row r="50" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG49" s="20"/>
+    </row>
+    <row r="50" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE50" s="20"/>
-    </row>
-    <row r="51" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG50" s="20"/>
+    </row>
+    <row r="51" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE51" s="20"/>
-    </row>
-    <row r="52" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG51" s="20"/>
+    </row>
+    <row r="52" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE52" s="20"/>
-    </row>
-    <row r="53" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG52" s="20"/>
+    </row>
+    <row r="53" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE53" s="20"/>
-    </row>
-    <row r="54" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG53" s="20"/>
+    </row>
+    <row r="54" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE54" s="20"/>
-    </row>
-    <row r="55" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG54" s="20"/>
+    </row>
+    <row r="55" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE55" s="20"/>
-    </row>
-    <row r="56" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG55" s="20"/>
+    </row>
+    <row r="56" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE56" s="20"/>
-    </row>
-    <row r="57" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG56" s="20"/>
+    </row>
+    <row r="57" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE57" s="20"/>
-    </row>
-    <row r="58" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG57" s="20"/>
+    </row>
+    <row r="58" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE58" s="20"/>
-    </row>
-    <row r="59" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG58" s="20"/>
+    </row>
+    <row r="59" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE59" s="20"/>
-    </row>
-    <row r="60" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG59" s="20"/>
+    </row>
+    <row r="60" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE60" s="20"/>
-    </row>
-    <row r="61" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG60" s="20"/>
+    </row>
+    <row r="61" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE61" s="20"/>
-    </row>
-    <row r="62" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG61" s="20"/>
+    </row>
+    <row r="62" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE62" s="20"/>
-    </row>
-    <row r="63" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG62" s="20"/>
+    </row>
+    <row r="63" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE63" s="20"/>
-    </row>
-    <row r="64" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG63" s="20"/>
+    </row>
+    <row r="64" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE64" s="20"/>
-    </row>
-    <row r="65" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG64" s="20"/>
+    </row>
+    <row r="65" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE65" s="20"/>
-    </row>
-    <row r="66" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG65" s="20"/>
+    </row>
+    <row r="66" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE66" s="20"/>
-    </row>
-    <row r="67" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG66" s="20"/>
+    </row>
+    <row r="67" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE67" s="20"/>
-    </row>
-    <row r="68" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG67" s="20"/>
+    </row>
+    <row r="68" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE68" s="20"/>
-    </row>
-    <row r="69" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG68" s="20"/>
+    </row>
+    <row r="69" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE69" s="20"/>
-    </row>
-    <row r="70" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG69" s="20"/>
+    </row>
+    <row r="70" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE70" s="20"/>
-    </row>
-    <row r="71" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG70" s="20"/>
+    </row>
+    <row r="71" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE71" s="20"/>
-    </row>
-    <row r="72" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG71" s="20"/>
+    </row>
+    <row r="72" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE72" s="20"/>
-    </row>
-    <row r="73" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG72" s="20"/>
+    </row>
+    <row r="73" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE73" s="20"/>
-    </row>
-    <row r="74" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG73" s="20"/>
+    </row>
+    <row r="74" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE74" s="20"/>
-    </row>
-    <row r="75" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG74" s="20"/>
+    </row>
+    <row r="75" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE75" s="20"/>
-    </row>
-    <row r="76" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG75" s="20"/>
+    </row>
+    <row r="76" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE76" s="20"/>
-    </row>
-    <row r="77" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG76" s="20"/>
+    </row>
+    <row r="77" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE77" s="20"/>
-    </row>
-    <row r="78" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG77" s="20"/>
+    </row>
+    <row r="78" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE78" s="20"/>
-    </row>
-    <row r="79" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG78" s="20"/>
+    </row>
+    <row r="79" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE79" s="20"/>
-    </row>
-    <row r="80" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG79" s="20"/>
+    </row>
+    <row r="80" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE80" s="20"/>
-    </row>
-    <row r="81" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG80" s="20"/>
+    </row>
+    <row r="81" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE81" s="20"/>
-    </row>
-    <row r="82" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG81" s="20"/>
+    </row>
+    <row r="82" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE82" s="20"/>
-    </row>
-    <row r="83" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG82" s="20"/>
+    </row>
+    <row r="83" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE83" s="20"/>
-    </row>
-    <row r="84" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG83" s="20"/>
+    </row>
+    <row r="84" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE84" s="20"/>
-    </row>
-    <row r="85" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG84" s="20"/>
+    </row>
+    <row r="85" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE85" s="20"/>
-    </row>
-    <row r="86" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG85" s="20"/>
+    </row>
+    <row r="86" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE86" s="20"/>
-    </row>
-    <row r="87" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG86" s="20"/>
+    </row>
+    <row r="87" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE87" s="20"/>
-    </row>
-    <row r="88" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG87" s="20"/>
+    </row>
+    <row r="88" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE88" s="20"/>
-    </row>
-    <row r="89" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG88" s="20"/>
+    </row>
+    <row r="89" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE89" s="20"/>
-    </row>
-    <row r="90" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG89" s="20"/>
+    </row>
+    <row r="90" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE90" s="20"/>
-    </row>
-    <row r="91" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG90" s="20"/>
+    </row>
+    <row r="91" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE91" s="20"/>
-    </row>
-    <row r="92" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG91" s="20"/>
+    </row>
+    <row r="92" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE92" s="20"/>
-    </row>
-    <row r="93" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG92" s="20"/>
+    </row>
+    <row r="93" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE93" s="20"/>
-    </row>
-    <row r="94" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG93" s="20"/>
+    </row>
+    <row r="94" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE94" s="20"/>
-    </row>
-    <row r="95" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG94" s="20"/>
+    </row>
+    <row r="95" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE95" s="20"/>
-    </row>
-    <row r="96" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG95" s="20"/>
+    </row>
+    <row r="96" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE96" s="20"/>
-    </row>
-    <row r="97" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG96" s="20"/>
+    </row>
+    <row r="97" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE97" s="20"/>
-    </row>
-    <row r="98" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG97" s="20"/>
+    </row>
+    <row r="98" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE98" s="20"/>
-    </row>
-    <row r="99" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG98" s="20"/>
+    </row>
+    <row r="99" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE99" s="20"/>
-    </row>
-    <row r="100" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG99" s="20"/>
+    </row>
+    <row r="100" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE100" s="20"/>
-    </row>
-    <row r="101" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG100" s="20"/>
+    </row>
+    <row r="101" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE101" s="20"/>
-    </row>
-    <row r="102" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG101" s="20"/>
+    </row>
+    <row r="102" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE102" s="20"/>
-    </row>
-    <row r="103" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG102" s="20"/>
+    </row>
+    <row r="103" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE103" s="20"/>
-    </row>
-    <row r="104" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG103" s="20"/>
+    </row>
+    <row r="104" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE104" s="20"/>
-    </row>
-    <row r="105" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG104" s="20"/>
+    </row>
+    <row r="105" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE105" s="20"/>
-    </row>
-    <row r="106" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG105" s="20"/>
+    </row>
+    <row r="106" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE106" s="20"/>
-    </row>
-    <row r="107" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG106" s="20"/>
+    </row>
+    <row r="107" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE107" s="20"/>
-    </row>
-    <row r="108" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG107" s="20"/>
+    </row>
+    <row r="108" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE108" s="20"/>
-    </row>
-    <row r="109" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG108" s="20"/>
+    </row>
+    <row r="109" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE109" s="20"/>
-    </row>
-    <row r="110" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG109" s="20"/>
+    </row>
+    <row r="110" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE110" s="20"/>
-    </row>
-    <row r="111" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG110" s="20"/>
+    </row>
+    <row r="111" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE111" s="20"/>
-    </row>
-    <row r="112" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG111" s="20"/>
+    </row>
+    <row r="112" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE112" s="20"/>
-    </row>
-    <row r="113" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG112" s="20"/>
+    </row>
+    <row r="113" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE113" s="20"/>
-    </row>
-    <row r="114" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG113" s="20"/>
+    </row>
+    <row r="114" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE114" s="20"/>
-    </row>
-    <row r="115" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG114" s="20"/>
+    </row>
+    <row r="115" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE115" s="20"/>
-    </row>
-    <row r="116" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG115" s="20"/>
+    </row>
+    <row r="116" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE116" s="20"/>
-    </row>
-    <row r="117" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG116" s="20"/>
+    </row>
+    <row r="117" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE117" s="20"/>
-    </row>
-    <row r="118" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG117" s="20"/>
+    </row>
+    <row r="118" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE118" s="20"/>
-    </row>
-    <row r="119" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG118" s="20"/>
+    </row>
+    <row r="119" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE119" s="20"/>
-    </row>
-    <row r="120" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG119" s="20"/>
+    </row>
+    <row r="120" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE120" s="20"/>
-    </row>
-    <row r="121" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG120" s="20"/>
+    </row>
+    <row r="121" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE121" s="20"/>
-    </row>
-    <row r="122" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG121" s="20"/>
+    </row>
+    <row r="122" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE122" s="20"/>
-    </row>
-    <row r="123" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG122" s="20"/>
+    </row>
+    <row r="123" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE123" s="20"/>
-    </row>
-    <row r="124" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG123" s="20"/>
+    </row>
+    <row r="124" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE124" s="20"/>
-    </row>
-    <row r="125" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG124" s="20"/>
+    </row>
+    <row r="125" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE125" s="20"/>
-    </row>
-    <row r="126" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG125" s="20"/>
+    </row>
+    <row r="126" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE126" s="20"/>
-    </row>
-    <row r="127" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG126" s="20"/>
+    </row>
+    <row r="127" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE127" s="20"/>
-    </row>
-    <row r="128" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG127" s="20"/>
+    </row>
+    <row r="128" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE128" s="20"/>
-    </row>
-    <row r="129" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG128" s="20"/>
+    </row>
+    <row r="129" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE129" s="20"/>
-    </row>
-    <row r="130" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG129" s="20"/>
+    </row>
+    <row r="130" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE130" s="20"/>
-    </row>
-    <row r="131" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG130" s="20"/>
+    </row>
+    <row r="131" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE131" s="20"/>
-    </row>
-    <row r="132" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG131" s="20"/>
+    </row>
+    <row r="132" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE132" s="20"/>
-    </row>
-    <row r="133" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG132" s="20"/>
+    </row>
+    <row r="133" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE133" s="20"/>
-    </row>
-    <row r="134" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG133" s="20"/>
+    </row>
+    <row r="134" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE134" s="20"/>
-    </row>
-    <row r="135" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG134" s="20"/>
+    </row>
+    <row r="135" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE135" s="20"/>
-    </row>
-    <row r="136" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG135" s="20"/>
+    </row>
+    <row r="136" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE136" s="20"/>
-    </row>
-    <row r="137" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG136" s="20"/>
+    </row>
+    <row r="137" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE137" s="20"/>
-    </row>
-    <row r="138" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG137" s="20"/>
+    </row>
+    <row r="138" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE138" s="20"/>
-    </row>
-    <row r="139" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG138" s="20"/>
+    </row>
+    <row r="139" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE139" s="20"/>
-    </row>
-    <row r="140" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG139" s="20"/>
+    </row>
+    <row r="140" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE140" s="20"/>
-    </row>
-    <row r="141" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG140" s="20"/>
+    </row>
+    <row r="141" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE141" s="20"/>
-    </row>
-    <row r="142" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG141" s="20"/>
+    </row>
+    <row r="142" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE142" s="20"/>
-    </row>
-    <row r="143" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG142" s="20"/>
+    </row>
+    <row r="143" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE143" s="20"/>
-    </row>
-    <row r="144" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG143" s="20"/>
+    </row>
+    <row r="144" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE144" s="20"/>
-    </row>
-    <row r="145" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG144" s="20"/>
+    </row>
+    <row r="145" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE145" s="20"/>
-    </row>
-    <row r="146" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG145" s="20"/>
+    </row>
+    <row r="146" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE146" s="20"/>
-    </row>
-    <row r="147" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG146" s="20"/>
+    </row>
+    <row r="147" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE147" s="20"/>
-    </row>
-    <row r="148" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG147" s="20"/>
+    </row>
+    <row r="148" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE148" s="20"/>
-    </row>
-    <row r="149" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG148" s="20"/>
+    </row>
+    <row r="149" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE149" s="20"/>
-    </row>
-    <row r="150" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG149" s="20"/>
+    </row>
+    <row r="150" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE150" s="20"/>
-    </row>
-    <row r="151" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG150" s="20"/>
+    </row>
+    <row r="151" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE151" s="20"/>
-    </row>
-    <row r="152" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG151" s="20"/>
+    </row>
+    <row r="152" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE152" s="20"/>
-    </row>
-    <row r="153" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG152" s="20"/>
+    </row>
+    <row r="153" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE153" s="20"/>
-    </row>
-    <row r="154" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG153" s="20"/>
+    </row>
+    <row r="154" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE154" s="20"/>
-    </row>
-    <row r="155" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG154" s="20"/>
+    </row>
+    <row r="155" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE155" s="20"/>
-    </row>
-    <row r="156" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG155" s="20"/>
+    </row>
+    <row r="156" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE156" s="20"/>
-    </row>
-    <row r="157" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG156" s="20"/>
+    </row>
+    <row r="157" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE157" s="20"/>
-    </row>
-    <row r="158" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG157" s="20"/>
+    </row>
+    <row r="158" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE158" s="20"/>
-    </row>
-    <row r="159" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG158" s="20"/>
+    </row>
+    <row r="159" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE159" s="20"/>
-    </row>
-    <row r="160" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG159" s="20"/>
+    </row>
+    <row r="160" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE160" s="20"/>
-    </row>
-    <row r="161" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG160" s="20"/>
+    </row>
+    <row r="161" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE161" s="20"/>
-    </row>
-    <row r="162" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG161" s="20"/>
+    </row>
+    <row r="162" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE162" s="20"/>
-    </row>
-    <row r="163" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG162" s="20"/>
+    </row>
+    <row r="163" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE163" s="20"/>
-    </row>
-    <row r="164" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG163" s="20"/>
+    </row>
+    <row r="164" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE164" s="20"/>
-    </row>
-    <row r="165" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG164" s="20"/>
+    </row>
+    <row r="165" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE165" s="20"/>
-    </row>
-    <row r="166" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG165" s="20"/>
+    </row>
+    <row r="166" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE166" s="20"/>
-    </row>
-    <row r="167" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG166" s="20"/>
+    </row>
+    <row r="167" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE167" s="20"/>
-    </row>
-    <row r="168" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG167" s="20"/>
+    </row>
+    <row r="168" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE168" s="20"/>
-    </row>
-    <row r="169" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG168" s="20"/>
+    </row>
+    <row r="169" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE169" s="20"/>
-    </row>
-    <row r="170" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG169" s="20"/>
+    </row>
+    <row r="170" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE170" s="20"/>
-    </row>
-    <row r="171" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG170" s="20"/>
+    </row>
+    <row r="171" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE171" s="20"/>
-    </row>
-    <row r="172" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG171" s="20"/>
+    </row>
+    <row r="172" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE172" s="20"/>
-    </row>
-    <row r="173" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG172" s="20"/>
+    </row>
+    <row r="173" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE173" s="20"/>
-    </row>
-    <row r="174" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG173" s="20"/>
+    </row>
+    <row r="174" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE174" s="20"/>
-    </row>
-    <row r="175" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG174" s="20"/>
+    </row>
+    <row r="175" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE175" s="20"/>
-    </row>
-    <row r="176" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG175" s="20"/>
+    </row>
+    <row r="176" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE176" s="20"/>
-    </row>
-    <row r="177" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG176" s="20"/>
+    </row>
+    <row r="177" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE177" s="20"/>
-    </row>
-    <row r="178" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG177" s="20"/>
+    </row>
+    <row r="178" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE178" s="20"/>
-    </row>
-    <row r="179" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG178" s="20"/>
+    </row>
+    <row r="179" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE179" s="20"/>
-    </row>
-    <row r="180" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG179" s="20"/>
+    </row>
+    <row r="180" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE180" s="20"/>
-    </row>
-    <row r="181" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG180" s="20"/>
+    </row>
+    <row r="181" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE181" s="20"/>
-    </row>
-    <row r="182" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG181" s="20"/>
+    </row>
+    <row r="182" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE182" s="20"/>
-    </row>
-    <row r="183" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG182" s="20"/>
+    </row>
+    <row r="183" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE183" s="20"/>
-    </row>
-    <row r="184" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG183" s="20"/>
+    </row>
+    <row r="184" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE184" s="20"/>
-    </row>
-    <row r="185" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG184" s="20"/>
+    </row>
+    <row r="185" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE185" s="20"/>
-    </row>
-    <row r="186" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG185" s="20"/>
+    </row>
+    <row r="186" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE186" s="20"/>
-    </row>
-    <row r="187" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG186" s="20"/>
+    </row>
+    <row r="187" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE187" s="20"/>
-    </row>
-    <row r="188" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG187" s="20"/>
+    </row>
+    <row r="188" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE188" s="20"/>
-    </row>
-    <row r="189" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG188" s="20"/>
+    </row>
+    <row r="189" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE189" s="20"/>
-    </row>
-    <row r="190" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG189" s="20"/>
+    </row>
+    <row r="190" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE190" s="20"/>
-    </row>
-    <row r="191" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG190" s="20"/>
+    </row>
+    <row r="191" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE191" s="20"/>
-    </row>
-    <row r="192" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG191" s="20"/>
+    </row>
+    <row r="192" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE192" s="20"/>
-    </row>
-    <row r="193" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG192" s="20"/>
+    </row>
+    <row r="193" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE193" s="20"/>
-    </row>
-    <row r="194" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG193" s="20"/>
+    </row>
+    <row r="194" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE194" s="20"/>
-    </row>
-    <row r="195" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG194" s="20"/>
+    </row>
+    <row r="195" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE195" s="20"/>
-    </row>
-    <row r="196" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG195" s="20"/>
+    </row>
+    <row r="196" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE196" s="20"/>
-    </row>
-    <row r="197" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG196" s="20"/>
+    </row>
+    <row r="197" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE197" s="20"/>
-    </row>
-    <row r="198" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG197" s="20"/>
+    </row>
+    <row r="198" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE198" s="20"/>
-    </row>
-    <row r="199" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG198" s="20"/>
+    </row>
+    <row r="199" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE199" s="20"/>
-    </row>
-    <row r="200" spans="31:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG199" s="20"/>
+    </row>
+    <row r="200" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE200" s="20"/>
+      <c r="AG200" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6918,10 +7364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D4F5-3E9F-48C1-83D6-A4ACD3B7FE09}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7110,82 +7556,353 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>2014</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>2016</v>
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>2022</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <v>2017</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <v>2021</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E26" s="23">
+        <v>4</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>2007</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <v>2023</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E29" s="23">
+        <v>5</v>
+      </c>
+      <c r="F29" s="23">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <v>2022</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="23">
+        <v>1</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>2021</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E31" s="23">
+        <v>7</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E33" s="23">
+        <v>3</v>
+      </c>
+      <c r="F33" s="23">
+        <v>2</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E34" s="23">
+        <v>2</v>
+      </c>
+      <c r="F34" s="23">
+        <v>2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E35" s="23">
+        <v>4</v>
+      </c>
+      <c r="F35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E36" s="23">
+        <v>3</v>
+      </c>
+      <c r="F36" s="23">
+        <v>2</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E37" s="23">
+        <v>1</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E38" s="23">
+        <v>2</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E39" s="23">
+        <v>1</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EF6B6D-D666-45DD-AFB5-038E044DA539}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7373493-5A43-43BB-BCA3-0DE686A9F3B9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="610">
   <si>
     <t>Title</t>
   </si>
@@ -3197,7 +3197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C1:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" numFmtId="49" showAll="0">
@@ -3316,9 +3316,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AG1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="X1:AG1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AF1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="X1:AF1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DFE2B5C0-4535-4D3C-AE33-93CE5AE4D24E}" name="Impact of technology on treatment outcomes"/>
     <tableColumn id="2" xr3:uid="{D63BE219-238D-499A-A804-1C9D67AC2E34}" name="Challenges of technology use"/>
     <tableColumn id="3" xr3:uid="{8D569B08-204B-49B5-9725-B30BDDB921A6}" name="Findings"/>
@@ -3327,7 +3327,6 @@
     <tableColumn id="6" xr3:uid="{0EAFCAAA-2D49-48B0-8A7A-2A41463DA5AF}" name="Length (in months)"/>
     <tableColumn id="7" xr3:uid="{29717171-C5A6-45AA-857D-97ACBB2CA000}" name="Treatment 2"/>
     <tableColumn id="8" xr3:uid="{7A49C9F5-5988-4F1A-AD3C-EE8AEC3F28B7}" name="Pre_post"/>
-    <tableColumn id="9" xr3:uid="{68A0A4C4-E16A-4F46-9616-2DDFBDB58C02}" name="symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity"/>
     <tableColumn id="10" xr3:uid="{3B1D6E5A-0729-4731-A45E-3D73B2205C0B}" name="Challenge_recode"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3614,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG200"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="198" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="198" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3653,7 +3652,7 @@
     <col min="31" max="31" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="21" t="s">
         <v>579</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -3748,13 +3747,10 @@
         <v>587</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AG1" s="21" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3821,8 +3817,8 @@
       <c r="V2" t="s">
         <v>189</v>
       </c>
-      <c r="W2" t="s">
-        <v>569</v>
+      <c r="W2" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -3849,13 +3845,10 @@
         <v>581</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG2" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>26</v>
       </c>
@@ -3922,7 +3915,7 @@
       <c r="V3" t="s">
         <v>183</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="20" t="s">
         <v>562</v>
       </c>
       <c r="X3" t="s">
@@ -3950,13 +3943,10 @@
         <v>582</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AG3" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>11</v>
       </c>
@@ -4023,8 +4013,8 @@
       <c r="V4" t="s">
         <v>211</v>
       </c>
-      <c r="W4" t="s">
-        <v>570</v>
+      <c r="W4" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
@@ -4051,13 +4041,10 @@
         <v>582</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="AG4" s="20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4124,8 +4111,8 @@
       <c r="V5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
-        <v>565</v>
+      <c r="W5" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="X5" t="s">
         <v>92</v>
@@ -4152,13 +4139,10 @@
         <v>583</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG5" s="20" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4225,8 +4209,8 @@
       <c r="V6" t="s">
         <v>40</v>
       </c>
-      <c r="W6" t="s">
-        <v>571</v>
+      <c r="W6" s="20" t="s">
+        <v>565</v>
       </c>
       <c r="X6" t="s">
         <v>117</v>
@@ -4253,13 +4237,10 @@
         <v>584</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="AG6" s="20" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4326,8 +4307,8 @@
       <c r="V7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" t="s">
-        <v>564</v>
+      <c r="W7" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="X7" t="s">
         <v>140</v>
@@ -4354,13 +4335,10 @@
         <v>582</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG7" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>17</v>
       </c>
@@ -4427,8 +4405,8 @@
       <c r="V8" t="s">
         <v>40</v>
       </c>
-      <c r="W8" t="s">
-        <v>572</v>
+      <c r="W8" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X8" t="s">
         <v>118</v>
@@ -4455,13 +4433,10 @@
         <v>582</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="AG8" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4528,8 +4503,8 @@
       <c r="V9" t="s">
         <v>40</v>
       </c>
-      <c r="W9" t="s">
-        <v>568</v>
+      <c r="W9" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="X9" t="s">
         <v>179</v>
@@ -4556,13 +4531,10 @@
         <v>585</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="AG9" s="20" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>14</v>
       </c>
@@ -4629,8 +4601,8 @@
       <c r="V10" t="s">
         <v>40</v>
       </c>
-      <c r="W10" t="s">
-        <v>562</v>
+      <c r="W10" s="20" t="s">
+        <v>568</v>
       </c>
       <c r="X10" t="s">
         <v>162</v>
@@ -4657,13 +4629,10 @@
         <v>581</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG10" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>21</v>
       </c>
@@ -4730,8 +4699,8 @@
       <c r="V11" t="s">
         <v>40</v>
       </c>
-      <c r="W11" t="s">
-        <v>562</v>
+      <c r="W11" s="20" t="s">
+        <v>569</v>
       </c>
       <c r="X11" t="s">
         <v>195</v>
@@ -4758,13 +4727,10 @@
         <v>582</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG11" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>22</v>
       </c>
@@ -4831,8 +4797,8 @@
       <c r="V12" t="s">
         <v>40</v>
       </c>
-      <c r="W12" t="s">
-        <v>566</v>
+      <c r="W12" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="X12" t="s">
         <v>205</v>
@@ -4859,13 +4825,10 @@
         <v>582</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG12" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>23</v>
       </c>
@@ -4932,8 +4895,8 @@
       <c r="V13" t="s">
         <v>40</v>
       </c>
-      <c r="W13" t="s">
-        <v>574</v>
+      <c r="W13" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X13" t="s">
         <v>229</v>
@@ -4960,13 +4923,10 @@
         <v>582</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="AG13" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>24</v>
       </c>
@@ -5033,8 +4993,8 @@
       <c r="V14" t="s">
         <v>40</v>
       </c>
-      <c r="W14" t="s">
-        <v>575</v>
+      <c r="W14" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X14" t="s">
         <v>243</v>
@@ -5061,13 +5021,10 @@
         <v>582</v>
       </c>
       <c r="AF14" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG14" s="20" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5134,7 +5091,7 @@
       <c r="V15" t="s">
         <v>242</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="20" t="s">
         <v>562</v>
       </c>
       <c r="X15" t="s">
@@ -5162,13 +5119,10 @@
         <v>583</v>
       </c>
       <c r="AF15" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="AG15" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5235,8 +5189,8 @@
       <c r="V16" t="s">
         <v>40</v>
       </c>
-      <c r="W16" t="s">
-        <v>563</v>
+      <c r="W16" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X16" t="s">
         <v>273</v>
@@ -5263,13 +5217,10 @@
         <v>582</v>
       </c>
       <c r="AF16" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG16" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5336,8 +5287,8 @@
       <c r="V17" t="s">
         <v>178</v>
       </c>
-      <c r="W17" t="s">
-        <v>567</v>
+      <c r="W17" s="20" t="s">
+        <v>571</v>
       </c>
       <c r="X17" t="s">
         <v>289</v>
@@ -5364,13 +5315,10 @@
         <v>586</v>
       </c>
       <c r="AF17" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG17" s="20" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20</v>
       </c>
@@ -5437,8 +5385,8 @@
       <c r="V18" t="s">
         <v>324</v>
       </c>
-      <c r="W18" t="s">
-        <v>564</v>
+      <c r="W18" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="X18" t="s">
         <v>300</v>
@@ -5465,13 +5413,10 @@
         <v>583</v>
       </c>
       <c r="AF18" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AG18" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5538,8 +5483,8 @@
       <c r="V19" t="s">
         <v>40</v>
       </c>
-      <c r="W19" t="s">
-        <v>562</v>
+      <c r="W19" s="20" t="s">
+        <v>573</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
@@ -5566,13 +5511,10 @@
         <v>582</v>
       </c>
       <c r="AF19" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG19" s="20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>25</v>
       </c>
@@ -5639,8 +5581,8 @@
       <c r="V20" t="s">
         <v>183</v>
       </c>
-      <c r="W20" t="s">
-        <v>576</v>
+      <c r="W20" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X20" t="s">
         <v>349</v>
@@ -5667,13 +5609,10 @@
         <v>582</v>
       </c>
       <c r="AF20" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG20" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>29</v>
       </c>
@@ -5740,8 +5679,8 @@
       <c r="V21" t="s">
         <v>183</v>
       </c>
-      <c r="W21" t="s">
-        <v>578</v>
+      <c r="W21" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="X21" t="s">
         <v>336</v>
@@ -5768,13 +5707,10 @@
         <v>582</v>
       </c>
       <c r="AF21" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="AG21" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5841,8 +5777,8 @@
       <c r="V22" t="s">
         <v>40</v>
       </c>
-      <c r="W22" t="s">
-        <v>566</v>
+      <c r="W22" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="X22" t="s">
         <v>360</v>
@@ -5868,11 +5804,8 @@
       <c r="AF22" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="AG22" s="20" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -5939,8 +5872,8 @@
       <c r="V23" t="s">
         <v>282</v>
       </c>
-      <c r="W23" t="s">
-        <v>573</v>
+      <c r="W23" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="X23" t="s">
         <v>385</v>
@@ -5969,11 +5902,8 @@
       <c r="AF23" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="AG23" s="20" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>28</v>
       </c>
@@ -6040,8 +5970,8 @@
       <c r="V24" t="s">
         <v>463</v>
       </c>
-      <c r="W24" t="s">
-        <v>563</v>
+      <c r="W24" s="20" t="s">
+        <v>574</v>
       </c>
       <c r="X24" t="s">
         <v>364</v>
@@ -6068,13 +5998,10 @@
         <v>582</v>
       </c>
       <c r="AF24" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="AG24" s="20" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6141,8 +6068,8 @@
       <c r="V25" t="s">
         <v>40</v>
       </c>
-      <c r="W25" t="s">
-        <v>561</v>
+      <c r="W25" s="20" t="s">
+        <v>575</v>
       </c>
       <c r="X25" t="s">
         <v>402</v>
@@ -6169,13 +6096,10 @@
         <v>582</v>
       </c>
       <c r="AF25" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="AG25" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6242,8 +6166,8 @@
       <c r="V26" t="s">
         <v>183</v>
       </c>
-      <c r="W26" t="s">
-        <v>577</v>
+      <c r="W26" s="20" t="s">
+        <v>576</v>
       </c>
       <c r="X26" t="s">
         <v>415</v>
@@ -6270,13 +6194,10 @@
         <v>584</v>
       </c>
       <c r="AF26" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG26" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6343,7 +6264,7 @@
       <c r="V27" t="s">
         <v>40</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="20" t="s">
         <v>562</v>
       </c>
       <c r="X27" t="s">
@@ -6371,13 +6292,10 @@
         <v>582</v>
       </c>
       <c r="AF27" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="AG27" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>12</v>
       </c>
@@ -6444,8 +6362,8 @@
       <c r="V28" t="s">
         <v>40</v>
       </c>
-      <c r="W28" t="s">
-        <v>562</v>
+      <c r="W28" s="20" t="s">
+        <v>577</v>
       </c>
       <c r="X28" t="s">
         <v>450</v>
@@ -6472,13 +6390,10 @@
         <v>582</v>
       </c>
       <c r="AF28" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="AG28" s="20" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>15</v>
       </c>
@@ -6545,8 +6460,8 @@
       <c r="V29" t="s">
         <v>40</v>
       </c>
-      <c r="W29" t="s">
-        <v>562</v>
+      <c r="W29" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="X29" t="s">
         <v>467</v>
@@ -6570,13 +6485,10 @@
         <v>582</v>
       </c>
       <c r="AF29" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG29" s="20" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>19</v>
       </c>
@@ -6643,8 +6555,8 @@
       <c r="V30" t="s">
         <v>183</v>
       </c>
-      <c r="W30" t="s">
-        <v>562</v>
+      <c r="W30" s="20" t="s">
+        <v>578</v>
       </c>
       <c r="X30" t="s">
         <v>482</v>
@@ -6667,689 +6579,858 @@
       <c r="AE30" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="AG30" s="20" t="s">
+      <c r="AF30" s="20" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W31" s="20"/>
       <c r="AE31" s="20"/>
-      <c r="AG31" s="20"/>
-    </row>
-    <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF31" s="20"/>
+    </row>
+    <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W32" s="20"/>
       <c r="AE32" s="20"/>
-      <c r="AG32" s="20"/>
-    </row>
-    <row r="33" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF32" s="20"/>
+    </row>
+    <row r="33" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W33" s="20"/>
       <c r="AE33" s="20"/>
-      <c r="AG33" s="20"/>
-    </row>
-    <row r="34" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF33" s="20"/>
+    </row>
+    <row r="34" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W34" s="20"/>
       <c r="AE34" s="20"/>
-      <c r="AG34" s="20"/>
-    </row>
-    <row r="35" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF34" s="20"/>
+    </row>
+    <row r="35" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W35" s="20"/>
       <c r="AE35" s="20"/>
-      <c r="AG35" s="20"/>
-    </row>
-    <row r="36" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF35" s="20"/>
+    </row>
+    <row r="36" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W36" s="20"/>
       <c r="AE36" s="20"/>
-      <c r="AG36" s="20"/>
-    </row>
-    <row r="37" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF36" s="20"/>
+    </row>
+    <row r="37" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W37" s="20"/>
       <c r="AE37" s="20"/>
-      <c r="AG37" s="20"/>
-    </row>
-    <row r="38" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF37" s="20"/>
+    </row>
+    <row r="38" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W38" s="20"/>
       <c r="AE38" s="20"/>
-      <c r="AG38" s="20"/>
-    </row>
-    <row r="39" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF38" s="20"/>
+    </row>
+    <row r="39" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W39" s="20"/>
       <c r="AE39" s="20"/>
-      <c r="AG39" s="20"/>
-    </row>
-    <row r="40" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF39" s="20"/>
+    </row>
+    <row r="40" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W40" s="20"/>
       <c r="AE40" s="20"/>
-      <c r="AG40" s="20"/>
-    </row>
-    <row r="41" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF40" s="20"/>
+    </row>
+    <row r="41" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W41" s="20"/>
       <c r="AE41" s="20"/>
-      <c r="AG41" s="20"/>
-    </row>
-    <row r="42" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF41" s="20"/>
+    </row>
+    <row r="42" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W42" s="20"/>
       <c r="AE42" s="20"/>
-      <c r="AG42" s="20"/>
-    </row>
-    <row r="43" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF42" s="20"/>
+    </row>
+    <row r="43" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W43" s="20"/>
       <c r="AE43" s="20"/>
-      <c r="AG43" s="20"/>
-    </row>
-    <row r="44" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF43" s="20"/>
+    </row>
+    <row r="44" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W44" s="20"/>
       <c r="AE44" s="20"/>
-      <c r="AG44" s="20"/>
-    </row>
-    <row r="45" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF44" s="20"/>
+    </row>
+    <row r="45" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W45" s="20"/>
       <c r="AE45" s="20"/>
-      <c r="AG45" s="20"/>
-    </row>
-    <row r="46" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF45" s="20"/>
+    </row>
+    <row r="46" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W46" s="20"/>
       <c r="AE46" s="20"/>
-      <c r="AG46" s="20"/>
-    </row>
-    <row r="47" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF46" s="20"/>
+    </row>
+    <row r="47" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W47" s="20"/>
       <c r="AE47" s="20"/>
-      <c r="AG47" s="20"/>
-    </row>
-    <row r="48" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF47" s="20"/>
+    </row>
+    <row r="48" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W48" s="20"/>
       <c r="AE48" s="20"/>
-      <c r="AG48" s="20"/>
-    </row>
-    <row r="49" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF48" s="20"/>
+    </row>
+    <row r="49" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W49" s="20"/>
       <c r="AE49" s="20"/>
-      <c r="AG49" s="20"/>
-    </row>
-    <row r="50" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF49" s="20"/>
+    </row>
+    <row r="50" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W50" s="20"/>
       <c r="AE50" s="20"/>
-      <c r="AG50" s="20"/>
-    </row>
-    <row r="51" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF50" s="20"/>
+    </row>
+    <row r="51" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W51" s="20"/>
       <c r="AE51" s="20"/>
-      <c r="AG51" s="20"/>
-    </row>
-    <row r="52" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF51" s="20"/>
+    </row>
+    <row r="52" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W52" s="20"/>
       <c r="AE52" s="20"/>
-      <c r="AG52" s="20"/>
-    </row>
-    <row r="53" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF52" s="20"/>
+    </row>
+    <row r="53" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W53" s="20"/>
       <c r="AE53" s="20"/>
-      <c r="AG53" s="20"/>
-    </row>
-    <row r="54" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF53" s="20"/>
+    </row>
+    <row r="54" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W54" s="20"/>
       <c r="AE54" s="20"/>
-      <c r="AG54" s="20"/>
-    </row>
-    <row r="55" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF54" s="20"/>
+    </row>
+    <row r="55" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W55" s="20"/>
       <c r="AE55" s="20"/>
-      <c r="AG55" s="20"/>
-    </row>
-    <row r="56" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF55" s="20"/>
+    </row>
+    <row r="56" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W56" s="20"/>
       <c r="AE56" s="20"/>
-      <c r="AG56" s="20"/>
-    </row>
-    <row r="57" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF56" s="20"/>
+    </row>
+    <row r="57" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W57" s="20"/>
       <c r="AE57" s="20"/>
-      <c r="AG57" s="20"/>
-    </row>
-    <row r="58" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF57" s="20"/>
+    </row>
+    <row r="58" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W58" s="20"/>
       <c r="AE58" s="20"/>
-      <c r="AG58" s="20"/>
-    </row>
-    <row r="59" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF58" s="20"/>
+    </row>
+    <row r="59" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W59" s="20"/>
       <c r="AE59" s="20"/>
-      <c r="AG59" s="20"/>
-    </row>
-    <row r="60" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF59" s="20"/>
+    </row>
+    <row r="60" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W60" s="20"/>
       <c r="AE60" s="20"/>
-      <c r="AG60" s="20"/>
-    </row>
-    <row r="61" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF60" s="20"/>
+    </row>
+    <row r="61" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W61" s="20"/>
       <c r="AE61" s="20"/>
-      <c r="AG61" s="20"/>
-    </row>
-    <row r="62" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF61" s="20"/>
+    </row>
+    <row r="62" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W62" s="20"/>
       <c r="AE62" s="20"/>
-      <c r="AG62" s="20"/>
-    </row>
-    <row r="63" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF62" s="20"/>
+    </row>
+    <row r="63" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W63" s="20"/>
       <c r="AE63" s="20"/>
-      <c r="AG63" s="20"/>
-    </row>
-    <row r="64" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF63" s="20"/>
+    </row>
+    <row r="64" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W64" s="20"/>
       <c r="AE64" s="20"/>
-      <c r="AG64" s="20"/>
-    </row>
-    <row r="65" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF64" s="20"/>
+    </row>
+    <row r="65" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W65" s="20"/>
       <c r="AE65" s="20"/>
-      <c r="AG65" s="20"/>
-    </row>
-    <row r="66" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF65" s="20"/>
+    </row>
+    <row r="66" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W66" s="20"/>
       <c r="AE66" s="20"/>
-      <c r="AG66" s="20"/>
-    </row>
-    <row r="67" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF66" s="20"/>
+    </row>
+    <row r="67" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W67" s="20"/>
       <c r="AE67" s="20"/>
-      <c r="AG67" s="20"/>
-    </row>
-    <row r="68" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF67" s="20"/>
+    </row>
+    <row r="68" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W68" s="20"/>
       <c r="AE68" s="20"/>
-      <c r="AG68" s="20"/>
-    </row>
-    <row r="69" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF68" s="20"/>
+    </row>
+    <row r="69" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W69" s="20"/>
       <c r="AE69" s="20"/>
-      <c r="AG69" s="20"/>
-    </row>
-    <row r="70" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF69" s="20"/>
+    </row>
+    <row r="70" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W70" s="20"/>
       <c r="AE70" s="20"/>
-      <c r="AG70" s="20"/>
-    </row>
-    <row r="71" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF70" s="20"/>
+    </row>
+    <row r="71" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W71" s="20"/>
       <c r="AE71" s="20"/>
-      <c r="AG71" s="20"/>
-    </row>
-    <row r="72" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF71" s="20"/>
+    </row>
+    <row r="72" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W72" s="20"/>
       <c r="AE72" s="20"/>
-      <c r="AG72" s="20"/>
-    </row>
-    <row r="73" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF72" s="20"/>
+    </row>
+    <row r="73" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W73" s="20"/>
       <c r="AE73" s="20"/>
-      <c r="AG73" s="20"/>
-    </row>
-    <row r="74" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF73" s="20"/>
+    </row>
+    <row r="74" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W74" s="20"/>
       <c r="AE74" s="20"/>
-      <c r="AG74" s="20"/>
-    </row>
-    <row r="75" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF74" s="20"/>
+    </row>
+    <row r="75" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W75" s="20"/>
       <c r="AE75" s="20"/>
-      <c r="AG75" s="20"/>
-    </row>
-    <row r="76" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF75" s="20"/>
+    </row>
+    <row r="76" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W76" s="20"/>
       <c r="AE76" s="20"/>
-      <c r="AG76" s="20"/>
-    </row>
-    <row r="77" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF76" s="20"/>
+    </row>
+    <row r="77" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W77" s="20"/>
       <c r="AE77" s="20"/>
-      <c r="AG77" s="20"/>
-    </row>
-    <row r="78" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF77" s="20"/>
+    </row>
+    <row r="78" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W78" s="20"/>
       <c r="AE78" s="20"/>
-      <c r="AG78" s="20"/>
-    </row>
-    <row r="79" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF78" s="20"/>
+    </row>
+    <row r="79" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W79" s="20"/>
       <c r="AE79" s="20"/>
-      <c r="AG79" s="20"/>
-    </row>
-    <row r="80" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF79" s="20"/>
+    </row>
+    <row r="80" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W80" s="20"/>
       <c r="AE80" s="20"/>
-      <c r="AG80" s="20"/>
-    </row>
-    <row r="81" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF80" s="20"/>
+    </row>
+    <row r="81" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W81" s="20"/>
       <c r="AE81" s="20"/>
-      <c r="AG81" s="20"/>
-    </row>
-    <row r="82" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF81" s="20"/>
+    </row>
+    <row r="82" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W82" s="20"/>
       <c r="AE82" s="20"/>
-      <c r="AG82" s="20"/>
-    </row>
-    <row r="83" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF82" s="20"/>
+    </row>
+    <row r="83" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W83" s="20"/>
       <c r="AE83" s="20"/>
-      <c r="AG83" s="20"/>
-    </row>
-    <row r="84" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF83" s="20"/>
+    </row>
+    <row r="84" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W84" s="20"/>
       <c r="AE84" s="20"/>
-      <c r="AG84" s="20"/>
-    </row>
-    <row r="85" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF84" s="20"/>
+    </row>
+    <row r="85" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W85" s="20"/>
       <c r="AE85" s="20"/>
-      <c r="AG85" s="20"/>
-    </row>
-    <row r="86" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF85" s="20"/>
+    </row>
+    <row r="86" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W86" s="20"/>
       <c r="AE86" s="20"/>
-      <c r="AG86" s="20"/>
-    </row>
-    <row r="87" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF86" s="20"/>
+    </row>
+    <row r="87" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W87" s="20"/>
       <c r="AE87" s="20"/>
-      <c r="AG87" s="20"/>
-    </row>
-    <row r="88" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF87" s="20"/>
+    </row>
+    <row r="88" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W88" s="20"/>
       <c r="AE88" s="20"/>
-      <c r="AG88" s="20"/>
-    </row>
-    <row r="89" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF88" s="20"/>
+    </row>
+    <row r="89" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W89" s="20"/>
       <c r="AE89" s="20"/>
-      <c r="AG89" s="20"/>
-    </row>
-    <row r="90" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF89" s="20"/>
+    </row>
+    <row r="90" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W90" s="20"/>
       <c r="AE90" s="20"/>
-      <c r="AG90" s="20"/>
-    </row>
-    <row r="91" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF90" s="20"/>
+    </row>
+    <row r="91" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W91" s="20"/>
       <c r="AE91" s="20"/>
-      <c r="AG91" s="20"/>
-    </row>
-    <row r="92" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF91" s="20"/>
+    </row>
+    <row r="92" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W92" s="20"/>
       <c r="AE92" s="20"/>
-      <c r="AG92" s="20"/>
-    </row>
-    <row r="93" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF92" s="20"/>
+    </row>
+    <row r="93" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W93" s="20"/>
       <c r="AE93" s="20"/>
-      <c r="AG93" s="20"/>
-    </row>
-    <row r="94" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF93" s="20"/>
+    </row>
+    <row r="94" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W94" s="20"/>
       <c r="AE94" s="20"/>
-      <c r="AG94" s="20"/>
-    </row>
-    <row r="95" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF94" s="20"/>
+    </row>
+    <row r="95" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W95" s="20"/>
       <c r="AE95" s="20"/>
-      <c r="AG95" s="20"/>
-    </row>
-    <row r="96" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF95" s="20"/>
+    </row>
+    <row r="96" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W96" s="20"/>
       <c r="AE96" s="20"/>
-      <c r="AG96" s="20"/>
-    </row>
-    <row r="97" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF96" s="20"/>
+    </row>
+    <row r="97" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W97" s="20"/>
       <c r="AE97" s="20"/>
-      <c r="AG97" s="20"/>
-    </row>
-    <row r="98" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF97" s="20"/>
+    </row>
+    <row r="98" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W98" s="20"/>
       <c r="AE98" s="20"/>
-      <c r="AG98" s="20"/>
-    </row>
-    <row r="99" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF98" s="20"/>
+    </row>
+    <row r="99" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W99" s="20"/>
       <c r="AE99" s="20"/>
-      <c r="AG99" s="20"/>
-    </row>
-    <row r="100" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF99" s="20"/>
+    </row>
+    <row r="100" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W100" s="20"/>
       <c r="AE100" s="20"/>
-      <c r="AG100" s="20"/>
-    </row>
-    <row r="101" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF100" s="20"/>
+    </row>
+    <row r="101" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W101" s="20"/>
       <c r="AE101" s="20"/>
-      <c r="AG101" s="20"/>
-    </row>
-    <row r="102" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF101" s="20"/>
+    </row>
+    <row r="102" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W102" s="20"/>
       <c r="AE102" s="20"/>
-      <c r="AG102" s="20"/>
-    </row>
-    <row r="103" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF102" s="20"/>
+    </row>
+    <row r="103" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W103" s="20"/>
       <c r="AE103" s="20"/>
-      <c r="AG103" s="20"/>
-    </row>
-    <row r="104" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF103" s="20"/>
+    </row>
+    <row r="104" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W104" s="20"/>
       <c r="AE104" s="20"/>
-      <c r="AG104" s="20"/>
-    </row>
-    <row r="105" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF104" s="20"/>
+    </row>
+    <row r="105" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W105" s="20"/>
       <c r="AE105" s="20"/>
-      <c r="AG105" s="20"/>
-    </row>
-    <row r="106" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF105" s="20"/>
+    </row>
+    <row r="106" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W106" s="20"/>
       <c r="AE106" s="20"/>
-      <c r="AG106" s="20"/>
-    </row>
-    <row r="107" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF106" s="20"/>
+    </row>
+    <row r="107" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W107" s="20"/>
       <c r="AE107" s="20"/>
-      <c r="AG107" s="20"/>
-    </row>
-    <row r="108" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF107" s="20"/>
+    </row>
+    <row r="108" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W108" s="20"/>
       <c r="AE108" s="20"/>
-      <c r="AG108" s="20"/>
-    </row>
-    <row r="109" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF108" s="20"/>
+    </row>
+    <row r="109" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W109" s="20"/>
       <c r="AE109" s="20"/>
-      <c r="AG109" s="20"/>
-    </row>
-    <row r="110" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF109" s="20"/>
+    </row>
+    <row r="110" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W110" s="20"/>
       <c r="AE110" s="20"/>
-      <c r="AG110" s="20"/>
-    </row>
-    <row r="111" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF110" s="20"/>
+    </row>
+    <row r="111" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W111" s="20"/>
       <c r="AE111" s="20"/>
-      <c r="AG111" s="20"/>
-    </row>
-    <row r="112" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF111" s="20"/>
+    </row>
+    <row r="112" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W112" s="20"/>
       <c r="AE112" s="20"/>
-      <c r="AG112" s="20"/>
-    </row>
-    <row r="113" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF112" s="20"/>
+    </row>
+    <row r="113" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W113" s="20"/>
       <c r="AE113" s="20"/>
-      <c r="AG113" s="20"/>
-    </row>
-    <row r="114" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF113" s="20"/>
+    </row>
+    <row r="114" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W114" s="20"/>
       <c r="AE114" s="20"/>
-      <c r="AG114" s="20"/>
-    </row>
-    <row r="115" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF114" s="20"/>
+    </row>
+    <row r="115" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W115" s="20"/>
       <c r="AE115" s="20"/>
-      <c r="AG115" s="20"/>
-    </row>
-    <row r="116" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF115" s="20"/>
+    </row>
+    <row r="116" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W116" s="20"/>
       <c r="AE116" s="20"/>
-      <c r="AG116" s="20"/>
-    </row>
-    <row r="117" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF116" s="20"/>
+    </row>
+    <row r="117" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W117" s="20"/>
       <c r="AE117" s="20"/>
-      <c r="AG117" s="20"/>
-    </row>
-    <row r="118" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF117" s="20"/>
+    </row>
+    <row r="118" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W118" s="20"/>
       <c r="AE118" s="20"/>
-      <c r="AG118" s="20"/>
-    </row>
-    <row r="119" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF118" s="20"/>
+    </row>
+    <row r="119" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W119" s="20"/>
       <c r="AE119" s="20"/>
-      <c r="AG119" s="20"/>
-    </row>
-    <row r="120" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF119" s="20"/>
+    </row>
+    <row r="120" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W120" s="20"/>
       <c r="AE120" s="20"/>
-      <c r="AG120" s="20"/>
-    </row>
-    <row r="121" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF120" s="20"/>
+    </row>
+    <row r="121" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W121" s="20"/>
       <c r="AE121" s="20"/>
-      <c r="AG121" s="20"/>
-    </row>
-    <row r="122" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF121" s="20"/>
+    </row>
+    <row r="122" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W122" s="20"/>
       <c r="AE122" s="20"/>
-      <c r="AG122" s="20"/>
-    </row>
-    <row r="123" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF122" s="20"/>
+    </row>
+    <row r="123" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W123" s="20"/>
       <c r="AE123" s="20"/>
-      <c r="AG123" s="20"/>
-    </row>
-    <row r="124" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF123" s="20"/>
+    </row>
+    <row r="124" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W124" s="20"/>
       <c r="AE124" s="20"/>
-      <c r="AG124" s="20"/>
-    </row>
-    <row r="125" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF124" s="20"/>
+    </row>
+    <row r="125" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W125" s="20"/>
       <c r="AE125" s="20"/>
-      <c r="AG125" s="20"/>
-    </row>
-    <row r="126" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF125" s="20"/>
+    </row>
+    <row r="126" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W126" s="20"/>
       <c r="AE126" s="20"/>
-      <c r="AG126" s="20"/>
-    </row>
-    <row r="127" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF126" s="20"/>
+    </row>
+    <row r="127" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W127" s="20"/>
       <c r="AE127" s="20"/>
-      <c r="AG127" s="20"/>
-    </row>
-    <row r="128" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF127" s="20"/>
+    </row>
+    <row r="128" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W128" s="20"/>
       <c r="AE128" s="20"/>
-      <c r="AG128" s="20"/>
-    </row>
-    <row r="129" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF128" s="20"/>
+    </row>
+    <row r="129" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W129" s="20"/>
       <c r="AE129" s="20"/>
-      <c r="AG129" s="20"/>
-    </row>
-    <row r="130" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF129" s="20"/>
+    </row>
+    <row r="130" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W130" s="20"/>
       <c r="AE130" s="20"/>
-      <c r="AG130" s="20"/>
-    </row>
-    <row r="131" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF130" s="20"/>
+    </row>
+    <row r="131" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W131" s="20"/>
       <c r="AE131" s="20"/>
-      <c r="AG131" s="20"/>
-    </row>
-    <row r="132" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF131" s="20"/>
+    </row>
+    <row r="132" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W132" s="20"/>
       <c r="AE132" s="20"/>
-      <c r="AG132" s="20"/>
-    </row>
-    <row r="133" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF132" s="20"/>
+    </row>
+    <row r="133" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W133" s="20"/>
       <c r="AE133" s="20"/>
-      <c r="AG133" s="20"/>
-    </row>
-    <row r="134" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF133" s="20"/>
+    </row>
+    <row r="134" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W134" s="20"/>
       <c r="AE134" s="20"/>
-      <c r="AG134" s="20"/>
-    </row>
-    <row r="135" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF134" s="20"/>
+    </row>
+    <row r="135" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W135" s="20"/>
       <c r="AE135" s="20"/>
-      <c r="AG135" s="20"/>
-    </row>
-    <row r="136" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF135" s="20"/>
+    </row>
+    <row r="136" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W136" s="20"/>
       <c r="AE136" s="20"/>
-      <c r="AG136" s="20"/>
-    </row>
-    <row r="137" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF136" s="20"/>
+    </row>
+    <row r="137" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W137" s="20"/>
       <c r="AE137" s="20"/>
-      <c r="AG137" s="20"/>
-    </row>
-    <row r="138" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF137" s="20"/>
+    </row>
+    <row r="138" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W138" s="20"/>
       <c r="AE138" s="20"/>
-      <c r="AG138" s="20"/>
-    </row>
-    <row r="139" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF138" s="20"/>
+    </row>
+    <row r="139" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W139" s="20"/>
       <c r="AE139" s="20"/>
-      <c r="AG139" s="20"/>
-    </row>
-    <row r="140" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF139" s="20"/>
+    </row>
+    <row r="140" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W140" s="20"/>
       <c r="AE140" s="20"/>
-      <c r="AG140" s="20"/>
-    </row>
-    <row r="141" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF140" s="20"/>
+    </row>
+    <row r="141" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W141" s="20"/>
       <c r="AE141" s="20"/>
-      <c r="AG141" s="20"/>
-    </row>
-    <row r="142" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF141" s="20"/>
+    </row>
+    <row r="142" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W142" s="20"/>
       <c r="AE142" s="20"/>
-      <c r="AG142" s="20"/>
-    </row>
-    <row r="143" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF142" s="20"/>
+    </row>
+    <row r="143" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W143" s="20"/>
       <c r="AE143" s="20"/>
-      <c r="AG143" s="20"/>
-    </row>
-    <row r="144" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF143" s="20"/>
+    </row>
+    <row r="144" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W144" s="20"/>
       <c r="AE144" s="20"/>
-      <c r="AG144" s="20"/>
-    </row>
-    <row r="145" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF144" s="20"/>
+    </row>
+    <row r="145" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W145" s="20"/>
       <c r="AE145" s="20"/>
-      <c r="AG145" s="20"/>
-    </row>
-    <row r="146" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF145" s="20"/>
+    </row>
+    <row r="146" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W146" s="20"/>
       <c r="AE146" s="20"/>
-      <c r="AG146" s="20"/>
-    </row>
-    <row r="147" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF146" s="20"/>
+    </row>
+    <row r="147" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W147" s="20"/>
       <c r="AE147" s="20"/>
-      <c r="AG147" s="20"/>
-    </row>
-    <row r="148" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF147" s="20"/>
+    </row>
+    <row r="148" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W148" s="20"/>
       <c r="AE148" s="20"/>
-      <c r="AG148" s="20"/>
-    </row>
-    <row r="149" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF148" s="20"/>
+    </row>
+    <row r="149" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W149" s="20"/>
       <c r="AE149" s="20"/>
-      <c r="AG149" s="20"/>
-    </row>
-    <row r="150" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF149" s="20"/>
+    </row>
+    <row r="150" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W150" s="20"/>
       <c r="AE150" s="20"/>
-      <c r="AG150" s="20"/>
-    </row>
-    <row r="151" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF150" s="20"/>
+    </row>
+    <row r="151" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W151" s="20"/>
       <c r="AE151" s="20"/>
-      <c r="AG151" s="20"/>
-    </row>
-    <row r="152" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF151" s="20"/>
+    </row>
+    <row r="152" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W152" s="20"/>
       <c r="AE152" s="20"/>
-      <c r="AG152" s="20"/>
-    </row>
-    <row r="153" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF152" s="20"/>
+    </row>
+    <row r="153" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W153" s="20"/>
       <c r="AE153" s="20"/>
-      <c r="AG153" s="20"/>
-    </row>
-    <row r="154" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF153" s="20"/>
+    </row>
+    <row r="154" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W154" s="20"/>
       <c r="AE154" s="20"/>
-      <c r="AG154" s="20"/>
-    </row>
-    <row r="155" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF154" s="20"/>
+    </row>
+    <row r="155" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W155" s="20"/>
       <c r="AE155" s="20"/>
-      <c r="AG155" s="20"/>
-    </row>
-    <row r="156" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF155" s="20"/>
+    </row>
+    <row r="156" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W156" s="20"/>
       <c r="AE156" s="20"/>
-      <c r="AG156" s="20"/>
-    </row>
-    <row r="157" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF156" s="20"/>
+    </row>
+    <row r="157" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W157" s="20"/>
       <c r="AE157" s="20"/>
-      <c r="AG157" s="20"/>
-    </row>
-    <row r="158" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF157" s="20"/>
+    </row>
+    <row r="158" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W158" s="20"/>
       <c r="AE158" s="20"/>
-      <c r="AG158" s="20"/>
-    </row>
-    <row r="159" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF158" s="20"/>
+    </row>
+    <row r="159" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W159" s="20"/>
       <c r="AE159" s="20"/>
-      <c r="AG159" s="20"/>
-    </row>
-    <row r="160" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF159" s="20"/>
+    </row>
+    <row r="160" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W160" s="20"/>
       <c r="AE160" s="20"/>
-      <c r="AG160" s="20"/>
-    </row>
-    <row r="161" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF160" s="20"/>
+    </row>
+    <row r="161" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W161" s="20"/>
       <c r="AE161" s="20"/>
-      <c r="AG161" s="20"/>
-    </row>
-    <row r="162" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF161" s="20"/>
+    </row>
+    <row r="162" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W162" s="20"/>
       <c r="AE162" s="20"/>
-      <c r="AG162" s="20"/>
-    </row>
-    <row r="163" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF162" s="20"/>
+    </row>
+    <row r="163" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W163" s="20"/>
       <c r="AE163" s="20"/>
-      <c r="AG163" s="20"/>
-    </row>
-    <row r="164" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF163" s="20"/>
+    </row>
+    <row r="164" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W164" s="20"/>
       <c r="AE164" s="20"/>
-      <c r="AG164" s="20"/>
-    </row>
-    <row r="165" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF164" s="20"/>
+    </row>
+    <row r="165" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W165" s="20"/>
       <c r="AE165" s="20"/>
-      <c r="AG165" s="20"/>
-    </row>
-    <row r="166" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF165" s="20"/>
+    </row>
+    <row r="166" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W166" s="20"/>
       <c r="AE166" s="20"/>
-      <c r="AG166" s="20"/>
-    </row>
-    <row r="167" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF166" s="20"/>
+    </row>
+    <row r="167" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W167" s="20"/>
       <c r="AE167" s="20"/>
-      <c r="AG167" s="20"/>
-    </row>
-    <row r="168" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF167" s="20"/>
+    </row>
+    <row r="168" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W168" s="20"/>
       <c r="AE168" s="20"/>
-      <c r="AG168" s="20"/>
-    </row>
-    <row r="169" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF168" s="20"/>
+    </row>
+    <row r="169" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W169" s="20"/>
       <c r="AE169" s="20"/>
-      <c r="AG169" s="20"/>
-    </row>
-    <row r="170" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF169" s="20"/>
+    </row>
+    <row r="170" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W170" s="20"/>
       <c r="AE170" s="20"/>
-      <c r="AG170" s="20"/>
-    </row>
-    <row r="171" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF170" s="20"/>
+    </row>
+    <row r="171" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W171" s="20"/>
       <c r="AE171" s="20"/>
-      <c r="AG171" s="20"/>
-    </row>
-    <row r="172" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF171" s="20"/>
+    </row>
+    <row r="172" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W172" s="20"/>
       <c r="AE172" s="20"/>
-      <c r="AG172" s="20"/>
-    </row>
-    <row r="173" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF172" s="20"/>
+    </row>
+    <row r="173" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W173" s="20"/>
       <c r="AE173" s="20"/>
-      <c r="AG173" s="20"/>
-    </row>
-    <row r="174" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF173" s="20"/>
+    </row>
+    <row r="174" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W174" s="20"/>
       <c r="AE174" s="20"/>
-      <c r="AG174" s="20"/>
-    </row>
-    <row r="175" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF174" s="20"/>
+    </row>
+    <row r="175" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W175" s="20"/>
       <c r="AE175" s="20"/>
-      <c r="AG175" s="20"/>
-    </row>
-    <row r="176" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF175" s="20"/>
+    </row>
+    <row r="176" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W176" s="20"/>
       <c r="AE176" s="20"/>
-      <c r="AG176" s="20"/>
-    </row>
-    <row r="177" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF176" s="20"/>
+    </row>
+    <row r="177" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W177" s="20"/>
       <c r="AE177" s="20"/>
-      <c r="AG177" s="20"/>
-    </row>
-    <row r="178" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF177" s="20"/>
+    </row>
+    <row r="178" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W178" s="20"/>
       <c r="AE178" s="20"/>
-      <c r="AG178" s="20"/>
-    </row>
-    <row r="179" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF178" s="20"/>
+    </row>
+    <row r="179" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W179" s="20"/>
       <c r="AE179" s="20"/>
-      <c r="AG179" s="20"/>
-    </row>
-    <row r="180" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF179" s="20"/>
+    </row>
+    <row r="180" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W180" s="20"/>
       <c r="AE180" s="20"/>
-      <c r="AG180" s="20"/>
-    </row>
-    <row r="181" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF180" s="20"/>
+    </row>
+    <row r="181" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W181" s="20"/>
       <c r="AE181" s="20"/>
-      <c r="AG181" s="20"/>
-    </row>
-    <row r="182" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF181" s="20"/>
+    </row>
+    <row r="182" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W182" s="20"/>
       <c r="AE182" s="20"/>
-      <c r="AG182" s="20"/>
-    </row>
-    <row r="183" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF182" s="20"/>
+    </row>
+    <row r="183" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W183" s="20"/>
       <c r="AE183" s="20"/>
-      <c r="AG183" s="20"/>
-    </row>
-    <row r="184" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF183" s="20"/>
+    </row>
+    <row r="184" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W184" s="20"/>
       <c r="AE184" s="20"/>
-      <c r="AG184" s="20"/>
-    </row>
-    <row r="185" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF184" s="20"/>
+    </row>
+    <row r="185" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W185" s="20"/>
       <c r="AE185" s="20"/>
-      <c r="AG185" s="20"/>
-    </row>
-    <row r="186" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF185" s="20"/>
+    </row>
+    <row r="186" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W186" s="20"/>
       <c r="AE186" s="20"/>
-      <c r="AG186" s="20"/>
-    </row>
-    <row r="187" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF186" s="20"/>
+    </row>
+    <row r="187" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W187" s="20"/>
       <c r="AE187" s="20"/>
-      <c r="AG187" s="20"/>
-    </row>
-    <row r="188" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF187" s="20"/>
+    </row>
+    <row r="188" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W188" s="20"/>
       <c r="AE188" s="20"/>
-      <c r="AG188" s="20"/>
-    </row>
-    <row r="189" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF188" s="20"/>
+    </row>
+    <row r="189" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W189" s="20"/>
       <c r="AE189" s="20"/>
-      <c r="AG189" s="20"/>
-    </row>
-    <row r="190" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF189" s="20"/>
+    </row>
+    <row r="190" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W190" s="20"/>
       <c r="AE190" s="20"/>
-      <c r="AG190" s="20"/>
-    </row>
-    <row r="191" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF190" s="20"/>
+    </row>
+    <row r="191" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W191" s="20"/>
       <c r="AE191" s="20"/>
-      <c r="AG191" s="20"/>
-    </row>
-    <row r="192" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF191" s="20"/>
+    </row>
+    <row r="192" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W192" s="20"/>
       <c r="AE192" s="20"/>
-      <c r="AG192" s="20"/>
-    </row>
-    <row r="193" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF192" s="20"/>
+    </row>
+    <row r="193" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W193" s="20"/>
       <c r="AE193" s="20"/>
-      <c r="AG193" s="20"/>
-    </row>
-    <row r="194" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF193" s="20"/>
+    </row>
+    <row r="194" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W194" s="20"/>
       <c r="AE194" s="20"/>
-      <c r="AG194" s="20"/>
-    </row>
-    <row r="195" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF194" s="20"/>
+    </row>
+    <row r="195" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W195" s="20"/>
       <c r="AE195" s="20"/>
-      <c r="AG195" s="20"/>
-    </row>
-    <row r="196" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF195" s="20"/>
+    </row>
+    <row r="196" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W196" s="20"/>
       <c r="AE196" s="20"/>
-      <c r="AG196" s="20"/>
-    </row>
-    <row r="197" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF196" s="20"/>
+    </row>
+    <row r="197" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W197" s="20"/>
       <c r="AE197" s="20"/>
-      <c r="AG197" s="20"/>
-    </row>
-    <row r="198" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF197" s="20"/>
+    </row>
+    <row r="198" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W198" s="20"/>
       <c r="AE198" s="20"/>
-      <c r="AG198" s="20"/>
-    </row>
-    <row r="199" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF198" s="20"/>
+    </row>
+    <row r="199" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W199" s="20"/>
       <c r="AE199" s="20"/>
-      <c r="AG199" s="20"/>
-    </row>
-    <row r="200" spans="31:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF199" s="20"/>
+    </row>
+    <row r="200" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AE200" s="20"/>
-      <c r="AG200" s="20"/>
+      <c r="AF200" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7366,7 +7447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D4F5-3E9F-48C1-83D6-A4ACD3B7FE09}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:G39"/>
     </sheetView>
   </sheetViews>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7373493-5A43-43BB-BCA3-0DE686A9F3B9}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48A93FB-69D0-4F8F-AC14-242F189C0B09}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1801,9 +1801,6 @@
     <t>wearable device</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervention Type </t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
@@ -2072,6 +2069,9 @@
   </si>
   <si>
     <t>promotion of healthy behavior</t>
+  </si>
+  <si>
+    <t>Intervention_type</t>
   </si>
 </sst>
 </file>
@@ -3030,8 +3030,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3305175" y="184150"/>
-              <a:ext cx="4581526" cy="3041650"/>
+              <a:off x="3302000" y="180975"/>
+              <a:ext cx="4584701" cy="2990850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3197,7 +3197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C1:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" numFmtId="49" showAll="0">
@@ -3283,8 +3283,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}" name="Table2" displayName="Table2" ref="A1:W296" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:W296" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W200">
-    <sortCondition ref="C1:C296"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W296">
+    <sortCondition ref="A1:A296"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{3FCD09ED-4669-4B6A-AA10-CA8EEB1F9114}" name="ID"/>
@@ -3323,7 +3323,7 @@
     <tableColumn id="2" xr3:uid="{D63BE219-238D-499A-A804-1C9D67AC2E34}" name="Challenges of technology use"/>
     <tableColumn id="3" xr3:uid="{8D569B08-204B-49B5-9725-B30BDDB921A6}" name="Findings"/>
     <tableColumn id="4" xr3:uid="{95CB8623-0E1E-463A-832C-23B54764F2AC}" name="Study limitations"/>
-    <tableColumn id="5" xr3:uid="{53D772CB-9168-4CE8-B089-683C24EB7C05}" name="Intervention Type "/>
+    <tableColumn id="5" xr3:uid="{53D772CB-9168-4CE8-B089-683C24EB7C05}" name="Intervention_type"/>
     <tableColumn id="6" xr3:uid="{0EAFCAAA-2D49-48B0-8A7A-2A41463DA5AF}" name="Length (in months)"/>
     <tableColumn id="7" xr3:uid="{29717171-C5A6-45AA-857D-97ACBB2CA000}" name="Treatment 2"/>
     <tableColumn id="8" xr3:uid="{7A49C9F5-5988-4F1A-AD3C-EE8AEC3F28B7}" name="Pre_post"/>
@@ -3613,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AF296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="198" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3647,7 +3647,7 @@
     <col min="25" max="25" width="38.36328125" customWidth="1"/>
     <col min="26" max="26" width="34.54296875" customWidth="1"/>
     <col min="27" max="27" width="49.26953125" customWidth="1"/>
-    <col min="28" max="28" width="21.81640625" customWidth="1"/>
+    <col min="28" max="28" width="59.1796875" customWidth="1"/>
     <col min="30" max="30" width="14.453125" customWidth="1"/>
     <col min="31" max="31" width="14.7265625" customWidth="1"/>
   </cols>
@@ -3699,7 +3699,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
@@ -3720,7 +3720,7 @@
         <v>19</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>21</v>
@@ -3734,91 +3734,91 @@
       <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>519</v>
+      <c r="AB1" s="21" t="s">
+        <v>609</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>532</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
+        <v>546</v>
+      </c>
+      <c r="P2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" t="s">
-        <v>193</v>
-      </c>
-      <c r="U2" t="s">
-        <v>560</v>
-      </c>
-      <c r="V2" t="s">
-        <v>189</v>
-      </c>
       <c r="W2" s="20" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -3832,91 +3832,91 @@
       <c r="AA2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC2">
         <v>3</v>
       </c>
       <c r="AD2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>2007</v>
+        <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="H3" t="s">
         <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>428</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>431</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q3" t="s">
         <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>433</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="X3" t="s">
         <v>58</v>
@@ -3930,8 +3930,8 @@
       <c r="AA3" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" t="s">
-        <v>580</v>
+      <c r="AB3" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC3">
         <v>1.5</v>
@@ -3940,81 +3940,81 @@
         <v>55</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="O4" t="s">
-        <v>389</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
         <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
@@ -4028,8 +4028,8 @@
       <c r="AA4" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" t="s">
-        <v>580</v>
+      <c r="AB4" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC4">
         <v>3</v>
@@ -4038,33 +4038,33 @@
         <v>55</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>521</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
@@ -4073,46 +4073,46 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
         <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
         <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="U5" t="s">
-        <v>560</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
         <v>40</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="X5" t="s">
         <v>92</v>
@@ -4126,91 +4126,91 @@
       <c r="AA5" t="s">
         <v>93</v>
       </c>
-      <c r="AB5" t="s">
-        <v>580</v>
+      <c r="AB5" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>525</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
         <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>533</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="O6" t="s">
-        <v>545</v>
+        <v>388</v>
       </c>
       <c r="P6" t="s">
-        <v>549</v>
+        <v>412</v>
       </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="S6" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="T6" t="s">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V6" t="s">
         <v>40</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X6" t="s">
         <v>117</v>
@@ -4224,40 +4224,40 @@
       <c r="AA6" t="s">
         <v>131</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
         <v>522</v>
@@ -4266,40 +4266,40 @@
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>530</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q7" t="s">
         <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U7" t="s">
         <v>39</v>
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="X7" t="s">
         <v>140</v>
@@ -4322,82 +4322,82 @@
       <c r="AA7" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC7">
         <v>30</v>
       </c>
       <c r="AD7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>526</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>519</v>
       </c>
       <c r="I8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="J8" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
         <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q8" t="s">
         <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="S8" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="U8" t="s">
         <v>39</v>
@@ -4406,7 +4406,7 @@
         <v>40</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="X8" t="s">
         <v>118</v>
@@ -4420,64 +4420,64 @@
       <c r="AA8" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="20" t="s">
         <v>516</v>
       </c>
       <c r="AC8">
         <v>4</v>
       </c>
       <c r="AD8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
         <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -4486,25 +4486,25 @@
         <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R9" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="U9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="X9" t="s">
         <v>179</v>
@@ -4518,91 +4518,91 @@
       <c r="AA9" t="s">
         <v>181</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
         <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>534</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="O10" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
         <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="T10" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V10" t="s">
         <v>40</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X10" t="s">
         <v>162</v>
@@ -4616,91 +4616,91 @@
       <c r="AA10" t="s">
         <v>163</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC10">
         <v>6</v>
       </c>
       <c r="AD10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>531</v>
       </c>
       <c r="K11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" t="s">
         <v>40</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
-        <v>356</v>
-      </c>
-      <c r="N11" t="s">
-        <v>352</v>
-      </c>
-      <c r="O11" t="s">
-        <v>70</v>
-      </c>
       <c r="P11" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="S11" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="T11" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="X11" t="s">
         <v>195</v>
@@ -4714,7 +4714,7 @@
       <c r="AA11" t="s">
         <v>197</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="20" t="s">
         <v>517</v>
       </c>
       <c r="AC11">
@@ -4724,42 +4724,42 @@
         <v>55</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="C12">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>519</v>
       </c>
       <c r="I12" t="s">
-        <v>541</v>
+        <v>202</v>
       </c>
       <c r="J12" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
@@ -4768,10 +4768,10 @@
         <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="N12" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="O12" t="s">
         <v>389</v>
@@ -4783,22 +4783,22 @@
         <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="S12" t="s">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="T12" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="X12" t="s">
         <v>205</v>
@@ -4812,52 +4812,52 @@
       <c r="AA12" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC12">
         <v>25</v>
       </c>
       <c r="AD12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="C13">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>367</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="J13" t="s">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -4866,28 +4866,28 @@
         <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="N13" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="O13" t="s">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="P13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="S13" t="s">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="T13" t="s">
-        <v>372</v>
+        <v>223</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
@@ -4896,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="X13" t="s">
         <v>229</v>
@@ -4910,7 +4910,7 @@
       <c r="AA13" t="s">
         <v>231</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC13">
@@ -4920,81 +4920,81 @@
         <v>55</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I14" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J14" t="s">
-        <v>394</v>
+        <v>236</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="M14" t="s">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
-        <v>395</v>
+        <v>237</v>
       </c>
       <c r="O14" t="s">
-        <v>546</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
       <c r="T14" t="s">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
         <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="X14" t="s">
         <v>243</v>
@@ -5008,91 +5008,91 @@
       <c r="AA14" t="s">
         <v>239</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="20" t="s">
         <v>516</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF14" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
         <v>533</v>
       </c>
       <c r="J15" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="K15" t="s">
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="S15" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="U15" t="s">
         <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="X15" t="s">
         <v>254</v>
@@ -5106,85 +5106,85 @@
       <c r="AA15" t="s">
         <v>261</v>
       </c>
-      <c r="AB15" t="s">
-        <v>580</v>
+      <c r="AB15" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC15">
         <v>18</v>
       </c>
       <c r="AD15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF15" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>523</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>534</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="K16" t="s">
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="N16" t="s">
-        <v>390</v>
+        <v>266</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
       <c r="P16" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="S16" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V16" t="s">
         <v>40</v>
@@ -5204,8 +5204,8 @@
       <c r="AA16" t="s">
         <v>270</v>
       </c>
-      <c r="AB16" t="s">
-        <v>580</v>
+      <c r="AB16" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC16">
         <v>15</v>
@@ -5214,81 +5214,81 @@
         <v>55</v>
       </c>
       <c r="AE16" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF16" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>524</v>
       </c>
       <c r="H17" t="s">
         <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>532</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="O17" t="s">
+        <v>544</v>
+      </c>
+      <c r="P17" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
+        <v>287</v>
+      </c>
+      <c r="S17" t="s">
+        <v>281</v>
+      </c>
+      <c r="T17" t="s">
+        <v>288</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" t="s">
-        <v>175</v>
-      </c>
-      <c r="R17" t="s">
-        <v>176</v>
-      </c>
-      <c r="S17" t="s">
-        <v>182</v>
-      </c>
-      <c r="T17" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" t="s">
-        <v>560</v>
-      </c>
-      <c r="V17" t="s">
-        <v>178</v>
-      </c>
       <c r="W17" s="20" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="X17" t="s">
         <v>289</v>
@@ -5302,91 +5302,91 @@
       <c r="AA17" t="s">
         <v>283</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF17" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>525</v>
       </c>
       <c r="H18" t="s">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J18" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K18" t="s">
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="M18" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="N18" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="O18" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
       </c>
       <c r="R18" t="s">
+        <v>303</v>
+      </c>
+      <c r="S18" t="s">
+        <v>298</v>
+      </c>
+      <c r="T18" t="s">
+        <v>299</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
         <v>40</v>
       </c>
-      <c r="S18" t="s">
-        <v>323</v>
-      </c>
-      <c r="T18" t="s">
-        <v>334</v>
-      </c>
-      <c r="U18" t="s">
-        <v>560</v>
-      </c>
-      <c r="V18" t="s">
-        <v>324</v>
-      </c>
       <c r="W18" s="20" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="X18" t="s">
         <v>300</v>
@@ -5400,91 +5400,91 @@
       <c r="AA18" t="s">
         <v>301</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC18">
         <v>3</v>
       </c>
       <c r="AD18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE18" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF18" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="H19" t="s">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="K19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" t="s">
+        <v>328</v>
+      </c>
+      <c r="N19" t="s">
+        <v>311</v>
+      </c>
+      <c r="O19" t="s">
         <v>40</v>
       </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" t="s">
-        <v>146</v>
-      </c>
-      <c r="N19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" t="s">
-        <v>412</v>
-      </c>
       <c r="P19" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="s">
+        <v>329</v>
+      </c>
+      <c r="R19" t="s">
         <v>40</v>
       </c>
-      <c r="R19" t="s">
-        <v>147</v>
-      </c>
       <c r="S19" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="T19" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="U19" t="s">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
@@ -5498,43 +5498,43 @@
       <c r="AA19" t="s">
         <v>332</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF19" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="H20" t="s">
         <v>95</v>
@@ -5543,7 +5543,7 @@
         <v>536</v>
       </c>
       <c r="J20" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="K20" t="s">
         <v>40</v>
@@ -5552,37 +5552,37 @@
         <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="N20" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="O20" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
         <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="T20" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="U20" t="s">
-        <v>560</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s">
         <v>183</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="X20" t="s">
         <v>349</v>
@@ -5596,91 +5596,91 @@
       <c r="AA20" t="s">
         <v>346</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC20">
         <v>14</v>
       </c>
       <c r="AD20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE20" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF20" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>318</v>
       </c>
       <c r="F21" t="s">
-        <v>474</v>
+        <v>319</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>206</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>538</v>
       </c>
       <c r="J21" t="s">
-        <v>476</v>
+        <v>320</v>
       </c>
       <c r="K21" t="s">
         <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>321</v>
       </c>
       <c r="M21" t="s">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="N21" t="s">
-        <v>477</v>
+        <v>322</v>
       </c>
       <c r="O21" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="P21" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q21" t="s">
         <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>479</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>480</v>
+        <v>323</v>
       </c>
       <c r="T21" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
       <c r="U21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V21" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="X21" t="s">
         <v>336</v>
@@ -5694,67 +5694,67 @@
       <c r="AA21" t="s">
         <v>337</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="20" t="s">
         <v>518</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE21" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF21" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>523</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="O22" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s">
         <v>412</v>
@@ -5763,13 +5763,13 @@
         <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="S22" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="T22" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
@@ -5778,7 +5778,7 @@
         <v>40</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="X22" t="s">
         <v>360</v>
@@ -5789,43 +5789,43 @@
       <c r="Z22" t="s">
         <v>361</v>
       </c>
-      <c r="AB22" t="s">
-        <v>580</v>
+      <c r="AB22" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC22">
         <v>13</v>
       </c>
       <c r="AD22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AE22" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF22" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
         <v>95</v>
@@ -5834,46 +5834,46 @@
         <v>540</v>
       </c>
       <c r="J23" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="K23" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="N23" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="O23" t="s">
+        <v>389</v>
+      </c>
+      <c r="P23" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q23" t="s">
         <v>40</v>
-      </c>
-      <c r="P23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>329</v>
       </c>
       <c r="R23" t="s">
         <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="T23" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="U23" t="s">
         <v>39</v>
       </c>
       <c r="V23" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="X23" t="s">
         <v>385</v>
@@ -5887,91 +5887,91 @@
       <c r="AA23" t="s">
         <v>387</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC23">
         <v>12</v>
       </c>
       <c r="AD23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF23" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="C24">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D24" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="F24" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
-        <v>459</v>
+        <v>190</v>
       </c>
       <c r="H24" t="s">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="K24" t="s">
         <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>457</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>465</v>
+        <v>369</v>
       </c>
       <c r="N24" t="s">
-        <v>466</v>
+        <v>370</v>
       </c>
       <c r="O24" t="s">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>464</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="T24" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="U24" t="s">
         <v>39</v>
       </c>
       <c r="V24" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="X24" t="s">
         <v>364</v>
@@ -5985,8 +5985,8 @@
       <c r="AA24" t="s">
         <v>375</v>
       </c>
-      <c r="AB24" t="s">
-        <v>580</v>
+      <c r="AB24" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC24">
         <v>6</v>
@@ -5995,72 +5995,72 @@
         <v>55</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF24" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>391</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="G25" t="s">
-        <v>529</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>399</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>395</v>
       </c>
       <c r="O25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P25" t="s">
         <v>412</v>
       </c>
       <c r="Q25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="S25" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="T25" t="s">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="U25" t="s">
         <v>39</v>
@@ -6069,7 +6069,7 @@
         <v>40</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="X25" t="s">
         <v>402</v>
@@ -6083,52 +6083,52 @@
       <c r="AA25" t="s">
         <v>398</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="20" t="s">
         <v>515</v>
       </c>
       <c r="AC25">
         <v>4</v>
       </c>
       <c r="AD25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF25" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C26">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="E26" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="J26" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="K26" t="s">
         <v>40</v>
@@ -6137,37 +6137,37 @@
         <v>170</v>
       </c>
       <c r="M26" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="N26" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="O26" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="P26" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q26" t="s">
         <v>40</v>
       </c>
       <c r="R26" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="S26" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="T26" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V26" t="s">
         <v>183</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="X26" t="s">
         <v>415</v>
@@ -6181,91 +6181,91 @@
       <c r="AA26" t="s">
         <v>416</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC26">
         <v>3</v>
       </c>
       <c r="AD26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF26" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C27">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>426</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="G27" t="s">
-        <v>521</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
         <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>431</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="P27" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Q27" t="s">
         <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>437</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="U27" t="s">
         <v>39</v>
       </c>
       <c r="V27" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="X27" t="s">
         <v>434</v>
@@ -6279,7 +6279,7 @@
       <c r="AA27" t="s">
         <v>438</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AC27">
@@ -6289,42 +6289,42 @@
         <v>55</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF27" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>442</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H28" t="s">
         <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>541</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
@@ -6333,10 +6333,10 @@
         <v>170</v>
       </c>
       <c r="M28" t="s">
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="O28" t="s">
         <v>448</v>
@@ -6345,25 +6345,25 @@
         <v>448</v>
       </c>
       <c r="Q28" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="R28" t="s">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="S28" t="s">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="T28" t="s">
-        <v>223</v>
+        <v>443</v>
       </c>
       <c r="U28" t="s">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="X28" t="s">
         <v>450</v>
@@ -6377,64 +6377,64 @@
       <c r="AA28" t="s">
         <v>452</v>
       </c>
-      <c r="AB28" t="s">
-        <v>580</v>
+      <c r="AB28" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF28" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="C29">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>454</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>455</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>456</v>
       </c>
       <c r="G29" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I29" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="K29" t="s">
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>457</v>
       </c>
       <c r="M29" t="s">
-        <v>265</v>
+        <v>465</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="O29" t="s">
         <v>448</v>
@@ -6446,22 +6446,22 @@
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="S29" t="s">
-        <v>268</v>
+        <v>462</v>
       </c>
       <c r="T29" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="U29" t="s">
-        <v>560</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="X29" t="s">
         <v>467</v>
@@ -6475,37 +6475,37 @@
       <c r="AA29" t="s">
         <v>470</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="20" t="s">
         <v>518</v>
       </c>
       <c r="AD29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF29" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="C30">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
       <c r="G30" t="s">
         <v>527</v>
@@ -6514,49 +6514,49 @@
         <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>537</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
       <c r="K30" t="s">
         <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
       <c r="N30" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>448</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>448</v>
       </c>
       <c r="Q30" t="s">
         <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="S30" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="T30" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
       <c r="U30" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="V30" t="s">
         <v>183</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="X30" t="s">
         <v>482</v>
@@ -6570,867 +6570,1325 @@
       <c r="AA30" t="s">
         <v>483</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB30" s="20" t="s">
         <v>514</v>
       </c>
       <c r="AD30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AE30" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF30" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W31" s="20"/>
+      <c r="AB31" s="20"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
     </row>
     <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W32" s="20"/>
+      <c r="AB32" s="20"/>
       <c r="AE32" s="20"/>
       <c r="AF32" s="20"/>
     </row>
     <row r="33" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W33" s="20"/>
+      <c r="AB33" s="20"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
     </row>
     <row r="34" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W34" s="20"/>
+      <c r="AB34" s="20"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
     </row>
     <row r="35" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W35" s="20"/>
+      <c r="AB35" s="20"/>
       <c r="AE35" s="20"/>
       <c r="AF35" s="20"/>
     </row>
     <row r="36" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W36" s="20"/>
+      <c r="AB36" s="20"/>
       <c r="AE36" s="20"/>
       <c r="AF36" s="20"/>
     </row>
     <row r="37" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W37" s="20"/>
+      <c r="AB37" s="20"/>
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
     </row>
     <row r="38" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W38" s="20"/>
+      <c r="AB38" s="20"/>
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
     </row>
     <row r="39" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W39" s="20"/>
+      <c r="AB39" s="20"/>
       <c r="AE39" s="20"/>
       <c r="AF39" s="20"/>
     </row>
     <row r="40" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W40" s="20"/>
+      <c r="AB40" s="20"/>
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
     </row>
     <row r="41" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W41" s="20"/>
+      <c r="AB41" s="20"/>
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
     </row>
     <row r="42" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W42" s="20"/>
+      <c r="AB42" s="20"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="20"/>
     </row>
     <row r="43" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W43" s="20"/>
+      <c r="AB43" s="20"/>
       <c r="AE43" s="20"/>
       <c r="AF43" s="20"/>
     </row>
     <row r="44" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W44" s="20"/>
+      <c r="AB44" s="20"/>
       <c r="AE44" s="20"/>
       <c r="AF44" s="20"/>
     </row>
     <row r="45" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W45" s="20"/>
+      <c r="AB45" s="20"/>
       <c r="AE45" s="20"/>
       <c r="AF45" s="20"/>
     </row>
     <row r="46" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W46" s="20"/>
+      <c r="AB46" s="20"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="20"/>
     </row>
     <row r="47" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W47" s="20"/>
+      <c r="AB47" s="20"/>
       <c r="AE47" s="20"/>
       <c r="AF47" s="20"/>
     </row>
     <row r="48" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W48" s="20"/>
+      <c r="AB48" s="20"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
     </row>
     <row r="49" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W49" s="20"/>
+      <c r="AB49" s="20"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
     </row>
     <row r="50" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W50" s="20"/>
+      <c r="AB50" s="20"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="20"/>
     </row>
     <row r="51" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W51" s="20"/>
+      <c r="AB51" s="20"/>
       <c r="AE51" s="20"/>
       <c r="AF51" s="20"/>
     </row>
     <row r="52" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W52" s="20"/>
+      <c r="AB52" s="20"/>
       <c r="AE52" s="20"/>
       <c r="AF52" s="20"/>
     </row>
     <row r="53" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W53" s="20"/>
+      <c r="AB53" s="20"/>
       <c r="AE53" s="20"/>
       <c r="AF53" s="20"/>
     </row>
     <row r="54" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W54" s="20"/>
+      <c r="AB54" s="20"/>
       <c r="AE54" s="20"/>
       <c r="AF54" s="20"/>
     </row>
     <row r="55" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W55" s="20"/>
+      <c r="AB55" s="20"/>
       <c r="AE55" s="20"/>
       <c r="AF55" s="20"/>
     </row>
     <row r="56" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W56" s="20"/>
+      <c r="AB56" s="20"/>
       <c r="AE56" s="20"/>
       <c r="AF56" s="20"/>
     </row>
     <row r="57" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W57" s="20"/>
+      <c r="AB57" s="20"/>
       <c r="AE57" s="20"/>
       <c r="AF57" s="20"/>
     </row>
     <row r="58" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W58" s="20"/>
+      <c r="AB58" s="20"/>
       <c r="AE58" s="20"/>
       <c r="AF58" s="20"/>
     </row>
     <row r="59" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W59" s="20"/>
+      <c r="AB59" s="20"/>
       <c r="AE59" s="20"/>
       <c r="AF59" s="20"/>
     </row>
     <row r="60" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W60" s="20"/>
+      <c r="AB60" s="20"/>
       <c r="AE60" s="20"/>
       <c r="AF60" s="20"/>
     </row>
     <row r="61" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W61" s="20"/>
+      <c r="AB61" s="20"/>
       <c r="AE61" s="20"/>
       <c r="AF61" s="20"/>
     </row>
     <row r="62" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W62" s="20"/>
+      <c r="AB62" s="20"/>
       <c r="AE62" s="20"/>
       <c r="AF62" s="20"/>
     </row>
     <row r="63" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W63" s="20"/>
+      <c r="AB63" s="20"/>
       <c r="AE63" s="20"/>
       <c r="AF63" s="20"/>
     </row>
     <row r="64" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W64" s="20"/>
+      <c r="AB64" s="20"/>
       <c r="AE64" s="20"/>
       <c r="AF64" s="20"/>
     </row>
     <row r="65" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W65" s="20"/>
+      <c r="AB65" s="20"/>
       <c r="AE65" s="20"/>
       <c r="AF65" s="20"/>
     </row>
     <row r="66" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W66" s="20"/>
+      <c r="AB66" s="20"/>
       <c r="AE66" s="20"/>
       <c r="AF66" s="20"/>
     </row>
     <row r="67" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W67" s="20"/>
+      <c r="AB67" s="20"/>
       <c r="AE67" s="20"/>
       <c r="AF67" s="20"/>
     </row>
     <row r="68" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W68" s="20"/>
+      <c r="AB68" s="20"/>
       <c r="AE68" s="20"/>
       <c r="AF68" s="20"/>
     </row>
     <row r="69" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W69" s="20"/>
+      <c r="AB69" s="20"/>
       <c r="AE69" s="20"/>
       <c r="AF69" s="20"/>
     </row>
     <row r="70" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W70" s="20"/>
+      <c r="AB70" s="20"/>
       <c r="AE70" s="20"/>
       <c r="AF70" s="20"/>
     </row>
     <row r="71" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W71" s="20"/>
+      <c r="AB71" s="20"/>
       <c r="AE71" s="20"/>
       <c r="AF71" s="20"/>
     </row>
     <row r="72" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W72" s="20"/>
+      <c r="AB72" s="20"/>
       <c r="AE72" s="20"/>
       <c r="AF72" s="20"/>
     </row>
     <row r="73" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W73" s="20"/>
+      <c r="AB73" s="20"/>
       <c r="AE73" s="20"/>
       <c r="AF73" s="20"/>
     </row>
     <row r="74" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W74" s="20"/>
+      <c r="AB74" s="20"/>
       <c r="AE74" s="20"/>
       <c r="AF74" s="20"/>
     </row>
     <row r="75" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W75" s="20"/>
+      <c r="AB75" s="20"/>
       <c r="AE75" s="20"/>
       <c r="AF75" s="20"/>
     </row>
     <row r="76" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W76" s="20"/>
+      <c r="AB76" s="20"/>
       <c r="AE76" s="20"/>
       <c r="AF76" s="20"/>
     </row>
     <row r="77" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W77" s="20"/>
+      <c r="AB77" s="20"/>
       <c r="AE77" s="20"/>
       <c r="AF77" s="20"/>
     </row>
     <row r="78" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W78" s="20"/>
+      <c r="AB78" s="20"/>
       <c r="AE78" s="20"/>
       <c r="AF78" s="20"/>
     </row>
     <row r="79" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W79" s="20"/>
+      <c r="AB79" s="20"/>
       <c r="AE79" s="20"/>
       <c r="AF79" s="20"/>
     </row>
     <row r="80" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W80" s="20"/>
+      <c r="AB80" s="20"/>
       <c r="AE80" s="20"/>
       <c r="AF80" s="20"/>
     </row>
     <row r="81" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W81" s="20"/>
+      <c r="AB81" s="20"/>
       <c r="AE81" s="20"/>
       <c r="AF81" s="20"/>
     </row>
     <row r="82" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W82" s="20"/>
+      <c r="AB82" s="20"/>
       <c r="AE82" s="20"/>
       <c r="AF82" s="20"/>
     </row>
     <row r="83" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W83" s="20"/>
+      <c r="AB83" s="20"/>
       <c r="AE83" s="20"/>
       <c r="AF83" s="20"/>
     </row>
     <row r="84" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W84" s="20"/>
+      <c r="AB84" s="20"/>
       <c r="AE84" s="20"/>
       <c r="AF84" s="20"/>
     </row>
     <row r="85" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W85" s="20"/>
+      <c r="AB85" s="20"/>
       <c r="AE85" s="20"/>
       <c r="AF85" s="20"/>
     </row>
     <row r="86" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W86" s="20"/>
+      <c r="AB86" s="20"/>
       <c r="AE86" s="20"/>
       <c r="AF86" s="20"/>
     </row>
     <row r="87" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W87" s="20"/>
+      <c r="AB87" s="20"/>
       <c r="AE87" s="20"/>
       <c r="AF87" s="20"/>
     </row>
     <row r="88" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W88" s="20"/>
+      <c r="AB88" s="20"/>
       <c r="AE88" s="20"/>
       <c r="AF88" s="20"/>
     </row>
     <row r="89" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W89" s="20"/>
+      <c r="AB89" s="20"/>
       <c r="AE89" s="20"/>
       <c r="AF89" s="20"/>
     </row>
     <row r="90" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W90" s="20"/>
+      <c r="AB90" s="20"/>
       <c r="AE90" s="20"/>
       <c r="AF90" s="20"/>
     </row>
     <row r="91" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W91" s="20"/>
+      <c r="AB91" s="20"/>
       <c r="AE91" s="20"/>
       <c r="AF91" s="20"/>
     </row>
     <row r="92" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W92" s="20"/>
+      <c r="AB92" s="20"/>
       <c r="AE92" s="20"/>
       <c r="AF92" s="20"/>
     </row>
     <row r="93" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W93" s="20"/>
+      <c r="AB93" s="20"/>
       <c r="AE93" s="20"/>
       <c r="AF93" s="20"/>
     </row>
     <row r="94" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W94" s="20"/>
+      <c r="AB94" s="20"/>
       <c r="AE94" s="20"/>
       <c r="AF94" s="20"/>
     </row>
     <row r="95" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W95" s="20"/>
+      <c r="AB95" s="20"/>
       <c r="AE95" s="20"/>
       <c r="AF95" s="20"/>
     </row>
     <row r="96" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W96" s="20"/>
+      <c r="AB96" s="20"/>
       <c r="AE96" s="20"/>
       <c r="AF96" s="20"/>
     </row>
     <row r="97" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W97" s="20"/>
+      <c r="AB97" s="20"/>
       <c r="AE97" s="20"/>
       <c r="AF97" s="20"/>
     </row>
     <row r="98" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W98" s="20"/>
+      <c r="AB98" s="20"/>
       <c r="AE98" s="20"/>
       <c r="AF98" s="20"/>
     </row>
     <row r="99" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W99" s="20"/>
+      <c r="AB99" s="20"/>
       <c r="AE99" s="20"/>
       <c r="AF99" s="20"/>
     </row>
     <row r="100" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W100" s="20"/>
+      <c r="AB100" s="20"/>
       <c r="AE100" s="20"/>
       <c r="AF100" s="20"/>
     </row>
     <row r="101" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W101" s="20"/>
+      <c r="AB101" s="20"/>
       <c r="AE101" s="20"/>
       <c r="AF101" s="20"/>
     </row>
     <row r="102" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W102" s="20"/>
+      <c r="AB102" s="20"/>
       <c r="AE102" s="20"/>
       <c r="AF102" s="20"/>
     </row>
     <row r="103" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W103" s="20"/>
+      <c r="AB103" s="20"/>
       <c r="AE103" s="20"/>
       <c r="AF103" s="20"/>
     </row>
     <row r="104" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W104" s="20"/>
+      <c r="AB104" s="20"/>
       <c r="AE104" s="20"/>
       <c r="AF104" s="20"/>
     </row>
     <row r="105" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W105" s="20"/>
+      <c r="AB105" s="20"/>
       <c r="AE105" s="20"/>
       <c r="AF105" s="20"/>
     </row>
     <row r="106" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W106" s="20"/>
+      <c r="AB106" s="20"/>
       <c r="AE106" s="20"/>
       <c r="AF106" s="20"/>
     </row>
     <row r="107" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W107" s="20"/>
+      <c r="AB107" s="20"/>
       <c r="AE107" s="20"/>
       <c r="AF107" s="20"/>
     </row>
     <row r="108" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W108" s="20"/>
+      <c r="AB108" s="20"/>
       <c r="AE108" s="20"/>
       <c r="AF108" s="20"/>
     </row>
     <row r="109" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W109" s="20"/>
+      <c r="AB109" s="20"/>
       <c r="AE109" s="20"/>
       <c r="AF109" s="20"/>
     </row>
     <row r="110" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W110" s="20"/>
+      <c r="AB110" s="20"/>
       <c r="AE110" s="20"/>
       <c r="AF110" s="20"/>
     </row>
     <row r="111" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W111" s="20"/>
+      <c r="AB111" s="20"/>
       <c r="AE111" s="20"/>
       <c r="AF111" s="20"/>
     </row>
     <row r="112" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W112" s="20"/>
+      <c r="AB112" s="20"/>
       <c r="AE112" s="20"/>
       <c r="AF112" s="20"/>
     </row>
     <row r="113" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W113" s="20"/>
+      <c r="AB113" s="20"/>
       <c r="AE113" s="20"/>
       <c r="AF113" s="20"/>
     </row>
     <row r="114" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W114" s="20"/>
+      <c r="AB114" s="20"/>
       <c r="AE114" s="20"/>
       <c r="AF114" s="20"/>
     </row>
     <row r="115" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W115" s="20"/>
+      <c r="AB115" s="20"/>
       <c r="AE115" s="20"/>
       <c r="AF115" s="20"/>
     </row>
     <row r="116" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W116" s="20"/>
+      <c r="AB116" s="20"/>
       <c r="AE116" s="20"/>
       <c r="AF116" s="20"/>
     </row>
     <row r="117" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W117" s="20"/>
+      <c r="AB117" s="20"/>
       <c r="AE117" s="20"/>
       <c r="AF117" s="20"/>
     </row>
     <row r="118" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W118" s="20"/>
+      <c r="AB118" s="20"/>
       <c r="AE118" s="20"/>
       <c r="AF118" s="20"/>
     </row>
     <row r="119" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W119" s="20"/>
+      <c r="AB119" s="20"/>
       <c r="AE119" s="20"/>
       <c r="AF119" s="20"/>
     </row>
     <row r="120" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W120" s="20"/>
+      <c r="AB120" s="20"/>
       <c r="AE120" s="20"/>
       <c r="AF120" s="20"/>
     </row>
     <row r="121" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W121" s="20"/>
+      <c r="AB121" s="20"/>
       <c r="AE121" s="20"/>
       <c r="AF121" s="20"/>
     </row>
     <row r="122" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W122" s="20"/>
+      <c r="AB122" s="20"/>
       <c r="AE122" s="20"/>
       <c r="AF122" s="20"/>
     </row>
     <row r="123" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W123" s="20"/>
+      <c r="AB123" s="20"/>
       <c r="AE123" s="20"/>
       <c r="AF123" s="20"/>
     </row>
     <row r="124" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W124" s="20"/>
+      <c r="AB124" s="20"/>
       <c r="AE124" s="20"/>
       <c r="AF124" s="20"/>
     </row>
     <row r="125" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W125" s="20"/>
+      <c r="AB125" s="20"/>
       <c r="AE125" s="20"/>
       <c r="AF125" s="20"/>
     </row>
     <row r="126" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W126" s="20"/>
+      <c r="AB126" s="20"/>
       <c r="AE126" s="20"/>
       <c r="AF126" s="20"/>
     </row>
     <row r="127" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W127" s="20"/>
+      <c r="AB127" s="20"/>
       <c r="AE127" s="20"/>
       <c r="AF127" s="20"/>
     </row>
     <row r="128" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W128" s="20"/>
+      <c r="AB128" s="20"/>
       <c r="AE128" s="20"/>
       <c r="AF128" s="20"/>
     </row>
     <row r="129" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W129" s="20"/>
+      <c r="AB129" s="20"/>
       <c r="AE129" s="20"/>
       <c r="AF129" s="20"/>
     </row>
     <row r="130" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W130" s="20"/>
+      <c r="AB130" s="20"/>
       <c r="AE130" s="20"/>
       <c r="AF130" s="20"/>
     </row>
     <row r="131" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W131" s="20"/>
+      <c r="AB131" s="20"/>
       <c r="AE131" s="20"/>
       <c r="AF131" s="20"/>
     </row>
     <row r="132" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W132" s="20"/>
+      <c r="AB132" s="20"/>
       <c r="AE132" s="20"/>
       <c r="AF132" s="20"/>
     </row>
     <row r="133" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W133" s="20"/>
+      <c r="AB133" s="20"/>
       <c r="AE133" s="20"/>
       <c r="AF133" s="20"/>
     </row>
     <row r="134" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W134" s="20"/>
+      <c r="AB134" s="20"/>
       <c r="AE134" s="20"/>
       <c r="AF134" s="20"/>
     </row>
     <row r="135" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W135" s="20"/>
+      <c r="AB135" s="20"/>
       <c r="AE135" s="20"/>
       <c r="AF135" s="20"/>
     </row>
     <row r="136" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W136" s="20"/>
+      <c r="AB136" s="20"/>
       <c r="AE136" s="20"/>
       <c r="AF136" s="20"/>
     </row>
     <row r="137" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W137" s="20"/>
+      <c r="AB137" s="20"/>
       <c r="AE137" s="20"/>
       <c r="AF137" s="20"/>
     </row>
     <row r="138" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W138" s="20"/>
+      <c r="AB138" s="20"/>
       <c r="AE138" s="20"/>
       <c r="AF138" s="20"/>
     </row>
     <row r="139" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W139" s="20"/>
+      <c r="AB139" s="20"/>
       <c r="AE139" s="20"/>
       <c r="AF139" s="20"/>
     </row>
     <row r="140" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W140" s="20"/>
+      <c r="AB140" s="20"/>
       <c r="AE140" s="20"/>
       <c r="AF140" s="20"/>
     </row>
     <row r="141" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W141" s="20"/>
+      <c r="AB141" s="20"/>
       <c r="AE141" s="20"/>
       <c r="AF141" s="20"/>
     </row>
     <row r="142" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W142" s="20"/>
+      <c r="AB142" s="20"/>
       <c r="AE142" s="20"/>
       <c r="AF142" s="20"/>
     </row>
     <row r="143" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W143" s="20"/>
+      <c r="AB143" s="20"/>
       <c r="AE143" s="20"/>
       <c r="AF143" s="20"/>
     </row>
     <row r="144" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W144" s="20"/>
+      <c r="AB144" s="20"/>
       <c r="AE144" s="20"/>
       <c r="AF144" s="20"/>
     </row>
     <row r="145" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W145" s="20"/>
+      <c r="AB145" s="20"/>
       <c r="AE145" s="20"/>
       <c r="AF145" s="20"/>
     </row>
     <row r="146" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W146" s="20"/>
+      <c r="AB146" s="20"/>
       <c r="AE146" s="20"/>
       <c r="AF146" s="20"/>
     </row>
     <row r="147" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W147" s="20"/>
+      <c r="AB147" s="20"/>
       <c r="AE147" s="20"/>
       <c r="AF147" s="20"/>
     </row>
     <row r="148" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W148" s="20"/>
+      <c r="AB148" s="20"/>
       <c r="AE148" s="20"/>
       <c r="AF148" s="20"/>
     </row>
     <row r="149" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W149" s="20"/>
+      <c r="AB149" s="20"/>
       <c r="AE149" s="20"/>
       <c r="AF149" s="20"/>
     </row>
     <row r="150" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W150" s="20"/>
+      <c r="AB150" s="20"/>
       <c r="AE150" s="20"/>
       <c r="AF150" s="20"/>
     </row>
     <row r="151" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W151" s="20"/>
+      <c r="AB151" s="20"/>
       <c r="AE151" s="20"/>
       <c r="AF151" s="20"/>
     </row>
     <row r="152" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W152" s="20"/>
+      <c r="AB152" s="20"/>
       <c r="AE152" s="20"/>
       <c r="AF152" s="20"/>
     </row>
     <row r="153" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W153" s="20"/>
+      <c r="AB153" s="20"/>
       <c r="AE153" s="20"/>
       <c r="AF153" s="20"/>
     </row>
     <row r="154" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W154" s="20"/>
+      <c r="AB154" s="20"/>
       <c r="AE154" s="20"/>
       <c r="AF154" s="20"/>
     </row>
     <row r="155" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W155" s="20"/>
+      <c r="AB155" s="20"/>
       <c r="AE155" s="20"/>
       <c r="AF155" s="20"/>
     </row>
     <row r="156" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W156" s="20"/>
+      <c r="AB156" s="20"/>
       <c r="AE156" s="20"/>
       <c r="AF156" s="20"/>
     </row>
     <row r="157" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W157" s="20"/>
+      <c r="AB157" s="20"/>
       <c r="AE157" s="20"/>
       <c r="AF157" s="20"/>
     </row>
     <row r="158" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W158" s="20"/>
+      <c r="AB158" s="20"/>
       <c r="AE158" s="20"/>
       <c r="AF158" s="20"/>
     </row>
     <row r="159" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W159" s="20"/>
+      <c r="AB159" s="20"/>
       <c r="AE159" s="20"/>
       <c r="AF159" s="20"/>
     </row>
     <row r="160" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W160" s="20"/>
+      <c r="AB160" s="20"/>
       <c r="AE160" s="20"/>
       <c r="AF160" s="20"/>
     </row>
     <row r="161" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W161" s="20"/>
+      <c r="AB161" s="20"/>
       <c r="AE161" s="20"/>
       <c r="AF161" s="20"/>
     </row>
     <row r="162" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W162" s="20"/>
+      <c r="AB162" s="20"/>
       <c r="AE162" s="20"/>
       <c r="AF162" s="20"/>
     </row>
     <row r="163" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W163" s="20"/>
+      <c r="AB163" s="20"/>
       <c r="AE163" s="20"/>
       <c r="AF163" s="20"/>
     </row>
     <row r="164" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W164" s="20"/>
+      <c r="AB164" s="20"/>
       <c r="AE164" s="20"/>
       <c r="AF164" s="20"/>
     </row>
     <row r="165" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W165" s="20"/>
+      <c r="AB165" s="20"/>
       <c r="AE165" s="20"/>
       <c r="AF165" s="20"/>
     </row>
     <row r="166" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W166" s="20"/>
+      <c r="AB166" s="20"/>
       <c r="AE166" s="20"/>
       <c r="AF166" s="20"/>
     </row>
     <row r="167" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W167" s="20"/>
+      <c r="AB167" s="20"/>
       <c r="AE167" s="20"/>
       <c r="AF167" s="20"/>
     </row>
     <row r="168" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W168" s="20"/>
+      <c r="AB168" s="20"/>
       <c r="AE168" s="20"/>
       <c r="AF168" s="20"/>
     </row>
     <row r="169" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W169" s="20"/>
+      <c r="AB169" s="20"/>
       <c r="AE169" s="20"/>
       <c r="AF169" s="20"/>
     </row>
     <row r="170" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W170" s="20"/>
+      <c r="AB170" s="20"/>
       <c r="AE170" s="20"/>
       <c r="AF170" s="20"/>
     </row>
     <row r="171" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W171" s="20"/>
+      <c r="AB171" s="20"/>
       <c r="AE171" s="20"/>
       <c r="AF171" s="20"/>
     </row>
     <row r="172" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W172" s="20"/>
+      <c r="AB172" s="20"/>
       <c r="AE172" s="20"/>
       <c r="AF172" s="20"/>
     </row>
     <row r="173" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W173" s="20"/>
+      <c r="AB173" s="20"/>
       <c r="AE173" s="20"/>
       <c r="AF173" s="20"/>
     </row>
     <row r="174" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W174" s="20"/>
+      <c r="AB174" s="20"/>
       <c r="AE174" s="20"/>
       <c r="AF174" s="20"/>
     </row>
     <row r="175" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W175" s="20"/>
+      <c r="AB175" s="20"/>
       <c r="AE175" s="20"/>
       <c r="AF175" s="20"/>
     </row>
     <row r="176" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W176" s="20"/>
+      <c r="AB176" s="20"/>
       <c r="AE176" s="20"/>
       <c r="AF176" s="20"/>
     </row>
     <row r="177" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W177" s="20"/>
+      <c r="AB177" s="20"/>
       <c r="AE177" s="20"/>
       <c r="AF177" s="20"/>
     </row>
     <row r="178" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W178" s="20"/>
+      <c r="AB178" s="20"/>
       <c r="AE178" s="20"/>
       <c r="AF178" s="20"/>
     </row>
     <row r="179" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W179" s="20"/>
+      <c r="AB179" s="20"/>
       <c r="AE179" s="20"/>
       <c r="AF179" s="20"/>
     </row>
     <row r="180" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W180" s="20"/>
+      <c r="AB180" s="20"/>
       <c r="AE180" s="20"/>
       <c r="AF180" s="20"/>
     </row>
     <row r="181" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W181" s="20"/>
+      <c r="AB181" s="20"/>
       <c r="AE181" s="20"/>
       <c r="AF181" s="20"/>
     </row>
     <row r="182" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W182" s="20"/>
+      <c r="AB182" s="20"/>
       <c r="AE182" s="20"/>
       <c r="AF182" s="20"/>
     </row>
     <row r="183" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W183" s="20"/>
+      <c r="AB183" s="20"/>
       <c r="AE183" s="20"/>
       <c r="AF183" s="20"/>
     </row>
     <row r="184" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W184" s="20"/>
+      <c r="AB184" s="20"/>
       <c r="AE184" s="20"/>
       <c r="AF184" s="20"/>
     </row>
     <row r="185" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W185" s="20"/>
+      <c r="AB185" s="20"/>
       <c r="AE185" s="20"/>
       <c r="AF185" s="20"/>
     </row>
     <row r="186" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W186" s="20"/>
+      <c r="AB186" s="20"/>
       <c r="AE186" s="20"/>
       <c r="AF186" s="20"/>
     </row>
     <row r="187" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W187" s="20"/>
+      <c r="AB187" s="20"/>
       <c r="AE187" s="20"/>
       <c r="AF187" s="20"/>
     </row>
     <row r="188" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W188" s="20"/>
+      <c r="AB188" s="20"/>
       <c r="AE188" s="20"/>
       <c r="AF188" s="20"/>
     </row>
     <row r="189" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W189" s="20"/>
+      <c r="AB189" s="20"/>
       <c r="AE189" s="20"/>
       <c r="AF189" s="20"/>
     </row>
     <row r="190" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W190" s="20"/>
+      <c r="AB190" s="20"/>
       <c r="AE190" s="20"/>
       <c r="AF190" s="20"/>
     </row>
     <row r="191" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W191" s="20"/>
+      <c r="AB191" s="20"/>
       <c r="AE191" s="20"/>
       <c r="AF191" s="20"/>
     </row>
     <row r="192" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W192" s="20"/>
+      <c r="AB192" s="20"/>
       <c r="AE192" s="20"/>
       <c r="AF192" s="20"/>
     </row>
     <row r="193" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W193" s="20"/>
+      <c r="AB193" s="20"/>
       <c r="AE193" s="20"/>
       <c r="AF193" s="20"/>
     </row>
     <row r="194" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W194" s="20"/>
+      <c r="AB194" s="20"/>
       <c r="AE194" s="20"/>
       <c r="AF194" s="20"/>
     </row>
     <row r="195" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W195" s="20"/>
+      <c r="AB195" s="20"/>
       <c r="AE195" s="20"/>
       <c r="AF195" s="20"/>
     </row>
     <row r="196" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W196" s="20"/>
+      <c r="AB196" s="20"/>
       <c r="AE196" s="20"/>
       <c r="AF196" s="20"/>
     </row>
     <row r="197" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W197" s="20"/>
+      <c r="AB197" s="20"/>
       <c r="AE197" s="20"/>
       <c r="AF197" s="20"/>
     </row>
     <row r="198" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W198" s="20"/>
+      <c r="AB198" s="20"/>
       <c r="AE198" s="20"/>
       <c r="AF198" s="20"/>
     </row>
     <row r="199" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W199" s="20"/>
+      <c r="AB199" s="20"/>
       <c r="AE199" s="20"/>
       <c r="AF199" s="20"/>
     </row>
     <row r="200" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB200" s="20"/>
       <c r="AE200" s="20"/>
       <c r="AF200" s="20"/>
+    </row>
+    <row r="201" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB201" s="20"/>
+    </row>
+    <row r="202" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB202" s="20"/>
+    </row>
+    <row r="203" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB203" s="20"/>
+    </row>
+    <row r="204" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB204" s="20"/>
+    </row>
+    <row r="205" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB205" s="20"/>
+    </row>
+    <row r="206" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB206" s="20"/>
+    </row>
+    <row r="207" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB207" s="20"/>
+    </row>
+    <row r="208" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB208" s="20"/>
+    </row>
+    <row r="209" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB209" s="20"/>
+    </row>
+    <row r="210" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB210" s="20"/>
+    </row>
+    <row r="211" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB211" s="20"/>
+    </row>
+    <row r="212" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB212" s="20"/>
+    </row>
+    <row r="213" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB213" s="20"/>
+    </row>
+    <row r="214" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB214" s="20"/>
+    </row>
+    <row r="215" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB215" s="20"/>
+    </row>
+    <row r="216" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB216" s="20"/>
+    </row>
+    <row r="217" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB217" s="20"/>
+    </row>
+    <row r="218" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB218" s="20"/>
+    </row>
+    <row r="219" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB219" s="20"/>
+    </row>
+    <row r="220" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB220" s="20"/>
+    </row>
+    <row r="221" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB221" s="20"/>
+    </row>
+    <row r="222" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB222" s="20"/>
+    </row>
+    <row r="223" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB223" s="20"/>
+    </row>
+    <row r="224" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB224" s="20"/>
+    </row>
+    <row r="225" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB225" s="20"/>
+    </row>
+    <row r="226" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB226" s="20"/>
+    </row>
+    <row r="227" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB227" s="20"/>
+    </row>
+    <row r="228" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB228" s="20"/>
+    </row>
+    <row r="229" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB229" s="20"/>
+    </row>
+    <row r="230" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB230" s="20"/>
+    </row>
+    <row r="231" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB231" s="20"/>
+    </row>
+    <row r="232" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB232" s="20"/>
+    </row>
+    <row r="233" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB233" s="20"/>
+    </row>
+    <row r="234" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB234" s="20"/>
+    </row>
+    <row r="235" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB235" s="20"/>
+    </row>
+    <row r="236" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB236" s="20"/>
+    </row>
+    <row r="237" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB237" s="20"/>
+    </row>
+    <row r="238" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB238" s="20"/>
+    </row>
+    <row r="239" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB239" s="20"/>
+    </row>
+    <row r="240" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB240" s="20"/>
+    </row>
+    <row r="241" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB241" s="20"/>
+    </row>
+    <row r="242" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB242" s="20"/>
+    </row>
+    <row r="243" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB243" s="20"/>
+    </row>
+    <row r="244" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB244" s="20"/>
+    </row>
+    <row r="245" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB245" s="20"/>
+    </row>
+    <row r="246" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB246" s="20"/>
+    </row>
+    <row r="247" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB247" s="20"/>
+    </row>
+    <row r="248" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB248" s="20"/>
+    </row>
+    <row r="249" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB249" s="20"/>
+    </row>
+    <row r="250" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB250" s="20"/>
+    </row>
+    <row r="251" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB251" s="20"/>
+    </row>
+    <row r="252" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB252" s="20"/>
+    </row>
+    <row r="253" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB253" s="20"/>
+    </row>
+    <row r="254" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB254" s="20"/>
+    </row>
+    <row r="255" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB255" s="20"/>
+    </row>
+    <row r="256" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB256" s="20"/>
+    </row>
+    <row r="257" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB257" s="20"/>
+    </row>
+    <row r="258" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB258" s="20"/>
+    </row>
+    <row r="259" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB259" s="20"/>
+    </row>
+    <row r="260" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB260" s="20"/>
+    </row>
+    <row r="261" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB261" s="20"/>
+    </row>
+    <row r="262" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB262" s="20"/>
+    </row>
+    <row r="263" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB263" s="20"/>
+    </row>
+    <row r="264" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB264" s="20"/>
+    </row>
+    <row r="265" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB265" s="20"/>
+    </row>
+    <row r="266" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB266" s="20"/>
+    </row>
+    <row r="267" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB267" s="20"/>
+    </row>
+    <row r="268" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB268" s="20"/>
+    </row>
+    <row r="269" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB269" s="20"/>
+    </row>
+    <row r="270" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB270" s="20"/>
+    </row>
+    <row r="271" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB271" s="20"/>
+    </row>
+    <row r="272" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB272" s="20"/>
+    </row>
+    <row r="273" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB273" s="20"/>
+    </row>
+    <row r="274" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB274" s="20"/>
+    </row>
+    <row r="275" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB275" s="20"/>
+    </row>
+    <row r="276" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB276" s="20"/>
+    </row>
+    <row r="277" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB277" s="20"/>
+    </row>
+    <row r="278" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB278" s="20"/>
+    </row>
+    <row r="279" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB279" s="20"/>
+    </row>
+    <row r="280" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB280" s="20"/>
+    </row>
+    <row r="281" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB281" s="20"/>
+    </row>
+    <row r="282" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB282" s="20"/>
+    </row>
+    <row r="283" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB283" s="20"/>
+    </row>
+    <row r="284" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB284" s="20"/>
+    </row>
+    <row r="285" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB285" s="20"/>
+    </row>
+    <row r="286" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB286" s="20"/>
+    </row>
+    <row r="287" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB287" s="20"/>
+    </row>
+    <row r="288" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB288" s="20"/>
+    </row>
+    <row r="289" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB289" s="20"/>
+    </row>
+    <row r="290" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB290" s="20"/>
+    </row>
+    <row r="291" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB291" s="20"/>
+    </row>
+    <row r="292" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB292" s="20"/>
+    </row>
+    <row r="293" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB293" s="20"/>
+    </row>
+    <row r="294" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB294" s="20"/>
+    </row>
+    <row r="295" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB295" s="20"/>
+    </row>
+    <row r="296" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB296" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7675,19 +8133,19 @@
         <v>2017</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>606</v>
-      </c>
       <c r="E23" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>583</v>
-      </c>
       <c r="G23" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -7698,7 +8156,7 @@
         <v>516</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E24" s="23">
         <v>2</v>
@@ -7718,7 +8176,7 @@
         <v>516</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E25" s="23">
         <v>2</v>
@@ -7735,10 +8193,10 @@
         <v>2021</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E26" s="23">
         <v>4</v>
@@ -7755,10 +8213,10 @@
         <v>2007</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E27" s="23">
         <v>2</v>
@@ -7775,10 +8233,10 @@
         <v>2023</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -7795,10 +8253,10 @@
         <v>2022</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E29" s="23">
         <v>5</v>
@@ -7815,10 +8273,10 @@
         <v>2022</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>40</v>
@@ -7838,7 +8296,7 @@
         <v>514</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E31" s="23">
         <v>7</v>
@@ -7855,7 +8313,7 @@
         <v>514</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
@@ -7872,7 +8330,7 @@
         <v>514</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E33" s="23">
         <v>3</v>
@@ -7889,7 +8347,7 @@
         <v>514</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E34" s="23">
         <v>2</v>
@@ -7906,7 +8364,7 @@
         <v>514</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E35" s="23">
         <v>4</v>
@@ -7923,7 +8381,7 @@
         <v>514</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E36" s="23">
         <v>3</v>
@@ -7940,7 +8398,7 @@
         <v>517</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E37" s="23">
         <v>1</v>
@@ -7957,7 +8415,7 @@
         <v>518</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
@@ -7974,7 +8432,7 @@
         <v>518</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E39" s="23">
         <v>1</v>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48A93FB-69D0-4F8F-AC14-242F189C0B09}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60C7034-1063-4B92-AA77-BFCA0EC7E7BC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3615,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="V12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3818,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -4014,7 +4014,7 @@
         <v>40</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
@@ -4112,7 +4112,7 @@
         <v>40</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X5" t="s">
         <v>92</v>
@@ -4210,7 +4210,7 @@
         <v>40</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="X6" t="s">
         <v>117</v>
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="X7" t="s">
         <v>140</v>
@@ -4406,7 +4406,7 @@
         <v>40</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="X8" t="s">
         <v>118</v>
@@ -4504,7 +4504,7 @@
         <v>178</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="X9" t="s">
         <v>179</v>
@@ -4602,7 +4602,7 @@
         <v>40</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="X10" t="s">
         <v>162</v>
@@ -4700,7 +4700,7 @@
         <v>189</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="X11" t="s">
         <v>195</v>
@@ -4798,7 +4798,7 @@
         <v>211</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="X12" t="s">
         <v>205</v>
@@ -4896,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="X13" t="s">
         <v>229</v>
@@ -5092,7 +5092,7 @@
         <v>40</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="X15" t="s">
         <v>254</v>
@@ -5190,7 +5190,7 @@
         <v>40</v>
       </c>
       <c r="W16" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="X16" t="s">
         <v>273</v>
@@ -5288,7 +5288,7 @@
         <v>40</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="X17" t="s">
         <v>289</v>
@@ -5386,7 +5386,7 @@
         <v>40</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="X18" t="s">
         <v>300</v>
@@ -5484,7 +5484,7 @@
         <v>282</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
@@ -5582,7 +5582,7 @@
         <v>183</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="X20" t="s">
         <v>349</v>
@@ -5680,7 +5680,7 @@
         <v>324</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="X21" t="s">
         <v>336</v>
@@ -5778,7 +5778,7 @@
         <v>40</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="X22" t="s">
         <v>360</v>
@@ -5873,7 +5873,7 @@
         <v>40</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="X23" t="s">
         <v>385</v>
@@ -5971,7 +5971,7 @@
         <v>40</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="X24" t="s">
         <v>364</v>
@@ -6069,7 +6069,7 @@
         <v>40</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="X25" t="s">
         <v>402</v>
@@ -6167,7 +6167,7 @@
         <v>183</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="X26" t="s">
         <v>415</v>
@@ -6363,7 +6363,7 @@
         <v>183</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="X28" t="s">
         <v>450</v>
@@ -6461,7 +6461,7 @@
         <v>463</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="X29" t="s">
         <v>467</v>
@@ -6556,7 +6556,7 @@
         <v>183</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="X30" t="s">
         <v>482</v>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60C7034-1063-4B92-AA77-BFCA0EC7E7BC}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DB8138-6749-4346-8B46-400ABC4DB045}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +77,7 @@
     how specific? race, what kind of lung cancer</t>
       </text>
     </comment>
-    <comment ref="Z1" authorId="3" shapeId="0" xr:uid="{383EA701-47E9-456B-9A10-09E096791051}">
+    <comment ref="AA1" authorId="3" shapeId="0" xr:uid="{383EA701-47E9-456B-9A10-09E096791051}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="629">
   <si>
     <t>Title</t>
   </si>
@@ -2072,6 +2072,63 @@
   </si>
   <si>
     <t>Intervention_type</t>
+  </si>
+  <si>
+    <t>Challenge_theme</t>
+  </si>
+  <si>
+    <t>low digital literacy</t>
+  </si>
+  <si>
+    <t>reliability regarding reporting</t>
+  </si>
+  <si>
+    <t>favor of in person care</t>
+  </si>
+  <si>
+    <t>device malfunction and sync issue</t>
+  </si>
+  <si>
+    <t>internet and tech access</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>low digital literacy, compliance</t>
+  </si>
+  <si>
+    <t>confusion and tmi</t>
+  </si>
+  <si>
+    <t>low digital literacy,lack of content</t>
+  </si>
+  <si>
+    <t>internet and tech access,reliability regarding reporting</t>
+  </si>
+  <si>
+    <t>internet and tech access,low digital literacy</t>
+  </si>
+  <si>
+    <t>device malfunction and sync issue,privacy,compliance</t>
+  </si>
+  <si>
+    <t>internet and tech access,low digital literacy,compliance</t>
+  </si>
+  <si>
+    <t>reliability regarding reporting,low digital literacy</t>
+  </si>
+  <si>
+    <t>internet and tech access,compliance</t>
+  </si>
+  <si>
+    <t>low digital literacy,compliance</t>
+  </si>
+  <si>
+    <t>confusion and tmi,favor of in-person care</t>
+  </si>
+  <si>
+    <t>low digital literacy,reliability regarding reporting</t>
   </si>
 </sst>
 </file>
@@ -3197,7 +3254,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C1:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" numFmtId="49" showAll="0">
@@ -3316,11 +3373,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AF1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="X1:AF1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AG1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="X1:AG1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DFE2B5C0-4535-4D3C-AE33-93CE5AE4D24E}" name="Impact of technology on treatment outcomes"/>
     <tableColumn id="2" xr3:uid="{D63BE219-238D-499A-A804-1C9D67AC2E34}" name="Challenges of technology use"/>
+    <tableColumn id="9" xr3:uid="{0EE96D2F-367A-4ACA-8024-1BADFBB45A96}" name="Challenge_theme"/>
     <tableColumn id="3" xr3:uid="{8D569B08-204B-49B5-9725-B30BDDB921A6}" name="Findings"/>
     <tableColumn id="4" xr3:uid="{95CB8623-0E1E-463A-832C-23B54764F2AC}" name="Study limitations"/>
     <tableColumn id="5" xr3:uid="{53D772CB-9168-4CE8-B089-683C24EB7C05}" name="Intervention_type"/>
@@ -3605,7 +3663,7 @@
   <threadedComment ref="M1" dT="2024-10-13T03:44:53.59" personId="{3C6D2DE2-B12C-4F9B-A58C-692EDC0036ED}" id="{5962EAE0-2FAB-4AB1-A5A2-0239209BA5F1}">
     <text>how specific? race, what kind of lung cancer</text>
   </threadedComment>
-  <threadedComment ref="Z1" dT="2024-10-13T03:46:55.98" personId="{3C6D2DE2-B12C-4F9B-A58C-692EDC0036ED}" id="{383EA701-47E9-456B-9A10-09E096791051}">
+  <threadedComment ref="AA1" dT="2024-10-13T03:46:55.98" personId="{3C6D2DE2-B12C-4F9B-A58C-692EDC0036ED}" id="{383EA701-47E9-456B-9A10-09E096791051}">
     <text>how does this different from the impact of technology?</text>
   </threadedComment>
 </ThreadedComments>
@@ -3613,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF296"/>
+  <dimension ref="A1:AG296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3644,15 +3702,15 @@
     <col min="22" max="22" width="16.81640625" customWidth="1"/>
     <col min="23" max="23" width="41.54296875" customWidth="1"/>
     <col min="24" max="24" width="55.1796875" customWidth="1"/>
-    <col min="25" max="25" width="38.36328125" customWidth="1"/>
-    <col min="26" max="26" width="34.54296875" customWidth="1"/>
-    <col min="27" max="27" width="49.26953125" customWidth="1"/>
-    <col min="28" max="28" width="59.1796875" customWidth="1"/>
-    <col min="30" max="30" width="14.453125" customWidth="1"/>
-    <col min="31" max="31" width="14.7265625" customWidth="1"/>
+    <col min="25" max="26" width="38.36328125" customWidth="1"/>
+    <col min="27" max="27" width="34.54296875" customWidth="1"/>
+    <col min="28" max="28" width="49.26953125" customWidth="1"/>
+    <col min="29" max="29" width="59.1796875" customWidth="1"/>
+    <col min="31" max="31" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -3729,28 +3787,31 @@
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3827,28 +3888,31 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>549</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AF2" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3925,28 +3989,31 @@
         <v>59</v>
       </c>
       <c r="Z3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA3" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AC3" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1.5</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AG3" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4023,28 +4090,31 @@
         <v>74</v>
       </c>
       <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AF4" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AG4" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4121,28 +4191,31 @@
         <v>99</v>
       </c>
       <c r="Z5" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA5" t="s">
         <v>100</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>93</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AC5" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>550</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AF5" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="AF5" s="20" t="s">
+      <c r="AG5" s="20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4219,28 +4292,31 @@
         <v>119</v>
       </c>
       <c r="Z6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA6" t="s">
         <v>130</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>131</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AC6" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>551</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AF6" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AG6" s="20" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4317,28 +4393,31 @@
         <v>141</v>
       </c>
       <c r="Z7" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA7" t="s">
         <v>142</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" s="20" t="s">
+      <c r="AC7" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>30</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>552</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AF7" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AG7" s="20" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4415,28 +4494,31 @@
         <v>149</v>
       </c>
       <c r="Z8" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA8" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" s="20" t="s">
+      <c r="AC8" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>4</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>553</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AF8" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AG8" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4513,28 +4595,31 @@
         <v>168</v>
       </c>
       <c r="Z9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA9" t="s">
         <v>180</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>181</v>
       </c>
-      <c r="AB9" s="20" t="s">
+      <c r="AC9" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>550</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AF9" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="AF9" s="20" t="s">
+      <c r="AG9" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4611,28 +4696,31 @@
         <v>161</v>
       </c>
       <c r="Z10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA10" t="s">
         <v>160</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>163</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AC10" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>6</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>549</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AF10" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AG10" s="20" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4709,28 +4797,31 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
         <v>196</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>197</v>
       </c>
-      <c r="AB11" s="20" t="s">
+      <c r="AC11" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>55</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AF11" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF11" s="20" t="s">
+      <c r="AG11" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4807,28 +4898,31 @@
         <v>214</v>
       </c>
       <c r="Z12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA12" t="s">
         <v>213</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AC12" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>25</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>554</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AF12" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF12" s="20" t="s">
+      <c r="AG12" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4905,28 +4999,31 @@
         <v>224</v>
       </c>
       <c r="Z13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA13" t="s">
         <v>230</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>231</v>
       </c>
-      <c r="AB13" s="20" t="s">
+      <c r="AC13" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>6</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AF13" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF13" s="20" t="s">
+      <c r="AG13" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5003,28 +5100,31 @@
         <v>245</v>
       </c>
       <c r="Z14" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA14" t="s">
         <v>244</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>239</v>
       </c>
-      <c r="AB14" s="20" t="s">
+      <c r="AC14" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>554</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AF14" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF14" s="20" t="s">
+      <c r="AG14" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5101,28 +5201,31 @@
         <v>260</v>
       </c>
       <c r="Z15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA15" t="s">
         <v>259</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>261</v>
       </c>
-      <c r="AB15" s="20" t="s">
+      <c r="AC15" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>18</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>549</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AF15" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="AF15" s="20" t="s">
+      <c r="AG15" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5199,28 +5302,31 @@
         <v>274</v>
       </c>
       <c r="Z16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA16" t="s">
         <v>275</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>270</v>
       </c>
-      <c r="AB16" s="20" t="s">
+      <c r="AC16" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>15</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>55</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AF16" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF16" s="20" t="s">
+      <c r="AG16" s="20" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5297,28 +5403,31 @@
         <v>291</v>
       </c>
       <c r="Z17" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA17" t="s">
         <v>290</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>283</v>
       </c>
-      <c r="AB17" s="20" t="s">
+      <c r="AC17" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>554</v>
       </c>
-      <c r="AE17" s="20" t="s">
+      <c r="AF17" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="AF17" s="20" t="s">
+      <c r="AG17" s="20" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5395,28 +5504,31 @@
         <v>305</v>
       </c>
       <c r="Z18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA18" t="s">
         <v>306</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>301</v>
       </c>
-      <c r="AB18" s="20" t="s">
+      <c r="AC18" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>550</v>
       </c>
-      <c r="AE18" s="20" t="s">
+      <c r="AF18" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="AF18" s="20" t="s">
+      <c r="AG18" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5493,28 +5605,31 @@
         <v>314</v>
       </c>
       <c r="Z19" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA19" t="s">
         <v>315</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>332</v>
       </c>
-      <c r="AB19" s="20" t="s">
+      <c r="AC19" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>554</v>
       </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AF19" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF19" s="20" t="s">
+      <c r="AG19" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5591,28 +5706,31 @@
         <v>348</v>
       </c>
       <c r="Z20" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA20" t="s">
         <v>345</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>346</v>
       </c>
-      <c r="AB20" s="20" t="s">
+      <c r="AC20" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>14</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>554</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AF20" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF20" s="20" t="s">
+      <c r="AG20" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5689,28 +5807,31 @@
         <v>335</v>
       </c>
       <c r="Z21" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA21" t="s">
         <v>325</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>337</v>
       </c>
-      <c r="AB21" s="20" t="s">
+      <c r="AC21" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>554</v>
       </c>
-      <c r="AE21" s="20" t="s">
+      <c r="AF21" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF21" s="20" t="s">
+      <c r="AG21" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5787,25 +5908,28 @@
         <v>353</v>
       </c>
       <c r="Z22" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA22" t="s">
         <v>361</v>
       </c>
-      <c r="AB22" s="20" t="s">
+      <c r="AC22" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>13</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>555</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AF22" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="AF22" s="20" t="s">
+      <c r="AG22" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5882,28 +6006,31 @@
         <v>384</v>
       </c>
       <c r="Z23" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA23" t="s">
         <v>386</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>387</v>
       </c>
-      <c r="AB23" s="20" t="s">
+      <c r="AC23" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>12</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>554</v>
       </c>
-      <c r="AE23" s="20" t="s">
+      <c r="AF23" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF23" s="20" t="s">
+      <c r="AG23" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5980,28 +6107,31 @@
         <v>373</v>
       </c>
       <c r="Z24" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA24" t="s">
         <v>374</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>375</v>
       </c>
-      <c r="AB24" s="20" t="s">
+      <c r="AC24" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>6</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>55</v>
       </c>
-      <c r="AE24" s="20" t="s">
+      <c r="AF24" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF24" s="20" t="s">
+      <c r="AG24" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6078,28 +6208,31 @@
         <v>397</v>
       </c>
       <c r="Z25" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA25" t="s">
         <v>403</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>398</v>
       </c>
-      <c r="AB25" s="20" t="s">
+      <c r="AC25" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>549</v>
       </c>
-      <c r="AE25" s="20" t="s">
+      <c r="AF25" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF25" s="20" t="s">
+      <c r="AG25" s="20" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6176,28 +6309,31 @@
         <v>418</v>
       </c>
       <c r="Z26" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA26" t="s">
         <v>417</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>416</v>
       </c>
-      <c r="AB26" s="20" t="s">
+      <c r="AC26" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>556</v>
       </c>
-      <c r="AE26" s="20" t="s">
+      <c r="AF26" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="AF26" s="20" t="s">
+      <c r="AG26" s="20" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6274,28 +6410,31 @@
         <v>435</v>
       </c>
       <c r="Z27" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA27" t="s">
         <v>436</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>438</v>
       </c>
-      <c r="AB27" s="20" t="s">
+      <c r="AC27" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>6</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>55</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AF27" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF27" s="20" t="s">
+      <c r="AG27" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6372,28 +6511,31 @@
         <v>40</v>
       </c>
       <c r="Z28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
         <v>451</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>452</v>
       </c>
-      <c r="AB28" s="20" t="s">
+      <c r="AC28" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>603</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AF28" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF28" s="20" t="s">
+      <c r="AG28" s="20" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6470,25 +6612,28 @@
         <v>469</v>
       </c>
       <c r="Z29" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA29" t="s">
         <v>468</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>470</v>
       </c>
-      <c r="AB29" s="20" t="s">
+      <c r="AC29" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>603</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AF29" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF29" s="20" t="s">
+      <c r="AG29" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6565,1330 +6710,1333 @@
         <v>484</v>
       </c>
       <c r="Z30" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA30" t="s">
         <v>481</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>483</v>
       </c>
-      <c r="AB30" s="20" t="s">
+      <c r="AC30" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>557</v>
       </c>
-      <c r="AE30" s="20" t="s">
+      <c r="AF30" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="AF30" s="20" t="s">
+      <c r="AG30" s="20" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AE31" s="20"/>
+      <c r="AC31" s="20"/>
       <c r="AF31" s="20"/>
-    </row>
-    <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG31" s="20"/>
+    </row>
+    <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AE32" s="20"/>
+      <c r="AC32" s="20"/>
       <c r="AF32" s="20"/>
-    </row>
-    <row r="33" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AE33" s="20"/>
+      <c r="AC33" s="20"/>
       <c r="AF33" s="20"/>
-    </row>
-    <row r="34" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG33" s="20"/>
+    </row>
+    <row r="34" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AE34" s="20"/>
+      <c r="AC34" s="20"/>
       <c r="AF34" s="20"/>
-    </row>
-    <row r="35" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG34" s="20"/>
+    </row>
+    <row r="35" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AE35" s="20"/>
+      <c r="AC35" s="20"/>
       <c r="AF35" s="20"/>
-    </row>
-    <row r="36" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG35" s="20"/>
+    </row>
+    <row r="36" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AE36" s="20"/>
+      <c r="AC36" s="20"/>
       <c r="AF36" s="20"/>
-    </row>
-    <row r="37" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG36" s="20"/>
+    </row>
+    <row r="37" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AE37" s="20"/>
+      <c r="AC37" s="20"/>
       <c r="AF37" s="20"/>
-    </row>
-    <row r="38" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG37" s="20"/>
+    </row>
+    <row r="38" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AE38" s="20"/>
+      <c r="AC38" s="20"/>
       <c r="AF38" s="20"/>
-    </row>
-    <row r="39" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG38" s="20"/>
+    </row>
+    <row r="39" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AE39" s="20"/>
+      <c r="AC39" s="20"/>
       <c r="AF39" s="20"/>
-    </row>
-    <row r="40" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG39" s="20"/>
+    </row>
+    <row r="40" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AE40" s="20"/>
+      <c r="AC40" s="20"/>
       <c r="AF40" s="20"/>
-    </row>
-    <row r="41" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG40" s="20"/>
+    </row>
+    <row r="41" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AE41" s="20"/>
+      <c r="AC41" s="20"/>
       <c r="AF41" s="20"/>
-    </row>
-    <row r="42" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG41" s="20"/>
+    </row>
+    <row r="42" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AE42" s="20"/>
+      <c r="AC42" s="20"/>
       <c r="AF42" s="20"/>
-    </row>
-    <row r="43" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG42" s="20"/>
+    </row>
+    <row r="43" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AE43" s="20"/>
+      <c r="AC43" s="20"/>
       <c r="AF43" s="20"/>
-    </row>
-    <row r="44" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG43" s="20"/>
+    </row>
+    <row r="44" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AE44" s="20"/>
+      <c r="AC44" s="20"/>
       <c r="AF44" s="20"/>
-    </row>
-    <row r="45" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG44" s="20"/>
+    </row>
+    <row r="45" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AE45" s="20"/>
+      <c r="AC45" s="20"/>
       <c r="AF45" s="20"/>
-    </row>
-    <row r="46" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG45" s="20"/>
+    </row>
+    <row r="46" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AE46" s="20"/>
+      <c r="AC46" s="20"/>
       <c r="AF46" s="20"/>
-    </row>
-    <row r="47" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG46" s="20"/>
+    </row>
+    <row r="47" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AE47" s="20"/>
+      <c r="AC47" s="20"/>
       <c r="AF47" s="20"/>
-    </row>
-    <row r="48" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG47" s="20"/>
+    </row>
+    <row r="48" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AE48" s="20"/>
+      <c r="AC48" s="20"/>
       <c r="AF48" s="20"/>
-    </row>
-    <row r="49" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG48" s="20"/>
+    </row>
+    <row r="49" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AE49" s="20"/>
+      <c r="AC49" s="20"/>
       <c r="AF49" s="20"/>
-    </row>
-    <row r="50" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG49" s="20"/>
+    </row>
+    <row r="50" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AE50" s="20"/>
+      <c r="AC50" s="20"/>
       <c r="AF50" s="20"/>
-    </row>
-    <row r="51" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG50" s="20"/>
+    </row>
+    <row r="51" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AE51" s="20"/>
+      <c r="AC51" s="20"/>
       <c r="AF51" s="20"/>
-    </row>
-    <row r="52" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG51" s="20"/>
+    </row>
+    <row r="52" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AE52" s="20"/>
+      <c r="AC52" s="20"/>
       <c r="AF52" s="20"/>
-    </row>
-    <row r="53" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG52" s="20"/>
+    </row>
+    <row r="53" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AE53" s="20"/>
+      <c r="AC53" s="20"/>
       <c r="AF53" s="20"/>
-    </row>
-    <row r="54" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG53" s="20"/>
+    </row>
+    <row r="54" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AE54" s="20"/>
+      <c r="AC54" s="20"/>
       <c r="AF54" s="20"/>
-    </row>
-    <row r="55" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG54" s="20"/>
+    </row>
+    <row r="55" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AE55" s="20"/>
+      <c r="AC55" s="20"/>
       <c r="AF55" s="20"/>
-    </row>
-    <row r="56" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG55" s="20"/>
+    </row>
+    <row r="56" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W56" s="20"/>
-      <c r="AB56" s="20"/>
-      <c r="AE56" s="20"/>
+      <c r="AC56" s="20"/>
       <c r="AF56" s="20"/>
-    </row>
-    <row r="57" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG56" s="20"/>
+    </row>
+    <row r="57" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AE57" s="20"/>
+      <c r="AC57" s="20"/>
       <c r="AF57" s="20"/>
-    </row>
-    <row r="58" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG57" s="20"/>
+    </row>
+    <row r="58" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W58" s="20"/>
-      <c r="AB58" s="20"/>
-      <c r="AE58" s="20"/>
+      <c r="AC58" s="20"/>
       <c r="AF58" s="20"/>
-    </row>
-    <row r="59" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG58" s="20"/>
+    </row>
+    <row r="59" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AE59" s="20"/>
+      <c r="AC59" s="20"/>
       <c r="AF59" s="20"/>
-    </row>
-    <row r="60" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG59" s="20"/>
+    </row>
+    <row r="60" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AE60" s="20"/>
+      <c r="AC60" s="20"/>
       <c r="AF60" s="20"/>
-    </row>
-    <row r="61" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG60" s="20"/>
+    </row>
+    <row r="61" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W61" s="20"/>
-      <c r="AB61" s="20"/>
-      <c r="AE61" s="20"/>
+      <c r="AC61" s="20"/>
       <c r="AF61" s="20"/>
-    </row>
-    <row r="62" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG61" s="20"/>
+    </row>
+    <row r="62" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W62" s="20"/>
-      <c r="AB62" s="20"/>
-      <c r="AE62" s="20"/>
+      <c r="AC62" s="20"/>
       <c r="AF62" s="20"/>
-    </row>
-    <row r="63" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG62" s="20"/>
+    </row>
+    <row r="63" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W63" s="20"/>
-      <c r="AB63" s="20"/>
-      <c r="AE63" s="20"/>
+      <c r="AC63" s="20"/>
       <c r="AF63" s="20"/>
-    </row>
-    <row r="64" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG63" s="20"/>
+    </row>
+    <row r="64" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W64" s="20"/>
-      <c r="AB64" s="20"/>
-      <c r="AE64" s="20"/>
+      <c r="AC64" s="20"/>
       <c r="AF64" s="20"/>
-    </row>
-    <row r="65" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG64" s="20"/>
+    </row>
+    <row r="65" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W65" s="20"/>
-      <c r="AB65" s="20"/>
-      <c r="AE65" s="20"/>
+      <c r="AC65" s="20"/>
       <c r="AF65" s="20"/>
-    </row>
-    <row r="66" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG65" s="20"/>
+    </row>
+    <row r="66" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AE66" s="20"/>
+      <c r="AC66" s="20"/>
       <c r="AF66" s="20"/>
-    </row>
-    <row r="67" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG66" s="20"/>
+    </row>
+    <row r="67" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W67" s="20"/>
-      <c r="AB67" s="20"/>
-      <c r="AE67" s="20"/>
+      <c r="AC67" s="20"/>
       <c r="AF67" s="20"/>
-    </row>
-    <row r="68" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG67" s="20"/>
+    </row>
+    <row r="68" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W68" s="20"/>
-      <c r="AB68" s="20"/>
-      <c r="AE68" s="20"/>
+      <c r="AC68" s="20"/>
       <c r="AF68" s="20"/>
-    </row>
-    <row r="69" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG68" s="20"/>
+    </row>
+    <row r="69" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W69" s="20"/>
-      <c r="AB69" s="20"/>
-      <c r="AE69" s="20"/>
+      <c r="AC69" s="20"/>
       <c r="AF69" s="20"/>
-    </row>
-    <row r="70" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG69" s="20"/>
+    </row>
+    <row r="70" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W70" s="20"/>
-      <c r="AB70" s="20"/>
-      <c r="AE70" s="20"/>
+      <c r="AC70" s="20"/>
       <c r="AF70" s="20"/>
-    </row>
-    <row r="71" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG70" s="20"/>
+    </row>
+    <row r="71" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W71" s="20"/>
-      <c r="AB71" s="20"/>
-      <c r="AE71" s="20"/>
+      <c r="AC71" s="20"/>
       <c r="AF71" s="20"/>
-    </row>
-    <row r="72" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG71" s="20"/>
+    </row>
+    <row r="72" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W72" s="20"/>
-      <c r="AB72" s="20"/>
-      <c r="AE72" s="20"/>
+      <c r="AC72" s="20"/>
       <c r="AF72" s="20"/>
-    </row>
-    <row r="73" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG72" s="20"/>
+    </row>
+    <row r="73" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W73" s="20"/>
-      <c r="AB73" s="20"/>
-      <c r="AE73" s="20"/>
+      <c r="AC73" s="20"/>
       <c r="AF73" s="20"/>
-    </row>
-    <row r="74" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG73" s="20"/>
+    </row>
+    <row r="74" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W74" s="20"/>
-      <c r="AB74" s="20"/>
-      <c r="AE74" s="20"/>
+      <c r="AC74" s="20"/>
       <c r="AF74" s="20"/>
-    </row>
-    <row r="75" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG74" s="20"/>
+    </row>
+    <row r="75" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W75" s="20"/>
-      <c r="AB75" s="20"/>
-      <c r="AE75" s="20"/>
+      <c r="AC75" s="20"/>
       <c r="AF75" s="20"/>
-    </row>
-    <row r="76" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG75" s="20"/>
+    </row>
+    <row r="76" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W76" s="20"/>
-      <c r="AB76" s="20"/>
-      <c r="AE76" s="20"/>
+      <c r="AC76" s="20"/>
       <c r="AF76" s="20"/>
-    </row>
-    <row r="77" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG76" s="20"/>
+    </row>
+    <row r="77" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W77" s="20"/>
-      <c r="AB77" s="20"/>
-      <c r="AE77" s="20"/>
+      <c r="AC77" s="20"/>
       <c r="AF77" s="20"/>
-    </row>
-    <row r="78" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG77" s="20"/>
+    </row>
+    <row r="78" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W78" s="20"/>
-      <c r="AB78" s="20"/>
-      <c r="AE78" s="20"/>
+      <c r="AC78" s="20"/>
       <c r="AF78" s="20"/>
-    </row>
-    <row r="79" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG78" s="20"/>
+    </row>
+    <row r="79" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W79" s="20"/>
-      <c r="AB79" s="20"/>
-      <c r="AE79" s="20"/>
+      <c r="AC79" s="20"/>
       <c r="AF79" s="20"/>
-    </row>
-    <row r="80" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG79" s="20"/>
+    </row>
+    <row r="80" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W80" s="20"/>
-      <c r="AB80" s="20"/>
-      <c r="AE80" s="20"/>
+      <c r="AC80" s="20"/>
       <c r="AF80" s="20"/>
-    </row>
-    <row r="81" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG80" s="20"/>
+    </row>
+    <row r="81" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W81" s="20"/>
-      <c r="AB81" s="20"/>
-      <c r="AE81" s="20"/>
+      <c r="AC81" s="20"/>
       <c r="AF81" s="20"/>
-    </row>
-    <row r="82" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG81" s="20"/>
+    </row>
+    <row r="82" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W82" s="20"/>
-      <c r="AB82" s="20"/>
-      <c r="AE82" s="20"/>
+      <c r="AC82" s="20"/>
       <c r="AF82" s="20"/>
-    </row>
-    <row r="83" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG82" s="20"/>
+    </row>
+    <row r="83" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W83" s="20"/>
-      <c r="AB83" s="20"/>
-      <c r="AE83" s="20"/>
+      <c r="AC83" s="20"/>
       <c r="AF83" s="20"/>
-    </row>
-    <row r="84" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG83" s="20"/>
+    </row>
+    <row r="84" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AE84" s="20"/>
+      <c r="AC84" s="20"/>
       <c r="AF84" s="20"/>
-    </row>
-    <row r="85" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG84" s="20"/>
+    </row>
+    <row r="85" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W85" s="20"/>
-      <c r="AB85" s="20"/>
-      <c r="AE85" s="20"/>
+      <c r="AC85" s="20"/>
       <c r="AF85" s="20"/>
-    </row>
-    <row r="86" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG85" s="20"/>
+    </row>
+    <row r="86" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W86" s="20"/>
-      <c r="AB86" s="20"/>
-      <c r="AE86" s="20"/>
+      <c r="AC86" s="20"/>
       <c r="AF86" s="20"/>
-    </row>
-    <row r="87" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG86" s="20"/>
+    </row>
+    <row r="87" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W87" s="20"/>
-      <c r="AB87" s="20"/>
-      <c r="AE87" s="20"/>
+      <c r="AC87" s="20"/>
       <c r="AF87" s="20"/>
-    </row>
-    <row r="88" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG87" s="20"/>
+    </row>
+    <row r="88" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W88" s="20"/>
-      <c r="AB88" s="20"/>
-      <c r="AE88" s="20"/>
+      <c r="AC88" s="20"/>
       <c r="AF88" s="20"/>
-    </row>
-    <row r="89" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG88" s="20"/>
+    </row>
+    <row r="89" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W89" s="20"/>
-      <c r="AB89" s="20"/>
-      <c r="AE89" s="20"/>
+      <c r="AC89" s="20"/>
       <c r="AF89" s="20"/>
-    </row>
-    <row r="90" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG89" s="20"/>
+    </row>
+    <row r="90" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W90" s="20"/>
-      <c r="AB90" s="20"/>
-      <c r="AE90" s="20"/>
+      <c r="AC90" s="20"/>
       <c r="AF90" s="20"/>
-    </row>
-    <row r="91" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG90" s="20"/>
+    </row>
+    <row r="91" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W91" s="20"/>
-      <c r="AB91" s="20"/>
-      <c r="AE91" s="20"/>
+      <c r="AC91" s="20"/>
       <c r="AF91" s="20"/>
-    </row>
-    <row r="92" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG91" s="20"/>
+    </row>
+    <row r="92" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W92" s="20"/>
-      <c r="AB92" s="20"/>
-      <c r="AE92" s="20"/>
+      <c r="AC92" s="20"/>
       <c r="AF92" s="20"/>
-    </row>
-    <row r="93" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG92" s="20"/>
+    </row>
+    <row r="93" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W93" s="20"/>
-      <c r="AB93" s="20"/>
-      <c r="AE93" s="20"/>
+      <c r="AC93" s="20"/>
       <c r="AF93" s="20"/>
-    </row>
-    <row r="94" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG93" s="20"/>
+    </row>
+    <row r="94" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W94" s="20"/>
-      <c r="AB94" s="20"/>
-      <c r="AE94" s="20"/>
+      <c r="AC94" s="20"/>
       <c r="AF94" s="20"/>
-    </row>
-    <row r="95" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG94" s="20"/>
+    </row>
+    <row r="95" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W95" s="20"/>
-      <c r="AB95" s="20"/>
-      <c r="AE95" s="20"/>
+      <c r="AC95" s="20"/>
       <c r="AF95" s="20"/>
-    </row>
-    <row r="96" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG95" s="20"/>
+    </row>
+    <row r="96" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W96" s="20"/>
-      <c r="AB96" s="20"/>
-      <c r="AE96" s="20"/>
+      <c r="AC96" s="20"/>
       <c r="AF96" s="20"/>
-    </row>
-    <row r="97" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG96" s="20"/>
+    </row>
+    <row r="97" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W97" s="20"/>
-      <c r="AB97" s="20"/>
-      <c r="AE97" s="20"/>
+      <c r="AC97" s="20"/>
       <c r="AF97" s="20"/>
-    </row>
-    <row r="98" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG97" s="20"/>
+    </row>
+    <row r="98" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W98" s="20"/>
-      <c r="AB98" s="20"/>
-      <c r="AE98" s="20"/>
+      <c r="AC98" s="20"/>
       <c r="AF98" s="20"/>
-    </row>
-    <row r="99" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG98" s="20"/>
+    </row>
+    <row r="99" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W99" s="20"/>
-      <c r="AB99" s="20"/>
-      <c r="AE99" s="20"/>
+      <c r="AC99" s="20"/>
       <c r="AF99" s="20"/>
-    </row>
-    <row r="100" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG99" s="20"/>
+    </row>
+    <row r="100" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W100" s="20"/>
-      <c r="AB100" s="20"/>
-      <c r="AE100" s="20"/>
+      <c r="AC100" s="20"/>
       <c r="AF100" s="20"/>
-    </row>
-    <row r="101" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG100" s="20"/>
+    </row>
+    <row r="101" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W101" s="20"/>
-      <c r="AB101" s="20"/>
-      <c r="AE101" s="20"/>
+      <c r="AC101" s="20"/>
       <c r="AF101" s="20"/>
-    </row>
-    <row r="102" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG101" s="20"/>
+    </row>
+    <row r="102" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W102" s="20"/>
-      <c r="AB102" s="20"/>
-      <c r="AE102" s="20"/>
+      <c r="AC102" s="20"/>
       <c r="AF102" s="20"/>
-    </row>
-    <row r="103" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG102" s="20"/>
+    </row>
+    <row r="103" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AE103" s="20"/>
+      <c r="AC103" s="20"/>
       <c r="AF103" s="20"/>
-    </row>
-    <row r="104" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG103" s="20"/>
+    </row>
+    <row r="104" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W104" s="20"/>
-      <c r="AB104" s="20"/>
-      <c r="AE104" s="20"/>
+      <c r="AC104" s="20"/>
       <c r="AF104" s="20"/>
-    </row>
-    <row r="105" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG104" s="20"/>
+    </row>
+    <row r="105" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W105" s="20"/>
-      <c r="AB105" s="20"/>
-      <c r="AE105" s="20"/>
+      <c r="AC105" s="20"/>
       <c r="AF105" s="20"/>
-    </row>
-    <row r="106" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG105" s="20"/>
+    </row>
+    <row r="106" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W106" s="20"/>
-      <c r="AB106" s="20"/>
-      <c r="AE106" s="20"/>
+      <c r="AC106" s="20"/>
       <c r="AF106" s="20"/>
-    </row>
-    <row r="107" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG106" s="20"/>
+    </row>
+    <row r="107" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W107" s="20"/>
-      <c r="AB107" s="20"/>
-      <c r="AE107" s="20"/>
+      <c r="AC107" s="20"/>
       <c r="AF107" s="20"/>
-    </row>
-    <row r="108" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG107" s="20"/>
+    </row>
+    <row r="108" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W108" s="20"/>
-      <c r="AB108" s="20"/>
-      <c r="AE108" s="20"/>
+      <c r="AC108" s="20"/>
       <c r="AF108" s="20"/>
-    </row>
-    <row r="109" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG108" s="20"/>
+    </row>
+    <row r="109" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W109" s="20"/>
-      <c r="AB109" s="20"/>
-      <c r="AE109" s="20"/>
+      <c r="AC109" s="20"/>
       <c r="AF109" s="20"/>
-    </row>
-    <row r="110" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG109" s="20"/>
+    </row>
+    <row r="110" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W110" s="20"/>
-      <c r="AB110" s="20"/>
-      <c r="AE110" s="20"/>
+      <c r="AC110" s="20"/>
       <c r="AF110" s="20"/>
-    </row>
-    <row r="111" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG110" s="20"/>
+    </row>
+    <row r="111" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W111" s="20"/>
-      <c r="AB111" s="20"/>
-      <c r="AE111" s="20"/>
+      <c r="AC111" s="20"/>
       <c r="AF111" s="20"/>
-    </row>
-    <row r="112" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG111" s="20"/>
+    </row>
+    <row r="112" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W112" s="20"/>
-      <c r="AB112" s="20"/>
-      <c r="AE112" s="20"/>
+      <c r="AC112" s="20"/>
       <c r="AF112" s="20"/>
-    </row>
-    <row r="113" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG112" s="20"/>
+    </row>
+    <row r="113" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AE113" s="20"/>
+      <c r="AC113" s="20"/>
       <c r="AF113" s="20"/>
-    </row>
-    <row r="114" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG113" s="20"/>
+    </row>
+    <row r="114" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W114" s="20"/>
-      <c r="AB114" s="20"/>
-      <c r="AE114" s="20"/>
+      <c r="AC114" s="20"/>
       <c r="AF114" s="20"/>
-    </row>
-    <row r="115" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG114" s="20"/>
+    </row>
+    <row r="115" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W115" s="20"/>
-      <c r="AB115" s="20"/>
-      <c r="AE115" s="20"/>
+      <c r="AC115" s="20"/>
       <c r="AF115" s="20"/>
-    </row>
-    <row r="116" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG115" s="20"/>
+    </row>
+    <row r="116" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W116" s="20"/>
-      <c r="AB116" s="20"/>
-      <c r="AE116" s="20"/>
+      <c r="AC116" s="20"/>
       <c r="AF116" s="20"/>
-    </row>
-    <row r="117" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG116" s="20"/>
+    </row>
+    <row r="117" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W117" s="20"/>
-      <c r="AB117" s="20"/>
-      <c r="AE117" s="20"/>
+      <c r="AC117" s="20"/>
       <c r="AF117" s="20"/>
-    </row>
-    <row r="118" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG117" s="20"/>
+    </row>
+    <row r="118" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W118" s="20"/>
-      <c r="AB118" s="20"/>
-      <c r="AE118" s="20"/>
+      <c r="AC118" s="20"/>
       <c r="AF118" s="20"/>
-    </row>
-    <row r="119" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG118" s="20"/>
+    </row>
+    <row r="119" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W119" s="20"/>
-      <c r="AB119" s="20"/>
-      <c r="AE119" s="20"/>
+      <c r="AC119" s="20"/>
       <c r="AF119" s="20"/>
-    </row>
-    <row r="120" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG119" s="20"/>
+    </row>
+    <row r="120" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W120" s="20"/>
-      <c r="AB120" s="20"/>
-      <c r="AE120" s="20"/>
+      <c r="AC120" s="20"/>
       <c r="AF120" s="20"/>
-    </row>
-    <row r="121" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG120" s="20"/>
+    </row>
+    <row r="121" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W121" s="20"/>
-      <c r="AB121" s="20"/>
-      <c r="AE121" s="20"/>
+      <c r="AC121" s="20"/>
       <c r="AF121" s="20"/>
-    </row>
-    <row r="122" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG121" s="20"/>
+    </row>
+    <row r="122" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AE122" s="20"/>
+      <c r="AC122" s="20"/>
       <c r="AF122" s="20"/>
-    </row>
-    <row r="123" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG122" s="20"/>
+    </row>
+    <row r="123" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W123" s="20"/>
-      <c r="AB123" s="20"/>
-      <c r="AE123" s="20"/>
+      <c r="AC123" s="20"/>
       <c r="AF123" s="20"/>
-    </row>
-    <row r="124" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG123" s="20"/>
+    </row>
+    <row r="124" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W124" s="20"/>
-      <c r="AB124" s="20"/>
-      <c r="AE124" s="20"/>
+      <c r="AC124" s="20"/>
       <c r="AF124" s="20"/>
-    </row>
-    <row r="125" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG124" s="20"/>
+    </row>
+    <row r="125" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W125" s="20"/>
-      <c r="AB125" s="20"/>
-      <c r="AE125" s="20"/>
+      <c r="AC125" s="20"/>
       <c r="AF125" s="20"/>
-    </row>
-    <row r="126" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG125" s="20"/>
+    </row>
+    <row r="126" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W126" s="20"/>
-      <c r="AB126" s="20"/>
-      <c r="AE126" s="20"/>
+      <c r="AC126" s="20"/>
       <c r="AF126" s="20"/>
-    </row>
-    <row r="127" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG126" s="20"/>
+    </row>
+    <row r="127" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W127" s="20"/>
-      <c r="AB127" s="20"/>
-      <c r="AE127" s="20"/>
+      <c r="AC127" s="20"/>
       <c r="AF127" s="20"/>
-    </row>
-    <row r="128" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG127" s="20"/>
+    </row>
+    <row r="128" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W128" s="20"/>
-      <c r="AB128" s="20"/>
-      <c r="AE128" s="20"/>
+      <c r="AC128" s="20"/>
       <c r="AF128" s="20"/>
-    </row>
-    <row r="129" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG128" s="20"/>
+    </row>
+    <row r="129" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W129" s="20"/>
-      <c r="AB129" s="20"/>
-      <c r="AE129" s="20"/>
+      <c r="AC129" s="20"/>
       <c r="AF129" s="20"/>
-    </row>
-    <row r="130" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG129" s="20"/>
+    </row>
+    <row r="130" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W130" s="20"/>
-      <c r="AB130" s="20"/>
-      <c r="AE130" s="20"/>
+      <c r="AC130" s="20"/>
       <c r="AF130" s="20"/>
-    </row>
-    <row r="131" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG130" s="20"/>
+    </row>
+    <row r="131" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W131" s="20"/>
-      <c r="AB131" s="20"/>
-      <c r="AE131" s="20"/>
+      <c r="AC131" s="20"/>
       <c r="AF131" s="20"/>
-    </row>
-    <row r="132" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG131" s="20"/>
+    </row>
+    <row r="132" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W132" s="20"/>
-      <c r="AB132" s="20"/>
-      <c r="AE132" s="20"/>
+      <c r="AC132" s="20"/>
       <c r="AF132" s="20"/>
-    </row>
-    <row r="133" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG132" s="20"/>
+    </row>
+    <row r="133" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W133" s="20"/>
-      <c r="AB133" s="20"/>
-      <c r="AE133" s="20"/>
+      <c r="AC133" s="20"/>
       <c r="AF133" s="20"/>
-    </row>
-    <row r="134" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG133" s="20"/>
+    </row>
+    <row r="134" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W134" s="20"/>
-      <c r="AB134" s="20"/>
-      <c r="AE134" s="20"/>
+      <c r="AC134" s="20"/>
       <c r="AF134" s="20"/>
-    </row>
-    <row r="135" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG134" s="20"/>
+    </row>
+    <row r="135" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W135" s="20"/>
-      <c r="AB135" s="20"/>
-      <c r="AE135" s="20"/>
+      <c r="AC135" s="20"/>
       <c r="AF135" s="20"/>
-    </row>
-    <row r="136" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG135" s="20"/>
+    </row>
+    <row r="136" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W136" s="20"/>
-      <c r="AB136" s="20"/>
-      <c r="AE136" s="20"/>
+      <c r="AC136" s="20"/>
       <c r="AF136" s="20"/>
-    </row>
-    <row r="137" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG136" s="20"/>
+    </row>
+    <row r="137" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W137" s="20"/>
-      <c r="AB137" s="20"/>
-      <c r="AE137" s="20"/>
+      <c r="AC137" s="20"/>
       <c r="AF137" s="20"/>
-    </row>
-    <row r="138" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG137" s="20"/>
+    </row>
+    <row r="138" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W138" s="20"/>
-      <c r="AB138" s="20"/>
-      <c r="AE138" s="20"/>
+      <c r="AC138" s="20"/>
       <c r="AF138" s="20"/>
-    </row>
-    <row r="139" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG138" s="20"/>
+    </row>
+    <row r="139" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W139" s="20"/>
-      <c r="AB139" s="20"/>
-      <c r="AE139" s="20"/>
+      <c r="AC139" s="20"/>
       <c r="AF139" s="20"/>
-    </row>
-    <row r="140" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG139" s="20"/>
+    </row>
+    <row r="140" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W140" s="20"/>
-      <c r="AB140" s="20"/>
-      <c r="AE140" s="20"/>
+      <c r="AC140" s="20"/>
       <c r="AF140" s="20"/>
-    </row>
-    <row r="141" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG140" s="20"/>
+    </row>
+    <row r="141" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W141" s="20"/>
-      <c r="AB141" s="20"/>
-      <c r="AE141" s="20"/>
+      <c r="AC141" s="20"/>
       <c r="AF141" s="20"/>
-    </row>
-    <row r="142" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG141" s="20"/>
+    </row>
+    <row r="142" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W142" s="20"/>
-      <c r="AB142" s="20"/>
-      <c r="AE142" s="20"/>
+      <c r="AC142" s="20"/>
       <c r="AF142" s="20"/>
-    </row>
-    <row r="143" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG142" s="20"/>
+    </row>
+    <row r="143" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W143" s="20"/>
-      <c r="AB143" s="20"/>
-      <c r="AE143" s="20"/>
+      <c r="AC143" s="20"/>
       <c r="AF143" s="20"/>
-    </row>
-    <row r="144" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG143" s="20"/>
+    </row>
+    <row r="144" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W144" s="20"/>
-      <c r="AB144" s="20"/>
-      <c r="AE144" s="20"/>
+      <c r="AC144" s="20"/>
       <c r="AF144" s="20"/>
-    </row>
-    <row r="145" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG144" s="20"/>
+    </row>
+    <row r="145" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W145" s="20"/>
-      <c r="AB145" s="20"/>
-      <c r="AE145" s="20"/>
+      <c r="AC145" s="20"/>
       <c r="AF145" s="20"/>
-    </row>
-    <row r="146" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG145" s="20"/>
+    </row>
+    <row r="146" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W146" s="20"/>
-      <c r="AB146" s="20"/>
-      <c r="AE146" s="20"/>
+      <c r="AC146" s="20"/>
       <c r="AF146" s="20"/>
-    </row>
-    <row r="147" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG146" s="20"/>
+    </row>
+    <row r="147" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W147" s="20"/>
-      <c r="AB147" s="20"/>
-      <c r="AE147" s="20"/>
+      <c r="AC147" s="20"/>
       <c r="AF147" s="20"/>
-    </row>
-    <row r="148" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG147" s="20"/>
+    </row>
+    <row r="148" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W148" s="20"/>
-      <c r="AB148" s="20"/>
-      <c r="AE148" s="20"/>
+      <c r="AC148" s="20"/>
       <c r="AF148" s="20"/>
-    </row>
-    <row r="149" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG148" s="20"/>
+    </row>
+    <row r="149" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W149" s="20"/>
-      <c r="AB149" s="20"/>
-      <c r="AE149" s="20"/>
+      <c r="AC149" s="20"/>
       <c r="AF149" s="20"/>
-    </row>
-    <row r="150" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG149" s="20"/>
+    </row>
+    <row r="150" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W150" s="20"/>
-      <c r="AB150" s="20"/>
-      <c r="AE150" s="20"/>
+      <c r="AC150" s="20"/>
       <c r="AF150" s="20"/>
-    </row>
-    <row r="151" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG150" s="20"/>
+    </row>
+    <row r="151" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W151" s="20"/>
-      <c r="AB151" s="20"/>
-      <c r="AE151" s="20"/>
+      <c r="AC151" s="20"/>
       <c r="AF151" s="20"/>
-    </row>
-    <row r="152" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG151" s="20"/>
+    </row>
+    <row r="152" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W152" s="20"/>
-      <c r="AB152" s="20"/>
-      <c r="AE152" s="20"/>
+      <c r="AC152" s="20"/>
       <c r="AF152" s="20"/>
-    </row>
-    <row r="153" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG152" s="20"/>
+    </row>
+    <row r="153" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W153" s="20"/>
-      <c r="AB153" s="20"/>
-      <c r="AE153" s="20"/>
+      <c r="AC153" s="20"/>
       <c r="AF153" s="20"/>
-    </row>
-    <row r="154" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG153" s="20"/>
+    </row>
+    <row r="154" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W154" s="20"/>
-      <c r="AB154" s="20"/>
-      <c r="AE154" s="20"/>
+      <c r="AC154" s="20"/>
       <c r="AF154" s="20"/>
-    </row>
-    <row r="155" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG154" s="20"/>
+    </row>
+    <row r="155" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W155" s="20"/>
-      <c r="AB155" s="20"/>
-      <c r="AE155" s="20"/>
+      <c r="AC155" s="20"/>
       <c r="AF155" s="20"/>
-    </row>
-    <row r="156" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG155" s="20"/>
+    </row>
+    <row r="156" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W156" s="20"/>
-      <c r="AB156" s="20"/>
-      <c r="AE156" s="20"/>
+      <c r="AC156" s="20"/>
       <c r="AF156" s="20"/>
-    </row>
-    <row r="157" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG156" s="20"/>
+    </row>
+    <row r="157" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W157" s="20"/>
-      <c r="AB157" s="20"/>
-      <c r="AE157" s="20"/>
+      <c r="AC157" s="20"/>
       <c r="AF157" s="20"/>
-    </row>
-    <row r="158" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG157" s="20"/>
+    </row>
+    <row r="158" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W158" s="20"/>
-      <c r="AB158" s="20"/>
-      <c r="AE158" s="20"/>
+      <c r="AC158" s="20"/>
       <c r="AF158" s="20"/>
-    </row>
-    <row r="159" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG158" s="20"/>
+    </row>
+    <row r="159" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W159" s="20"/>
-      <c r="AB159" s="20"/>
-      <c r="AE159" s="20"/>
+      <c r="AC159" s="20"/>
       <c r="AF159" s="20"/>
-    </row>
-    <row r="160" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG159" s="20"/>
+    </row>
+    <row r="160" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W160" s="20"/>
-      <c r="AB160" s="20"/>
-      <c r="AE160" s="20"/>
+      <c r="AC160" s="20"/>
       <c r="AF160" s="20"/>
-    </row>
-    <row r="161" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG160" s="20"/>
+    </row>
+    <row r="161" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W161" s="20"/>
-      <c r="AB161" s="20"/>
-      <c r="AE161" s="20"/>
+      <c r="AC161" s="20"/>
       <c r="AF161" s="20"/>
-    </row>
-    <row r="162" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG161" s="20"/>
+    </row>
+    <row r="162" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W162" s="20"/>
-      <c r="AB162" s="20"/>
-      <c r="AE162" s="20"/>
+      <c r="AC162" s="20"/>
       <c r="AF162" s="20"/>
-    </row>
-    <row r="163" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG162" s="20"/>
+    </row>
+    <row r="163" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W163" s="20"/>
-      <c r="AB163" s="20"/>
-      <c r="AE163" s="20"/>
+      <c r="AC163" s="20"/>
       <c r="AF163" s="20"/>
-    </row>
-    <row r="164" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG163" s="20"/>
+    </row>
+    <row r="164" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W164" s="20"/>
-      <c r="AB164" s="20"/>
-      <c r="AE164" s="20"/>
+      <c r="AC164" s="20"/>
       <c r="AF164" s="20"/>
-    </row>
-    <row r="165" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG164" s="20"/>
+    </row>
+    <row r="165" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W165" s="20"/>
-      <c r="AB165" s="20"/>
-      <c r="AE165" s="20"/>
+      <c r="AC165" s="20"/>
       <c r="AF165" s="20"/>
-    </row>
-    <row r="166" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG165" s="20"/>
+    </row>
+    <row r="166" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AE166" s="20"/>
+      <c r="AC166" s="20"/>
       <c r="AF166" s="20"/>
-    </row>
-    <row r="167" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG166" s="20"/>
+    </row>
+    <row r="167" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W167" s="20"/>
-      <c r="AB167" s="20"/>
-      <c r="AE167" s="20"/>
+      <c r="AC167" s="20"/>
       <c r="AF167" s="20"/>
-    </row>
-    <row r="168" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG167" s="20"/>
+    </row>
+    <row r="168" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AE168" s="20"/>
+      <c r="AC168" s="20"/>
       <c r="AF168" s="20"/>
-    </row>
-    <row r="169" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG168" s="20"/>
+    </row>
+    <row r="169" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AE169" s="20"/>
+      <c r="AC169" s="20"/>
       <c r="AF169" s="20"/>
-    </row>
-    <row r="170" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG169" s="20"/>
+    </row>
+    <row r="170" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W170" s="20"/>
-      <c r="AB170" s="20"/>
-      <c r="AE170" s="20"/>
+      <c r="AC170" s="20"/>
       <c r="AF170" s="20"/>
-    </row>
-    <row r="171" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG170" s="20"/>
+    </row>
+    <row r="171" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W171" s="20"/>
-      <c r="AB171" s="20"/>
-      <c r="AE171" s="20"/>
+      <c r="AC171" s="20"/>
       <c r="AF171" s="20"/>
-    </row>
-    <row r="172" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG171" s="20"/>
+    </row>
+    <row r="172" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AE172" s="20"/>
+      <c r="AC172" s="20"/>
       <c r="AF172" s="20"/>
-    </row>
-    <row r="173" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG172" s="20"/>
+    </row>
+    <row r="173" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W173" s="20"/>
-      <c r="AB173" s="20"/>
-      <c r="AE173" s="20"/>
+      <c r="AC173" s="20"/>
       <c r="AF173" s="20"/>
-    </row>
-    <row r="174" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG173" s="20"/>
+    </row>
+    <row r="174" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W174" s="20"/>
-      <c r="AB174" s="20"/>
-      <c r="AE174" s="20"/>
+      <c r="AC174" s="20"/>
       <c r="AF174" s="20"/>
-    </row>
-    <row r="175" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG174" s="20"/>
+    </row>
+    <row r="175" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W175" s="20"/>
-      <c r="AB175" s="20"/>
-      <c r="AE175" s="20"/>
+      <c r="AC175" s="20"/>
       <c r="AF175" s="20"/>
-    </row>
-    <row r="176" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG175" s="20"/>
+    </row>
+    <row r="176" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W176" s="20"/>
-      <c r="AB176" s="20"/>
-      <c r="AE176" s="20"/>
+      <c r="AC176" s="20"/>
       <c r="AF176" s="20"/>
-    </row>
-    <row r="177" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG176" s="20"/>
+    </row>
+    <row r="177" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W177" s="20"/>
-      <c r="AB177" s="20"/>
-      <c r="AE177" s="20"/>
+      <c r="AC177" s="20"/>
       <c r="AF177" s="20"/>
-    </row>
-    <row r="178" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG177" s="20"/>
+    </row>
+    <row r="178" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W178" s="20"/>
-      <c r="AB178" s="20"/>
-      <c r="AE178" s="20"/>
+      <c r="AC178" s="20"/>
       <c r="AF178" s="20"/>
-    </row>
-    <row r="179" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG178" s="20"/>
+    </row>
+    <row r="179" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W179" s="20"/>
-      <c r="AB179" s="20"/>
-      <c r="AE179" s="20"/>
+      <c r="AC179" s="20"/>
       <c r="AF179" s="20"/>
-    </row>
-    <row r="180" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG179" s="20"/>
+    </row>
+    <row r="180" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W180" s="20"/>
-      <c r="AB180" s="20"/>
-      <c r="AE180" s="20"/>
+      <c r="AC180" s="20"/>
       <c r="AF180" s="20"/>
-    </row>
-    <row r="181" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG180" s="20"/>
+    </row>
+    <row r="181" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W181" s="20"/>
-      <c r="AB181" s="20"/>
-      <c r="AE181" s="20"/>
+      <c r="AC181" s="20"/>
       <c r="AF181" s="20"/>
-    </row>
-    <row r="182" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG181" s="20"/>
+    </row>
+    <row r="182" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W182" s="20"/>
-      <c r="AB182" s="20"/>
-      <c r="AE182" s="20"/>
+      <c r="AC182" s="20"/>
       <c r="AF182" s="20"/>
-    </row>
-    <row r="183" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG182" s="20"/>
+    </row>
+    <row r="183" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W183" s="20"/>
-      <c r="AB183" s="20"/>
-      <c r="AE183" s="20"/>
+      <c r="AC183" s="20"/>
       <c r="AF183" s="20"/>
-    </row>
-    <row r="184" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG183" s="20"/>
+    </row>
+    <row r="184" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W184" s="20"/>
-      <c r="AB184" s="20"/>
-      <c r="AE184" s="20"/>
+      <c r="AC184" s="20"/>
       <c r="AF184" s="20"/>
-    </row>
-    <row r="185" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG184" s="20"/>
+    </row>
+    <row r="185" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W185" s="20"/>
-      <c r="AB185" s="20"/>
-      <c r="AE185" s="20"/>
+      <c r="AC185" s="20"/>
       <c r="AF185" s="20"/>
-    </row>
-    <row r="186" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG185" s="20"/>
+    </row>
+    <row r="186" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W186" s="20"/>
-      <c r="AB186" s="20"/>
-      <c r="AE186" s="20"/>
+      <c r="AC186" s="20"/>
       <c r="AF186" s="20"/>
-    </row>
-    <row r="187" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG186" s="20"/>
+    </row>
+    <row r="187" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W187" s="20"/>
-      <c r="AB187" s="20"/>
-      <c r="AE187" s="20"/>
+      <c r="AC187" s="20"/>
       <c r="AF187" s="20"/>
-    </row>
-    <row r="188" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG187" s="20"/>
+    </row>
+    <row r="188" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W188" s="20"/>
-      <c r="AB188" s="20"/>
-      <c r="AE188" s="20"/>
+      <c r="AC188" s="20"/>
       <c r="AF188" s="20"/>
-    </row>
-    <row r="189" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG188" s="20"/>
+    </row>
+    <row r="189" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W189" s="20"/>
-      <c r="AB189" s="20"/>
-      <c r="AE189" s="20"/>
+      <c r="AC189" s="20"/>
       <c r="AF189" s="20"/>
-    </row>
-    <row r="190" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG189" s="20"/>
+    </row>
+    <row r="190" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W190" s="20"/>
-      <c r="AB190" s="20"/>
-      <c r="AE190" s="20"/>
+      <c r="AC190" s="20"/>
       <c r="AF190" s="20"/>
-    </row>
-    <row r="191" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG190" s="20"/>
+    </row>
+    <row r="191" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W191" s="20"/>
-      <c r="AB191" s="20"/>
-      <c r="AE191" s="20"/>
+      <c r="AC191" s="20"/>
       <c r="AF191" s="20"/>
-    </row>
-    <row r="192" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG191" s="20"/>
+    </row>
+    <row r="192" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W192" s="20"/>
-      <c r="AB192" s="20"/>
-      <c r="AE192" s="20"/>
+      <c r="AC192" s="20"/>
       <c r="AF192" s="20"/>
-    </row>
-    <row r="193" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG192" s="20"/>
+    </row>
+    <row r="193" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W193" s="20"/>
-      <c r="AB193" s="20"/>
-      <c r="AE193" s="20"/>
+      <c r="AC193" s="20"/>
       <c r="AF193" s="20"/>
-    </row>
-    <row r="194" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG193" s="20"/>
+    </row>
+    <row r="194" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W194" s="20"/>
-      <c r="AB194" s="20"/>
-      <c r="AE194" s="20"/>
+      <c r="AC194" s="20"/>
       <c r="AF194" s="20"/>
-    </row>
-    <row r="195" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG194" s="20"/>
+    </row>
+    <row r="195" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W195" s="20"/>
-      <c r="AB195" s="20"/>
-      <c r="AE195" s="20"/>
+      <c r="AC195" s="20"/>
       <c r="AF195" s="20"/>
-    </row>
-    <row r="196" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG195" s="20"/>
+    </row>
+    <row r="196" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W196" s="20"/>
-      <c r="AB196" s="20"/>
-      <c r="AE196" s="20"/>
+      <c r="AC196" s="20"/>
       <c r="AF196" s="20"/>
-    </row>
-    <row r="197" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG196" s="20"/>
+    </row>
+    <row r="197" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W197" s="20"/>
-      <c r="AB197" s="20"/>
-      <c r="AE197" s="20"/>
+      <c r="AC197" s="20"/>
       <c r="AF197" s="20"/>
-    </row>
-    <row r="198" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG197" s="20"/>
+    </row>
+    <row r="198" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W198" s="20"/>
-      <c r="AB198" s="20"/>
-      <c r="AE198" s="20"/>
+      <c r="AC198" s="20"/>
       <c r="AF198" s="20"/>
-    </row>
-    <row r="199" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG198" s="20"/>
+    </row>
+    <row r="199" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W199" s="20"/>
-      <c r="AB199" s="20"/>
-      <c r="AE199" s="20"/>
+      <c r="AC199" s="20"/>
       <c r="AF199" s="20"/>
-    </row>
-    <row r="200" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB200" s="20"/>
-      <c r="AE200" s="20"/>
+      <c r="AG199" s="20"/>
+    </row>
+    <row r="200" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC200" s="20"/>
       <c r="AF200" s="20"/>
-    </row>
-    <row r="201" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB201" s="20"/>
-    </row>
-    <row r="202" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB202" s="20"/>
-    </row>
-    <row r="203" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB203" s="20"/>
-    </row>
-    <row r="204" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB204" s="20"/>
-    </row>
-    <row r="205" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB205" s="20"/>
-    </row>
-    <row r="206" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB206" s="20"/>
-    </row>
-    <row r="207" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB207" s="20"/>
-    </row>
-    <row r="208" spans="23:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB208" s="20"/>
-    </row>
-    <row r="209" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB209" s="20"/>
-    </row>
-    <row r="210" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB210" s="20"/>
-    </row>
-    <row r="211" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB211" s="20"/>
-    </row>
-    <row r="212" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB212" s="20"/>
-    </row>
-    <row r="213" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB213" s="20"/>
-    </row>
-    <row r="214" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB214" s="20"/>
-    </row>
-    <row r="215" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB215" s="20"/>
-    </row>
-    <row r="216" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB216" s="20"/>
-    </row>
-    <row r="217" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB217" s="20"/>
-    </row>
-    <row r="218" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB218" s="20"/>
-    </row>
-    <row r="219" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB219" s="20"/>
-    </row>
-    <row r="220" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB220" s="20"/>
-    </row>
-    <row r="221" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB221" s="20"/>
-    </row>
-    <row r="222" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB222" s="20"/>
-    </row>
-    <row r="223" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB223" s="20"/>
-    </row>
-    <row r="224" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB224" s="20"/>
-    </row>
-    <row r="225" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB225" s="20"/>
-    </row>
-    <row r="226" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB226" s="20"/>
-    </row>
-    <row r="227" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB227" s="20"/>
-    </row>
-    <row r="228" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB228" s="20"/>
-    </row>
-    <row r="229" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB229" s="20"/>
-    </row>
-    <row r="230" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB230" s="20"/>
-    </row>
-    <row r="231" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB231" s="20"/>
-    </row>
-    <row r="232" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB232" s="20"/>
-    </row>
-    <row r="233" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB233" s="20"/>
-    </row>
-    <row r="234" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB234" s="20"/>
-    </row>
-    <row r="235" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB235" s="20"/>
-    </row>
-    <row r="236" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB236" s="20"/>
-    </row>
-    <row r="237" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB237" s="20"/>
-    </row>
-    <row r="238" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB238" s="20"/>
-    </row>
-    <row r="239" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB239" s="20"/>
-    </row>
-    <row r="240" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB240" s="20"/>
-    </row>
-    <row r="241" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB241" s="20"/>
-    </row>
-    <row r="242" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB242" s="20"/>
-    </row>
-    <row r="243" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB243" s="20"/>
-    </row>
-    <row r="244" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB244" s="20"/>
-    </row>
-    <row r="245" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB245" s="20"/>
-    </row>
-    <row r="246" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB246" s="20"/>
-    </row>
-    <row r="247" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB247" s="20"/>
-    </row>
-    <row r="248" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB248" s="20"/>
-    </row>
-    <row r="249" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB249" s="20"/>
-    </row>
-    <row r="250" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB250" s="20"/>
-    </row>
-    <row r="251" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB251" s="20"/>
-    </row>
-    <row r="252" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB252" s="20"/>
-    </row>
-    <row r="253" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB253" s="20"/>
-    </row>
-    <row r="254" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB254" s="20"/>
-    </row>
-    <row r="255" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB255" s="20"/>
-    </row>
-    <row r="256" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB256" s="20"/>
-    </row>
-    <row r="257" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB257" s="20"/>
-    </row>
-    <row r="258" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB258" s="20"/>
-    </row>
-    <row r="259" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB259" s="20"/>
-    </row>
-    <row r="260" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB260" s="20"/>
-    </row>
-    <row r="261" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB261" s="20"/>
-    </row>
-    <row r="262" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB262" s="20"/>
-    </row>
-    <row r="263" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB263" s="20"/>
-    </row>
-    <row r="264" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB264" s="20"/>
-    </row>
-    <row r="265" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB265" s="20"/>
-    </row>
-    <row r="266" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB266" s="20"/>
-    </row>
-    <row r="267" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB267" s="20"/>
-    </row>
-    <row r="268" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB268" s="20"/>
-    </row>
-    <row r="269" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB269" s="20"/>
-    </row>
-    <row r="270" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB270" s="20"/>
-    </row>
-    <row r="271" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB271" s="20"/>
-    </row>
-    <row r="272" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB272" s="20"/>
-    </row>
-    <row r="273" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB273" s="20"/>
-    </row>
-    <row r="274" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB274" s="20"/>
-    </row>
-    <row r="275" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB275" s="20"/>
-    </row>
-    <row r="276" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB276" s="20"/>
-    </row>
-    <row r="277" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB277" s="20"/>
-    </row>
-    <row r="278" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB278" s="20"/>
-    </row>
-    <row r="279" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB279" s="20"/>
-    </row>
-    <row r="280" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB280" s="20"/>
-    </row>
-    <row r="281" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB281" s="20"/>
-    </row>
-    <row r="282" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB282" s="20"/>
-    </row>
-    <row r="283" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB283" s="20"/>
-    </row>
-    <row r="284" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB284" s="20"/>
-    </row>
-    <row r="285" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB285" s="20"/>
-    </row>
-    <row r="286" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB286" s="20"/>
-    </row>
-    <row r="287" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB287" s="20"/>
-    </row>
-    <row r="288" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB288" s="20"/>
-    </row>
-    <row r="289" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB289" s="20"/>
-    </row>
-    <row r="290" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB290" s="20"/>
-    </row>
-    <row r="291" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB291" s="20"/>
-    </row>
-    <row r="292" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB292" s="20"/>
-    </row>
-    <row r="293" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB293" s="20"/>
-    </row>
-    <row r="294" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB294" s="20"/>
-    </row>
-    <row r="295" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB295" s="20"/>
-    </row>
-    <row r="296" spans="28:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB296" s="20"/>
+      <c r="AG200" s="20"/>
+    </row>
+    <row r="201" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC201" s="20"/>
+    </row>
+    <row r="202" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC202" s="20"/>
+    </row>
+    <row r="203" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC203" s="20"/>
+    </row>
+    <row r="204" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC204" s="20"/>
+    </row>
+    <row r="205" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC205" s="20"/>
+    </row>
+    <row r="206" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC206" s="20"/>
+    </row>
+    <row r="207" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC207" s="20"/>
+    </row>
+    <row r="208" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC208" s="20"/>
+    </row>
+    <row r="209" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC209" s="20"/>
+    </row>
+    <row r="210" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC210" s="20"/>
+    </row>
+    <row r="211" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC211" s="20"/>
+    </row>
+    <row r="212" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC212" s="20"/>
+    </row>
+    <row r="213" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC213" s="20"/>
+    </row>
+    <row r="214" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC214" s="20"/>
+    </row>
+    <row r="215" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC215" s="20"/>
+    </row>
+    <row r="216" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC216" s="20"/>
+    </row>
+    <row r="217" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC217" s="20"/>
+    </row>
+    <row r="218" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC218" s="20"/>
+    </row>
+    <row r="219" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC219" s="20"/>
+    </row>
+    <row r="220" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC220" s="20"/>
+    </row>
+    <row r="221" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC221" s="20"/>
+    </row>
+    <row r="222" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC222" s="20"/>
+    </row>
+    <row r="223" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC223" s="20"/>
+    </row>
+    <row r="224" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC224" s="20"/>
+    </row>
+    <row r="225" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC225" s="20"/>
+    </row>
+    <row r="226" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC226" s="20"/>
+    </row>
+    <row r="227" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC227" s="20"/>
+    </row>
+    <row r="228" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC228" s="20"/>
+    </row>
+    <row r="229" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC229" s="20"/>
+    </row>
+    <row r="230" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC230" s="20"/>
+    </row>
+    <row r="231" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC231" s="20"/>
+    </row>
+    <row r="232" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC232" s="20"/>
+    </row>
+    <row r="233" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC233" s="20"/>
+    </row>
+    <row r="234" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC234" s="20"/>
+    </row>
+    <row r="235" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC235" s="20"/>
+    </row>
+    <row r="236" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC236" s="20"/>
+    </row>
+    <row r="237" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC237" s="20"/>
+    </row>
+    <row r="238" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC238" s="20"/>
+    </row>
+    <row r="239" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC239" s="20"/>
+    </row>
+    <row r="240" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC240" s="20"/>
+    </row>
+    <row r="241" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC241" s="20"/>
+    </row>
+    <row r="242" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC242" s="20"/>
+    </row>
+    <row r="243" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC243" s="20"/>
+    </row>
+    <row r="244" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC244" s="20"/>
+    </row>
+    <row r="245" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC245" s="20"/>
+    </row>
+    <row r="246" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC246" s="20"/>
+    </row>
+    <row r="247" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC247" s="20"/>
+    </row>
+    <row r="248" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC248" s="20"/>
+    </row>
+    <row r="249" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC249" s="20"/>
+    </row>
+    <row r="250" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC250" s="20"/>
+    </row>
+    <row r="251" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC251" s="20"/>
+    </row>
+    <row r="252" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC252" s="20"/>
+    </row>
+    <row r="253" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC253" s="20"/>
+    </row>
+    <row r="254" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC254" s="20"/>
+    </row>
+    <row r="255" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC255" s="20"/>
+    </row>
+    <row r="256" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC256" s="20"/>
+    </row>
+    <row r="257" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC257" s="20"/>
+    </row>
+    <row r="258" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC258" s="20"/>
+    </row>
+    <row r="259" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC259" s="20"/>
+    </row>
+    <row r="260" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC260" s="20"/>
+    </row>
+    <row r="261" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC261" s="20"/>
+    </row>
+    <row r="262" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC262" s="20"/>
+    </row>
+    <row r="263" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC263" s="20"/>
+    </row>
+    <row r="264" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC264" s="20"/>
+    </row>
+    <row r="265" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC265" s="20"/>
+    </row>
+    <row r="266" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC266" s="20"/>
+    </row>
+    <row r="267" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC267" s="20"/>
+    </row>
+    <row r="268" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC268" s="20"/>
+    </row>
+    <row r="269" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC269" s="20"/>
+    </row>
+    <row r="270" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC270" s="20"/>
+    </row>
+    <row r="271" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC271" s="20"/>
+    </row>
+    <row r="272" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC272" s="20"/>
+    </row>
+    <row r="273" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC273" s="20"/>
+    </row>
+    <row r="274" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC274" s="20"/>
+    </row>
+    <row r="275" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC275" s="20"/>
+    </row>
+    <row r="276" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC276" s="20"/>
+    </row>
+    <row r="277" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC277" s="20"/>
+    </row>
+    <row r="278" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC278" s="20"/>
+    </row>
+    <row r="279" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC279" s="20"/>
+    </row>
+    <row r="280" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC280" s="20"/>
+    </row>
+    <row r="281" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC281" s="20"/>
+    </row>
+    <row r="282" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC282" s="20"/>
+    </row>
+    <row r="283" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC283" s="20"/>
+    </row>
+    <row r="284" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC284" s="20"/>
+    </row>
+    <row r="285" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC285" s="20"/>
+    </row>
+    <row r="286" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC286" s="20"/>
+    </row>
+    <row r="287" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC287" s="20"/>
+    </row>
+    <row r="288" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC288" s="20"/>
+    </row>
+    <row r="289" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC289" s="20"/>
+    </row>
+    <row r="290" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC290" s="20"/>
+    </row>
+    <row r="291" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC291" s="20"/>
+    </row>
+    <row r="292" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC292" s="20"/>
+    </row>
+    <row r="293" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC293" s="20"/>
+    </row>
+    <row r="294" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC294" s="20"/>
+    </row>
+    <row r="295" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC295" s="20"/>
+    </row>
+    <row r="296" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC296" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DB8138-6749-4346-8B46-400ABC4DB045}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9391EF-21E1-4B6E-ACBF-C313E580756A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="659">
   <si>
     <t>Title</t>
   </si>
@@ -2129,6 +2129,96 @@
   </si>
   <si>
     <t>low digital literacy,reliability regarding reporting</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Ha, Duc M.; Comer, Angela; Dollar, Blythe; Bedoy, Ruth; Ford, Morgan; Gozansky, Wendolyn S.; Zeng, Chan; Arch, Joanna J.; Leach, Heather J.; Malhotra, Atul; Prochazka, Allan V.; Keith, Robert L.; Boxer, Rebecca S.</t>
+  </si>
+  <si>
+    <t>Asensio-Cuesta, Sabina; Sánchez-García, Ángel; Soria Comes, Teresa; Maestu, Inmaculada; Martín Ureste, Maria; Conejero, J. Alberto; García-Gómez, Juan M.</t>
+  </si>
+  <si>
+    <t>Park, Sojung; Kim, Ji Youn; Lee, Jae Cheol; Kim, Hyeong Ryul; Song, Seungjae; Kwon, Hee; Ji, Wonjun; Choi, Chang Min</t>
+  </si>
+  <si>
+    <t>Timmerman, Josien G.; Tönis, Thijs M.; Dekker-van Weering, Marit G. H.; Stuiver, Martijn M.; Wouters, Michel W. J. M.; van Harten, Wim H.; Hermens, Hermie J.; Vollenbroek-Hutten, Miriam M. R.</t>
+  </si>
+  <si>
+    <t>Schook, Romane Milia; Linssen, Cilia; Schramel, Franz MNH; Festen, Jan; Lammers, Ernst; Smit, Egbert F.; Postmus, Pieter E.; Westerman, Marjan J.</t>
+  </si>
+  <si>
+    <t>Misplon, Sarah; Marneffe, Wim; Himpe, Ulrike; Hellings, Johan; Demedts, Ingel</t>
+  </si>
+  <si>
+    <t>Mouillet, Guillaume; Falcoz, Antoine; Fritzsch, Joëlle; Almotlak, Hamadi; Jacoulet, Pascale; Pivot, Xavier; Villanueva, Cristian; Mansi, Laura; Kim, Stefano; Curtit, Elsa; Meneveau, Nathalie; Adotevi, Olivier; Jary, Marine; Eberst, Guillaume; Vienot, Angelique; Calcagno, Fabien; Pozet, Astrid; Djoumakh, Oumelkheir; Borg, Christophe; Westeel, Virginie; Anota, Amélie; Paget-Bailly, Sophie</t>
+  </si>
+  <si>
+    <t>Lafaro, Kelly J.; Raz, Dan J.; Kim, Jae Y.; Hite, Sherry; Ruel, Nora; Varatkar, Gouri; Erhunmwunsee, Loretta; Melstrom, Laleh; Lee, Byrne; Singh, Gagandeep; Fong, Yuman; Sun, Virginia</t>
+  </si>
+  <si>
+    <t>Rose, Pamela; Quail, Heather; McPhelim, John; Simpson, Mhairi</t>
+  </si>
+  <si>
+    <t>Schneider, Susan M.; Hood, Linda E.</t>
+  </si>
+  <si>
+    <t>Gustafson, David H.; DuBenske, Lori L.; Namkoong, Kang; Hawkins, Robert; Chih, Ming-Yuan; Atwood, Amy K.; Johnson, Roberta; Bhattacharya, Abhik; Carmack, Cindy L.; Traynor, Anne M.; Campbell, Toby C.; Buss, Mary K.; Govindan, Ramaswamy; Schiller, Joan H.; Cleary, James F.</t>
+  </si>
+  <si>
+    <t>Greer, Joseph A.; Temel, Jennifer S.; El-Jawahri, Areej; Rinaldi, Simone; Kamdar, Mihir; Park, Elyse R.; Horick, Nora K.; Pintro, Kedie; Rabideau, Dustin J.; Schwamm, Lee; Feliciano, Josephine; Chua, Isaac; Leventakos, Konstantinos; Fischer, Stacy M.; Campbell, Toby C.; Rabow, Michael W.; Zachariah, Finly; Hanson, Laura C.; Martin, Sara F.; Silveira, Maria; Shoemaker, Laura; Bakitas, Marie; Bauman, Jessica; Spoozak, Lori; Grey, Carl; Blackhall, Leslie; Curseen, Kimberly; O’Mahony, Sean; Smith, Melanie M.; Rhodes, Ramona; Cullinan, Amelia; Jackson, Vicki; REACH PC Investigators; Trotter, Chardria; Gallagher Medeiros, Emily; Calton, Brooke A.; Carlson, Heather A.; Cartagena, Leslie; Diop, Michelle; Evans, Theresa; Jackson, James G.; O’Brien, Karen; Petrillo, Laura A.; Shin, Jennifer S.; Browner, Ilene; Gray, Nathaniel; Awad, Mark; Tulsky, James; Christensen, Kelly J.; Rhee, Laura S.; Strand, Jacob; Gilhuly, Devin; Rondinelli, Nicole; Seibert, Jennifer; Treem, Jonathan; Schueller, Kate; Allen, Gregory; Blakely, Collin; Gubens, Matthew; Lindenfeld, Paul; Mulvey, Claire; Young, Natalie; Dale, William; Luna, Joanna; Mecusker, Eric; Moreno, Jeanine; Ramirez, Carey; Williams, Sari; Gaffney, Sean; Kelly, Cynthia; Lavin, Kyle; Iams, Wade; Robbins, Samuel G.; Kalemkerian, Greg; Lagman, Ruth; Neale, Kyle; Patel, Chirag; Samala, Renato; Weinstein, Elizabeth; McCammon, Susan; Taylor, Richard; Tucker, Rodney; Chwistek, Marcin; Collins, Molly; Edelman, Martin; Judd, Julia; Kinczewski, Leigh; Murphy, Kathleen; Sherry, Dylan; Welsh, Marie; Sinclair, Christian; Wulff-Burchfield, Elizabeth; Gabbard, Jennifer; Statler, Tiffany; Timmins, Nathaniel; Kavalieratos, Dio; Lowers, Jane; Quest, Tammie; Chen, Elaine; LaBellarte, Giulia; Mohinda, Nisha; Munger, Natalie K.; Munroe, Michelle; Patel, Jyoti D.; Szmuilowicz, Eytan; Vermylen, Julia H.; Siropaides, Caitlin H.; Ahern, Christopher G.; Kobin, Emily G.; Vergo, Maxwell T.; Wilson, Matthew M.</t>
+  </si>
+  <si>
+    <t>Tang, Fiona W.K.; Chan, Carmen W.H.; Choy, Yin-Ping; Loong, Herbert H.F.; Chow, Ka Ming; So, Winnie K.W.</t>
+  </si>
+  <si>
+    <t>Denis, Fabrice; Yossi, Senna; Septans, Anne-Lise; Charron, Alexandre; Voog, Eric; Dupuis, Olivier; Ganem, Gérard; Pointreau, Yoann; Letellier, Christophe</t>
+  </si>
+  <si>
+    <t>Arriola, Edurne; Jaal, Jana; Edvardsen, Anne; Silvoniemi, Maria; Araújo, António; Vikström, Anders; Zairi, Eleni; Rodriguez-Mues, Mari Carmen; Roccato, Marco; Schneider, Sophie; Ammann, Johannes</t>
+  </si>
+  <si>
+    <t>Hopmans, Wendy; Damman, Olga C.; Timmermans, Danielle RM; Haasbeek, Cornelis JA; Slotman, Ben J.; Senan, Suresh</t>
+  </si>
+  <si>
+    <t>LI, Min; ZHANG, Miao; WANG, Heng; PAN, Xuefeng; WU, Wenbin; ZHANG, Qi; LIU, Yun; ZHANG, Hui</t>
+  </si>
+  <si>
+    <t>Reilly, Charles C.; Bristowe, Katherine; Roach, Anna; Maddocks, Matthew; Higginson, Irene J.</t>
+  </si>
+  <si>
+    <t>Loy, Michelle H.; Prisco, Lauren; Parikh, Chiti</t>
+  </si>
+  <si>
+    <t>Miyaji, Tempei; Kawaguchi, Takashi; Azuma, Kanako; Suzuki, Shinya; Sano, Yoko; Akatsu, Moe; Torii, Ayako; Kamimura, Tadamasa; Ozawa, Yuki; Tsuchida, Akihiko; Eriguchi, Daisuke; Hashiguchi, Mizuha; Nishino, Makoto; Nishi, Motohide; Inadome, Yumi; Yamazaki, Tsutomu; Kiuchi, Takahiro; Yamaguchi, Takuhiro</t>
+  </si>
+  <si>
+    <t>Denis, Fabrice; Lethrosne, Claire; Pourel, Nicolas; Molinier, Olivier; Pointreau, Yoann; Domont, Julien; Bourgeois, Hugues; Senellart, Hélène; Trémolières, Pierre; Lizée, Thibaut; Bennouna, Jaafar; Urban, Thierry; El Khouri, Claude; Charron, Alexandre; Septans, Anne-Lise; Balavoine, Magali; Landry, Sébastien; Solal-Céligny, Philippe; Letellier, Christophe</t>
+  </si>
+  <si>
+    <t>Gustafson, David H.; DuBenske, Lori L.; Atwood, Amy K.; Chih, Ming-Yuan; Johnson, Roberta A.; McTavish, Fiona; Quanbeck, Andrew; Brown, Roger L.; Cleary, James F.; Shah, Dhavan</t>
+  </si>
+  <si>
+    <t>Mooney, Kathi H.; Beck, Susan L.; Wong, Bob; Dunson, William; Wujcik, Debra; Whisenant, Meagan; Donaldson, Gary</t>
+  </si>
+  <si>
+    <t>Groen, Wim G.; Kuijpers, Wilma; Oldenburg, Hester SA; Wouters, Michel WJM; Aaronson, Neil K.; Harten, Wim H. van</t>
+  </si>
+  <si>
+    <t>Nimgaonkar, Vivek; Aggarwal, Charu; Berman, Abigail T.; Gabriel, Peter; Shulman, Lawrence N.; Kucharczuk, John; Roy, Megan; Bauml, Joshua M.; Singh, Aditi P.; Cohen, Roger B.; Langer, Corey J.; Marmarelis, Melina E.</t>
+  </si>
+  <si>
+    <t>Mkanta, William N.; Chumbler, Neale R.; Richardson, Lisa C.; Kobb, Rita F.</t>
+  </si>
+  <si>
+    <t>Mooney, Kathi; Whisenant, Meagan S.; Wilson, Christina M.; Coombs, Lorinda A.; Lloyd, Jennifer; Alekhina, Natalya; Sloss, Elizabeth A.; Steinbach, Mary; Moraitis, Ann Marie; Berry, Patricia; Iacob, Eli; Donaldson, Gary</t>
+  </si>
+  <si>
+    <t>Huang, Yaoru; Kabir, Muhammad Ashad; Upadhyay, Umashankar; Dhar, Eshita; Uddin, Mohy; Syed-Abdul, Shabbir</t>
+  </si>
+  <si>
+    <t>Charles, Cécile; Bardet, Aurélie; Ibrahimi, Nusaïbah; Aromatario, Olivier; Cambon, Linda; Imbert, Alexis; Pons, Magali; Raynard, Bruno; Sauveplane, Dominique; Pouchepadass, Camille; Baudinet, Cédric; Lambotte, Olivier; Marabelle, Aurélien; Dauchy, Sarah</t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3344,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C1:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" numFmtId="49" showAll="0">
@@ -3373,9 +3463,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AG1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="X1:AG1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}" name="Table3" displayName="Table3" ref="X1:AH1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="X1:AH1048576" xr:uid="{ECA2CBF4-B642-415B-87A8-8E50E07E3EF3}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DFE2B5C0-4535-4D3C-AE33-93CE5AE4D24E}" name="Impact of technology on treatment outcomes"/>
     <tableColumn id="2" xr3:uid="{D63BE219-238D-499A-A804-1C9D67AC2E34}" name="Challenges of technology use"/>
     <tableColumn id="9" xr3:uid="{0EE96D2F-367A-4ACA-8024-1BADFBB45A96}" name="Challenge_theme"/>
@@ -3386,6 +3476,7 @@
     <tableColumn id="7" xr3:uid="{29717171-C5A6-45AA-857D-97ACBB2CA000}" name="Treatment 2"/>
     <tableColumn id="8" xr3:uid="{7A49C9F5-5988-4F1A-AD3C-EE8AEC3F28B7}" name="Pre_post"/>
     <tableColumn id="10" xr3:uid="{3B1D6E5A-0729-4731-A45E-3D73B2205C0B}" name="Challenge_recode"/>
+    <tableColumn id="11" xr3:uid="{4A8ACC7C-FC0F-4CC9-AB36-C7A0BD425D7B}" name="Author"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3671,10 +3762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG296"/>
+  <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="AC6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3708,9 +3799,10 @@
     <col min="29" max="29" width="59.1796875" customWidth="1"/>
     <col min="31" max="31" width="14.453125" customWidth="1"/>
     <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="34" max="34" width="67.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -3810,8 +3902,11 @@
       <c r="AG1" s="21" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH1" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3911,8 +4006,11 @@
       <c r="AG2" s="20" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4012,8 +4110,11 @@
       <c r="AG3" s="20" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4113,8 +4214,11 @@
       <c r="AG4" s="20" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4214,8 +4318,11 @@
       <c r="AG5" s="20" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4315,8 +4422,11 @@
       <c r="AG6" s="20" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4416,8 +4526,11 @@
       <c r="AG7" s="20" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4517,8 +4630,11 @@
       <c r="AG8" s="20" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4618,8 +4734,11 @@
       <c r="AG9" s="20" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4719,8 +4838,11 @@
       <c r="AG10" s="20" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4820,8 +4942,11 @@
       <c r="AG11" s="20" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4921,8 +5046,11 @@
       <c r="AG12" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5022,8 +5150,11 @@
       <c r="AG13" s="20" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5123,8 +5254,11 @@
       <c r="AG14" s="20" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5224,8 +5358,11 @@
       <c r="AG15" s="20" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5325,8 +5462,11 @@
       <c r="AG16" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH16" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5426,8 +5566,11 @@
       <c r="AG17" s="20" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5527,8 +5670,11 @@
       <c r="AG18" s="20" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5628,8 +5774,11 @@
       <c r="AG19" s="20" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5729,8 +5878,11 @@
       <c r="AG20" s="20" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5830,8 +5982,11 @@
       <c r="AG21" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH21" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5928,8 +6083,11 @@
       <c r="AG22" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH22" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6029,8 +6187,11 @@
       <c r="AG23" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6130,8 +6291,11 @@
       <c r="AG24" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH24" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6231,8 +6395,11 @@
       <c r="AG25" s="20" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6332,8 +6499,11 @@
       <c r="AG26" s="20" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6433,8 +6603,11 @@
       <c r="AG27" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6534,8 +6707,11 @@
       <c r="AG28" s="20" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6632,8 +6808,11 @@
       <c r="AG29" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6730,14 +6909,17 @@
       <c r="AG30" s="20" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W31" s="20"/>
       <c r="AC31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="20"/>
     </row>
-    <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W32" s="20"/>
       <c r="AC32" s="20"/>
       <c r="AF32" s="20"/>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,23 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9391EF-21E1-4B6E-ACBF-C313E580756A}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A178278-BE27-430A-AB98-7B26584F2C15}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphics" sheetId="3" r:id="rId2"/>
-    <sheet name="variable name" sheetId="2" r:id="rId3"/>
+    <sheet name="variable name" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Graphics!$A$2:$A$31</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="640">
   <si>
     <t>Title</t>
   </si>
@@ -339,9 +331,6 @@
   </si>
   <si>
     <t>Randomized Trial Comparing a Web-Mediated Follow-up With Routine Surveillance in Lung Cancer Patients</t>
-  </si>
-  <si>
-    <t>Reducing Symptom Distress in Patients With Advanced Cancer Using an e-Alert System for Caregivers: Pooled Analysis of Two Randomized Clinical Trials</t>
   </si>
   <si>
     <t>Supporting Lung Cancer Patients With an Interactive Patient Portal: Feasibility Study</t>
@@ -1222,9 +1211,6 @@
     <t>Limited diversity in sample, inability to determine the active ingredient of the intervention, unknown effectiveness in non-English-speaking populations, not specific to lung cancer patients</t>
   </si>
   <si>
-    <t>To assess the impact of an eHealth system that alerts clinicians about significant changes in patient symptoms as reported by caregivers on reducing symptom distress</t>
-  </si>
-  <si>
     <t>Pooled analysis of two randomized clinical trials</t>
   </si>
   <si>
@@ -1244,18 +1230,6 @@
   </si>
   <si>
     <t xml:space="preserve">Web-based the Comprehensive Health Enhancement Support System(CHESS) system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caregivers may rate symptoms lower to avoid triggering alerts; technology access and comfort </t>
-  </si>
-  <si>
-    <t>Patients in the CHESS+CR group had improved symptoms reported more often than those in CHESS-only (53% vs. 26%), web-based reporting let to more timely symptom management</t>
-  </si>
-  <si>
-    <t>caregivers in the CHESS+CR group reported fewer symptoms but more symptom improvements</t>
-  </si>
-  <si>
-    <t>potential response bias; self-reported data; no qualitative data from patients and caregivers on system use</t>
   </si>
   <si>
     <t>I,II, IV</t>
@@ -1774,18 +1748,6 @@
     <t>caregiver, patient, provider coordination</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of year</t>
-  </si>
-  <si>
     <t>telemedicine</t>
   </si>
   <si>
@@ -1933,299 +1895,272 @@
     <t>monitoring and tracking</t>
   </si>
   <si>
+    <t>monitoring and tracking,communication and coordination,emotional and social support</t>
+  </si>
+  <si>
+    <t>emotional and social support</t>
+  </si>
+  <si>
+    <t>communication and coordination,education and information delivery</t>
+  </si>
+  <si>
+    <t>education and information delivery,decision support and guidance</t>
+  </si>
+  <si>
+    <t>communication and coordination,emotional and social support</t>
+  </si>
+  <si>
+    <t>monitoring and tracking,communication and coordination,education and information delivery,decision support and guidance</t>
+  </si>
+  <si>
+    <t>education and information delivery,emotional and social support,promotion of healthy behavior</t>
+  </si>
+  <si>
+    <t>communication and coordination</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>mobile application</t>
+  </si>
+  <si>
+    <t>During-treatment,Post-treatment</t>
+  </si>
+  <si>
+    <t>During-treatment</t>
+  </si>
+  <si>
+    <t>Post-treatment</t>
+  </si>
+  <si>
+    <t>Pre-treatment,During-treatment,Post-treatment</t>
+  </si>
+  <si>
+    <t>Pre-treatment</t>
+  </si>
+  <si>
+    <t>Pre_post</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity,communication with providers</t>
+  </si>
+  <si>
+    <t>emotional distress/anxiety/depression,preparedness for treatment</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity,preparedness for treatment</t>
+  </si>
+  <si>
+    <t>communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management</t>
+  </si>
+  <si>
+    <t>accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,communication with providers</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms</t>
+  </si>
+  <si>
+    <t>emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
+  </si>
+  <si>
+    <t>Challenge_recode</t>
+  </si>
+  <si>
+    <t>palliative/hospice</t>
+  </si>
+  <si>
+    <t>promotion of healthy behavior</t>
+  </si>
+  <si>
+    <t>Intervention_type</t>
+  </si>
+  <si>
+    <t>Challenge_theme</t>
+  </si>
+  <si>
+    <t>low digital literacy</t>
+  </si>
+  <si>
+    <t>reliability regarding reporting</t>
+  </si>
+  <si>
+    <t>favor of in person care</t>
+  </si>
+  <si>
+    <t>device malfunction and sync issue</t>
+  </si>
+  <si>
+    <t>internet and tech access</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>low digital literacy, compliance</t>
+  </si>
+  <si>
+    <t>confusion and tmi</t>
+  </si>
+  <si>
+    <t>low digital literacy,lack of content</t>
+  </si>
+  <si>
+    <t>internet and tech access,low digital literacy</t>
+  </si>
+  <si>
+    <t>device malfunction and sync issue,privacy,compliance</t>
+  </si>
+  <si>
+    <t>internet and tech access,low digital literacy,compliance</t>
+  </si>
+  <si>
+    <t>reliability regarding reporting,low digital literacy</t>
+  </si>
+  <si>
+    <t>internet and tech access,compliance</t>
+  </si>
+  <si>
+    <t>low digital literacy,compliance</t>
+  </si>
+  <si>
+    <t>confusion and tmi,favor of in-person care</t>
+  </si>
+  <si>
+    <t>low digital literacy,reliability regarding reporting</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Ha, Duc M.; Comer, Angela; Dollar, Blythe; Bedoy, Ruth; Ford, Morgan; Gozansky, Wendolyn S.; Zeng, Chan; Arch, Joanna J.; Leach, Heather J.; Malhotra, Atul; Prochazka, Allan V.; Keith, Robert L.; Boxer, Rebecca S.</t>
+  </si>
+  <si>
+    <t>Asensio-Cuesta, Sabina; Sánchez-García, Ángel; Soria Comes, Teresa; Maestu, Inmaculada; Martín Ureste, Maria; Conejero, J. Alberto; García-Gómez, Juan M.</t>
+  </si>
+  <si>
+    <t>Park, Sojung; Kim, Ji Youn; Lee, Jae Cheol; Kim, Hyeong Ryul; Song, Seungjae; Kwon, Hee; Ji, Wonjun; Choi, Chang Min</t>
+  </si>
+  <si>
+    <t>Timmerman, Josien G.; Tönis, Thijs M.; Dekker-van Weering, Marit G. H.; Stuiver, Martijn M.; Wouters, Michel W. J. M.; van Harten, Wim H.; Hermens, Hermie J.; Vollenbroek-Hutten, Miriam M. R.</t>
+  </si>
+  <si>
+    <t>Schook, Romane Milia; Linssen, Cilia; Schramel, Franz MNH; Festen, Jan; Lammers, Ernst; Smit, Egbert F.; Postmus, Pieter E.; Westerman, Marjan J.</t>
+  </si>
+  <si>
+    <t>Misplon, Sarah; Marneffe, Wim; Himpe, Ulrike; Hellings, Johan; Demedts, Ingel</t>
+  </si>
+  <si>
+    <t>Mouillet, Guillaume; Falcoz, Antoine; Fritzsch, Joëlle; Almotlak, Hamadi; Jacoulet, Pascale; Pivot, Xavier; Villanueva, Cristian; Mansi, Laura; Kim, Stefano; Curtit, Elsa; Meneveau, Nathalie; Adotevi, Olivier; Jary, Marine; Eberst, Guillaume; Vienot, Angelique; Calcagno, Fabien; Pozet, Astrid; Djoumakh, Oumelkheir; Borg, Christophe; Westeel, Virginie; Anota, Amélie; Paget-Bailly, Sophie</t>
+  </si>
+  <si>
+    <t>Lafaro, Kelly J.; Raz, Dan J.; Kim, Jae Y.; Hite, Sherry; Ruel, Nora; Varatkar, Gouri; Erhunmwunsee, Loretta; Melstrom, Laleh; Lee, Byrne; Singh, Gagandeep; Fong, Yuman; Sun, Virginia</t>
+  </si>
+  <si>
+    <t>Rose, Pamela; Quail, Heather; McPhelim, John; Simpson, Mhairi</t>
+  </si>
+  <si>
+    <t>Schneider, Susan M.; Hood, Linda E.</t>
+  </si>
+  <si>
+    <t>Gustafson, David H.; DuBenske, Lori L.; Namkoong, Kang; Hawkins, Robert; Chih, Ming-Yuan; Atwood, Amy K.; Johnson, Roberta; Bhattacharya, Abhik; Carmack, Cindy L.; Traynor, Anne M.; Campbell, Toby C.; Buss, Mary K.; Govindan, Ramaswamy; Schiller, Joan H.; Cleary, James F.</t>
+  </si>
+  <si>
+    <t>Greer, Joseph A.; Temel, Jennifer S.; El-Jawahri, Areej; Rinaldi, Simone; Kamdar, Mihir; Park, Elyse R.; Horick, Nora K.; Pintro, Kedie; Rabideau, Dustin J.; Schwamm, Lee; Feliciano, Josephine; Chua, Isaac; Leventakos, Konstantinos; Fischer, Stacy M.; Campbell, Toby C.; Rabow, Michael W.; Zachariah, Finly; Hanson, Laura C.; Martin, Sara F.; Silveira, Maria; Shoemaker, Laura; Bakitas, Marie; Bauman, Jessica; Spoozak, Lori; Grey, Carl; Blackhall, Leslie; Curseen, Kimberly; O’Mahony, Sean; Smith, Melanie M.; Rhodes, Ramona; Cullinan, Amelia; Jackson, Vicki; REACH PC Investigators; Trotter, Chardria; Gallagher Medeiros, Emily; Calton, Brooke A.; Carlson, Heather A.; Cartagena, Leslie; Diop, Michelle; Evans, Theresa; Jackson, James G.; O’Brien, Karen; Petrillo, Laura A.; Shin, Jennifer S.; Browner, Ilene; Gray, Nathaniel; Awad, Mark; Tulsky, James; Christensen, Kelly J.; Rhee, Laura S.; Strand, Jacob; Gilhuly, Devin; Rondinelli, Nicole; Seibert, Jennifer; Treem, Jonathan; Schueller, Kate; Allen, Gregory; Blakely, Collin; Gubens, Matthew; Lindenfeld, Paul; Mulvey, Claire; Young, Natalie; Dale, William; Luna, Joanna; Mecusker, Eric; Moreno, Jeanine; Ramirez, Carey; Williams, Sari; Gaffney, Sean; Kelly, Cynthia; Lavin, Kyle; Iams, Wade; Robbins, Samuel G.; Kalemkerian, Greg; Lagman, Ruth; Neale, Kyle; Patel, Chirag; Samala, Renato; Weinstein, Elizabeth; McCammon, Susan; Taylor, Richard; Tucker, Rodney; Chwistek, Marcin; Collins, Molly; Edelman, Martin; Judd, Julia; Kinczewski, Leigh; Murphy, Kathleen; Sherry, Dylan; Welsh, Marie; Sinclair, Christian; Wulff-Burchfield, Elizabeth; Gabbard, Jennifer; Statler, Tiffany; Timmins, Nathaniel; Kavalieratos, Dio; Lowers, Jane; Quest, Tammie; Chen, Elaine; LaBellarte, Giulia; Mohinda, Nisha; Munger, Natalie K.; Munroe, Michelle; Patel, Jyoti D.; Szmuilowicz, Eytan; Vermylen, Julia H.; Siropaides, Caitlin H.; Ahern, Christopher G.; Kobin, Emily G.; Vergo, Maxwell T.; Wilson, Matthew M.</t>
+  </si>
+  <si>
+    <t>Tang, Fiona W.K.; Chan, Carmen W.H.; Choy, Yin-Ping; Loong, Herbert H.F.; Chow, Ka Ming; So, Winnie K.W.</t>
+  </si>
+  <si>
+    <t>Denis, Fabrice; Yossi, Senna; Septans, Anne-Lise; Charron, Alexandre; Voog, Eric; Dupuis, Olivier; Ganem, Gérard; Pointreau, Yoann; Letellier, Christophe</t>
+  </si>
+  <si>
+    <t>Arriola, Edurne; Jaal, Jana; Edvardsen, Anne; Silvoniemi, Maria; Araújo, António; Vikström, Anders; Zairi, Eleni; Rodriguez-Mues, Mari Carmen; Roccato, Marco; Schneider, Sophie; Ammann, Johannes</t>
+  </si>
+  <si>
+    <t>Hopmans, Wendy; Damman, Olga C.; Timmermans, Danielle RM; Haasbeek, Cornelis JA; Slotman, Ben J.; Senan, Suresh</t>
+  </si>
+  <si>
+    <t>LI, Min; ZHANG, Miao; WANG, Heng; PAN, Xuefeng; WU, Wenbin; ZHANG, Qi; LIU, Yun; ZHANG, Hui</t>
+  </si>
+  <si>
+    <t>Reilly, Charles C.; Bristowe, Katherine; Roach, Anna; Maddocks, Matthew; Higginson, Irene J.</t>
+  </si>
+  <si>
+    <t>Loy, Michelle H.; Prisco, Lauren; Parikh, Chiti</t>
+  </si>
+  <si>
+    <t>Miyaji, Tempei; Kawaguchi, Takashi; Azuma, Kanako; Suzuki, Shinya; Sano, Yoko; Akatsu, Moe; Torii, Ayako; Kamimura, Tadamasa; Ozawa, Yuki; Tsuchida, Akihiko; Eriguchi, Daisuke; Hashiguchi, Mizuha; Nishino, Makoto; Nishi, Motohide; Inadome, Yumi; Yamazaki, Tsutomu; Kiuchi, Takahiro; Yamaguchi, Takuhiro</t>
+  </si>
+  <si>
+    <t>Denis, Fabrice; Lethrosne, Claire; Pourel, Nicolas; Molinier, Olivier; Pointreau, Yoann; Domont, Julien; Bourgeois, Hugues; Senellart, Hélène; Trémolières, Pierre; Lizée, Thibaut; Bennouna, Jaafar; Urban, Thierry; El Khouri, Claude; Charron, Alexandre; Septans, Anne-Lise; Balavoine, Magali; Landry, Sébastien; Solal-Céligny, Philippe; Letellier, Christophe</t>
+  </si>
+  <si>
+    <t>Mooney, Kathi H.; Beck, Susan L.; Wong, Bob; Dunson, William; Wujcik, Debra; Whisenant, Meagan; Donaldson, Gary</t>
+  </si>
+  <si>
+    <t>Groen, Wim G.; Kuijpers, Wilma; Oldenburg, Hester SA; Wouters, Michel WJM; Aaronson, Neil K.; Harten, Wim H. van</t>
+  </si>
+  <si>
+    <t>Nimgaonkar, Vivek; Aggarwal, Charu; Berman, Abigail T.; Gabriel, Peter; Shulman, Lawrence N.; Kucharczuk, John; Roy, Megan; Bauml, Joshua M.; Singh, Aditi P.; Cohen, Roger B.; Langer, Corey J.; Marmarelis, Melina E.</t>
+  </si>
+  <si>
+    <t>Mkanta, William N.; Chumbler, Neale R.; Richardson, Lisa C.; Kobb, Rita F.</t>
+  </si>
+  <si>
+    <t>Mooney, Kathi; Whisenant, Meagan S.; Wilson, Christina M.; Coombs, Lorinda A.; Lloyd, Jennifer; Alekhina, Natalya; Sloss, Elizabeth A.; Steinbach, Mary; Moraitis, Ann Marie; Berry, Patricia; Iacob, Eli; Donaldson, Gary</t>
+  </si>
+  <si>
+    <t>Huang, Yaoru; Kabir, Muhammad Ashad; Upadhyay, Umashankar; Dhar, Eshita; Uddin, Mohy; Syed-Abdul, Shabbir</t>
+  </si>
+  <si>
+    <t>Charles, Cécile; Bardet, Aurélie; Ibrahimi, Nusaïbah; Aromatario, Olivier; Cambon, Linda; Imbert, Alexis; Pons, Magali; Raynard, Bruno; Sauveplane, Dominique; Pouchepadass, Camille; Baudinet, Cédric; Lambotte, Olivier; Marabelle, Aurélien; Dauchy, Sarah</t>
+  </si>
+  <si>
+    <t>education and information delivery,emotional and social support</t>
+  </si>
+  <si>
+    <t>education and information delivery</t>
+  </si>
+  <si>
+    <t>monitoring and tracking,decision support and guidance</t>
+  </si>
+  <si>
     <t>monitoring and tracking,promotion of healthy behavior</t>
   </si>
   <si>
-    <t>communication and coordination,education and information delivery,emotional and social support</t>
-  </si>
-  <si>
-    <t>monitoring and tracking,communication and coordination,emotional and social support</t>
-  </si>
-  <si>
-    <t>communication and coordination,education and information delivery,emotional and social support,promotion of healthy behavior</t>
-  </si>
-  <si>
-    <t>monitoring and tracking,communication and coordination,decision support and guidance,emotional and social support</t>
-  </si>
-  <si>
-    <t>emotional and social support</t>
-  </si>
-  <si>
-    <t>communication and coordination,education and information delivery</t>
-  </si>
-  <si>
-    <t>education and information delivery,decision support and guidance</t>
-  </si>
-  <si>
-    <t>communication and coordination,emotional and social support</t>
-  </si>
-  <si>
-    <t>monitoring and tracking,education and information delivery</t>
-  </si>
-  <si>
-    <t>monitoring and tracking,communication and coordination,education and information delivery,decision support and guidance</t>
-  </si>
-  <si>
-    <t>education and information delivery,emotional and social support,promotion of healthy behavior</t>
-  </si>
-  <si>
-    <t>communication and coordination</t>
-  </si>
-  <si>
-    <t>monitoring and tracking,communication and coordination,decision support and guidance</t>
-  </si>
-  <si>
-    <t>communication and coordination,education and information delivery,promotion of healthy behavior</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>mobile application</t>
-  </si>
-  <si>
-    <t>During-treatment,Post-treatment</t>
-  </si>
-  <si>
-    <t>During-treatment</t>
-  </si>
-  <si>
-    <t>Post-treatment</t>
-  </si>
-  <si>
-    <t>Pre-treatment,During-treatment</t>
-  </si>
-  <si>
-    <t>Pre-treatment,During-treatment,Post-treatment</t>
-  </si>
-  <si>
-    <t>Pre-treatment</t>
-  </si>
-  <si>
-    <t>Pre_post</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms,communication with providers</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,adherence to rehabilitation/physical activity,communication with providers</t>
-  </si>
-  <si>
-    <t>emotional distress/anxiety/depression,preparedness for treatment</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms,communication with providers</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,adherence to rehabilitation/physical activity,preparedness for treatment</t>
-  </si>
-  <si>
-    <t>communication with providers</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,emotional distress/anxiety/depression</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management</t>
-  </si>
-  <si>
-    <t>accurate and in-time reporting of symptoms</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,communication with providers</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,accurate and in-time reporting of symptoms</t>
-  </si>
-  <si>
-    <t>symptom distress/side-effect management,emotional distress/anxiety/depression,accurate and in-time reporting of symptoms</t>
-  </si>
-  <si>
-    <t>emotional distress/anxiety/depression,adherence to rehabilitation/physical activity</t>
-  </si>
-  <si>
-    <t>Challenge_recode</t>
-  </si>
-  <si>
-    <t>palliative/hospice</t>
-  </si>
-  <si>
-    <t>intervention_type</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>decision support and guidance</t>
-  </si>
-  <si>
-    <t>education and information delivery</t>
-  </si>
-  <si>
-    <t>promotion of healthy behavior</t>
-  </si>
-  <si>
-    <t>Intervention_type</t>
-  </si>
-  <si>
-    <t>Challenge_theme</t>
-  </si>
-  <si>
-    <t>low digital literacy</t>
-  </si>
-  <si>
-    <t>reliability regarding reporting</t>
-  </si>
-  <si>
-    <t>favor of in person care</t>
-  </si>
-  <si>
-    <t>device malfunction and sync issue</t>
-  </si>
-  <si>
-    <t>internet and tech access</t>
-  </si>
-  <si>
-    <t>compliance</t>
-  </si>
-  <si>
-    <t>low digital literacy, compliance</t>
-  </si>
-  <si>
-    <t>confusion and tmi</t>
-  </si>
-  <si>
-    <t>low digital literacy,lack of content</t>
-  </si>
-  <si>
-    <t>internet and tech access,reliability regarding reporting</t>
-  </si>
-  <si>
-    <t>internet and tech access,low digital literacy</t>
-  </si>
-  <si>
-    <t>device malfunction and sync issue,privacy,compliance</t>
-  </si>
-  <si>
-    <t>internet and tech access,low digital literacy,compliance</t>
-  </si>
-  <si>
-    <t>reliability regarding reporting,low digital literacy</t>
-  </si>
-  <si>
-    <t>internet and tech access,compliance</t>
-  </si>
-  <si>
-    <t>low digital literacy,compliance</t>
-  </si>
-  <si>
-    <t>confusion and tmi,favor of in-person care</t>
-  </si>
-  <si>
-    <t>low digital literacy,reliability regarding reporting</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Ha, Duc M.; Comer, Angela; Dollar, Blythe; Bedoy, Ruth; Ford, Morgan; Gozansky, Wendolyn S.; Zeng, Chan; Arch, Joanna J.; Leach, Heather J.; Malhotra, Atul; Prochazka, Allan V.; Keith, Robert L.; Boxer, Rebecca S.</t>
-  </si>
-  <si>
-    <t>Asensio-Cuesta, Sabina; Sánchez-García, Ángel; Soria Comes, Teresa; Maestu, Inmaculada; Martín Ureste, Maria; Conejero, J. Alberto; García-Gómez, Juan M.</t>
-  </si>
-  <si>
-    <t>Park, Sojung; Kim, Ji Youn; Lee, Jae Cheol; Kim, Hyeong Ryul; Song, Seungjae; Kwon, Hee; Ji, Wonjun; Choi, Chang Min</t>
-  </si>
-  <si>
-    <t>Timmerman, Josien G.; Tönis, Thijs M.; Dekker-van Weering, Marit G. H.; Stuiver, Martijn M.; Wouters, Michel W. J. M.; van Harten, Wim H.; Hermens, Hermie J.; Vollenbroek-Hutten, Miriam M. R.</t>
-  </si>
-  <si>
-    <t>Schook, Romane Milia; Linssen, Cilia; Schramel, Franz MNH; Festen, Jan; Lammers, Ernst; Smit, Egbert F.; Postmus, Pieter E.; Westerman, Marjan J.</t>
-  </si>
-  <si>
-    <t>Misplon, Sarah; Marneffe, Wim; Himpe, Ulrike; Hellings, Johan; Demedts, Ingel</t>
-  </si>
-  <si>
-    <t>Mouillet, Guillaume; Falcoz, Antoine; Fritzsch, Joëlle; Almotlak, Hamadi; Jacoulet, Pascale; Pivot, Xavier; Villanueva, Cristian; Mansi, Laura; Kim, Stefano; Curtit, Elsa; Meneveau, Nathalie; Adotevi, Olivier; Jary, Marine; Eberst, Guillaume; Vienot, Angelique; Calcagno, Fabien; Pozet, Astrid; Djoumakh, Oumelkheir; Borg, Christophe; Westeel, Virginie; Anota, Amélie; Paget-Bailly, Sophie</t>
-  </si>
-  <si>
-    <t>Lafaro, Kelly J.; Raz, Dan J.; Kim, Jae Y.; Hite, Sherry; Ruel, Nora; Varatkar, Gouri; Erhunmwunsee, Loretta; Melstrom, Laleh; Lee, Byrne; Singh, Gagandeep; Fong, Yuman; Sun, Virginia</t>
-  </si>
-  <si>
-    <t>Rose, Pamela; Quail, Heather; McPhelim, John; Simpson, Mhairi</t>
-  </si>
-  <si>
-    <t>Schneider, Susan M.; Hood, Linda E.</t>
-  </si>
-  <si>
-    <t>Gustafson, David H.; DuBenske, Lori L.; Namkoong, Kang; Hawkins, Robert; Chih, Ming-Yuan; Atwood, Amy K.; Johnson, Roberta; Bhattacharya, Abhik; Carmack, Cindy L.; Traynor, Anne M.; Campbell, Toby C.; Buss, Mary K.; Govindan, Ramaswamy; Schiller, Joan H.; Cleary, James F.</t>
-  </si>
-  <si>
-    <t>Greer, Joseph A.; Temel, Jennifer S.; El-Jawahri, Areej; Rinaldi, Simone; Kamdar, Mihir; Park, Elyse R.; Horick, Nora K.; Pintro, Kedie; Rabideau, Dustin J.; Schwamm, Lee; Feliciano, Josephine; Chua, Isaac; Leventakos, Konstantinos; Fischer, Stacy M.; Campbell, Toby C.; Rabow, Michael W.; Zachariah, Finly; Hanson, Laura C.; Martin, Sara F.; Silveira, Maria; Shoemaker, Laura; Bakitas, Marie; Bauman, Jessica; Spoozak, Lori; Grey, Carl; Blackhall, Leslie; Curseen, Kimberly; O’Mahony, Sean; Smith, Melanie M.; Rhodes, Ramona; Cullinan, Amelia; Jackson, Vicki; REACH PC Investigators; Trotter, Chardria; Gallagher Medeiros, Emily; Calton, Brooke A.; Carlson, Heather A.; Cartagena, Leslie; Diop, Michelle; Evans, Theresa; Jackson, James G.; O’Brien, Karen; Petrillo, Laura A.; Shin, Jennifer S.; Browner, Ilene; Gray, Nathaniel; Awad, Mark; Tulsky, James; Christensen, Kelly J.; Rhee, Laura S.; Strand, Jacob; Gilhuly, Devin; Rondinelli, Nicole; Seibert, Jennifer; Treem, Jonathan; Schueller, Kate; Allen, Gregory; Blakely, Collin; Gubens, Matthew; Lindenfeld, Paul; Mulvey, Claire; Young, Natalie; Dale, William; Luna, Joanna; Mecusker, Eric; Moreno, Jeanine; Ramirez, Carey; Williams, Sari; Gaffney, Sean; Kelly, Cynthia; Lavin, Kyle; Iams, Wade; Robbins, Samuel G.; Kalemkerian, Greg; Lagman, Ruth; Neale, Kyle; Patel, Chirag; Samala, Renato; Weinstein, Elizabeth; McCammon, Susan; Taylor, Richard; Tucker, Rodney; Chwistek, Marcin; Collins, Molly; Edelman, Martin; Judd, Julia; Kinczewski, Leigh; Murphy, Kathleen; Sherry, Dylan; Welsh, Marie; Sinclair, Christian; Wulff-Burchfield, Elizabeth; Gabbard, Jennifer; Statler, Tiffany; Timmins, Nathaniel; Kavalieratos, Dio; Lowers, Jane; Quest, Tammie; Chen, Elaine; LaBellarte, Giulia; Mohinda, Nisha; Munger, Natalie K.; Munroe, Michelle; Patel, Jyoti D.; Szmuilowicz, Eytan; Vermylen, Julia H.; Siropaides, Caitlin H.; Ahern, Christopher G.; Kobin, Emily G.; Vergo, Maxwell T.; Wilson, Matthew M.</t>
-  </si>
-  <si>
-    <t>Tang, Fiona W.K.; Chan, Carmen W.H.; Choy, Yin-Ping; Loong, Herbert H.F.; Chow, Ka Ming; So, Winnie K.W.</t>
-  </si>
-  <si>
-    <t>Denis, Fabrice; Yossi, Senna; Septans, Anne-Lise; Charron, Alexandre; Voog, Eric; Dupuis, Olivier; Ganem, Gérard; Pointreau, Yoann; Letellier, Christophe</t>
-  </si>
-  <si>
-    <t>Arriola, Edurne; Jaal, Jana; Edvardsen, Anne; Silvoniemi, Maria; Araújo, António; Vikström, Anders; Zairi, Eleni; Rodriguez-Mues, Mari Carmen; Roccato, Marco; Schneider, Sophie; Ammann, Johannes</t>
-  </si>
-  <si>
-    <t>Hopmans, Wendy; Damman, Olga C.; Timmermans, Danielle RM; Haasbeek, Cornelis JA; Slotman, Ben J.; Senan, Suresh</t>
-  </si>
-  <si>
-    <t>LI, Min; ZHANG, Miao; WANG, Heng; PAN, Xuefeng; WU, Wenbin; ZHANG, Qi; LIU, Yun; ZHANG, Hui</t>
-  </si>
-  <si>
-    <t>Reilly, Charles C.; Bristowe, Katherine; Roach, Anna; Maddocks, Matthew; Higginson, Irene J.</t>
-  </si>
-  <si>
-    <t>Loy, Michelle H.; Prisco, Lauren; Parikh, Chiti</t>
-  </si>
-  <si>
-    <t>Miyaji, Tempei; Kawaguchi, Takashi; Azuma, Kanako; Suzuki, Shinya; Sano, Yoko; Akatsu, Moe; Torii, Ayako; Kamimura, Tadamasa; Ozawa, Yuki; Tsuchida, Akihiko; Eriguchi, Daisuke; Hashiguchi, Mizuha; Nishino, Makoto; Nishi, Motohide; Inadome, Yumi; Yamazaki, Tsutomu; Kiuchi, Takahiro; Yamaguchi, Takuhiro</t>
-  </si>
-  <si>
-    <t>Denis, Fabrice; Lethrosne, Claire; Pourel, Nicolas; Molinier, Olivier; Pointreau, Yoann; Domont, Julien; Bourgeois, Hugues; Senellart, Hélène; Trémolières, Pierre; Lizée, Thibaut; Bennouna, Jaafar; Urban, Thierry; El Khouri, Claude; Charron, Alexandre; Septans, Anne-Lise; Balavoine, Magali; Landry, Sébastien; Solal-Céligny, Philippe; Letellier, Christophe</t>
-  </si>
-  <si>
-    <t>Gustafson, David H.; DuBenske, Lori L.; Atwood, Amy K.; Chih, Ming-Yuan; Johnson, Roberta A.; McTavish, Fiona; Quanbeck, Andrew; Brown, Roger L.; Cleary, James F.; Shah, Dhavan</t>
-  </si>
-  <si>
-    <t>Mooney, Kathi H.; Beck, Susan L.; Wong, Bob; Dunson, William; Wujcik, Debra; Whisenant, Meagan; Donaldson, Gary</t>
-  </si>
-  <si>
-    <t>Groen, Wim G.; Kuijpers, Wilma; Oldenburg, Hester SA; Wouters, Michel WJM; Aaronson, Neil K.; Harten, Wim H. van</t>
-  </si>
-  <si>
-    <t>Nimgaonkar, Vivek; Aggarwal, Charu; Berman, Abigail T.; Gabriel, Peter; Shulman, Lawrence N.; Kucharczuk, John; Roy, Megan; Bauml, Joshua M.; Singh, Aditi P.; Cohen, Roger B.; Langer, Corey J.; Marmarelis, Melina E.</t>
-  </si>
-  <si>
-    <t>Mkanta, William N.; Chumbler, Neale R.; Richardson, Lisa C.; Kobb, Rita F.</t>
-  </si>
-  <si>
-    <t>Mooney, Kathi; Whisenant, Meagan S.; Wilson, Christina M.; Coombs, Lorinda A.; Lloyd, Jennifer; Alekhina, Natalya; Sloss, Elizabeth A.; Steinbach, Mary; Moraitis, Ann Marie; Berry, Patricia; Iacob, Eli; Donaldson, Gary</t>
-  </si>
-  <si>
-    <t>Huang, Yaoru; Kabir, Muhammad Ashad; Upadhyay, Umashankar; Dhar, Eshita; Uddin, Mohy; Syed-Abdul, Shabbir</t>
-  </si>
-  <si>
-    <t>Charles, Cécile; Bardet, Aurélie; Ibrahimi, Nusaïbah; Aromatario, Olivier; Cambon, Linda; Imbert, Alexis; Pons, Magali; Raynard, Bruno; Sauveplane, Dominique; Pouchepadass, Camille; Baudinet, Cédric; Lambotte, Olivier; Marabelle, Aurélien; Dauchy, Sarah</t>
+    <t>monitoring and tracking,decision support and guidance,emotional and social support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,12 +2183,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2326,35 +2255,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2392,98 +2302,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2503,936 +2368,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Distrubution of Year of Publication</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{098B3856-B220-409E-9EF1-066DA2F15132}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>year</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r">
-              <cx:binCount val="17"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:majorTickMarks type="in"/>
-        <cx:tickLabels/>
-        <cx:numFmt formatCode="General" sourceLinked="0"/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Chart 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564460C0-9076-F961-4B07-60CA624D7E48}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3302000" y="180975"/>
-              <a:ext cx="4584701" cy="2990850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Polly Wu" id="{3C6D2DE2-B12C-4F9B-A58C-692EDC0036ED}" userId="" providerId=""/>
 </personList>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Polly Wu" refreshedDate="45603.513061342594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{581DEC49-8BBF-40EC-9DC0-536C976C773C}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:A31" sheet="Graphics"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="year" numFmtId="49">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2007" maxValue="2024" count="12">
-        <n v="2023"/>
-        <n v="2024"/>
-        <n v="2019"/>
-        <n v="2016"/>
-        <n v="2014"/>
-        <n v="2022"/>
-        <n v="2021"/>
-        <n v="2020"/>
-        <n v="2017"/>
-        <n v="2007"/>
-        <n v="2013"/>
-        <n v="2018"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50D8823-D66D-486C-A66C-0129AAC9EB4E}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C1:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" numFmtId="49" showAll="0">
-      <items count="13">
-        <item x="9"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of year" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}" name="Table2" displayName="Table2" ref="A1:W296" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}" name="Table2" displayName="Table2" ref="A1:W296" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:W296" xr:uid="{828B0BCE-3BFA-4916-81DC-E50F5CA6D7E6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W296">
-    <sortCondition ref="A1:A296"/>
-  </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{3FCD09ED-4669-4B6A-AA10-CA8EEB1F9114}" name="ID"/>
     <tableColumn id="2" xr3:uid="{B8D395BC-0555-4334-8BD5-E7B1A7D165F3}" name="Title"/>
@@ -3456,7 +2400,7 @@
     <tableColumn id="19" xr3:uid="{8B84A5D3-9DCE-4871-90CA-1DD0D90F52D7}" name="Type of technology"/>
     <tableColumn id="20" xr3:uid="{34E7EDFD-1BFA-43F5-B61D-18E006ED9704}" name="Commercial tool/designed specifically for the study"/>
     <tableColumn id="21" xr3:uid="{B5245091-B058-4F26-8C74-3E9015B44D02}" name="Cost of the tool"/>
-    <tableColumn id="23" xr3:uid="{E99EDE86-329A-45B5-90A4-1BFAFD80C35D}" name="Theme"/>
+    <tableColumn id="23" xr3:uid="{E99EDE86-329A-45B5-90A4-1BFAFD80C35D}" name="Theme" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3764,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH1048576"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3774,37 +2718,37 @@
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="53.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" customWidth="1"/>
-    <col min="10" max="10" width="25.26953125" customWidth="1"/>
-    <col min="11" max="11" width="46.7265625" customWidth="1"/>
-    <col min="12" max="12" width="22.08984375" customWidth="1"/>
-    <col min="13" max="13" width="34" customWidth="1"/>
-    <col min="14" max="14" width="25.54296875" customWidth="1"/>
-    <col min="15" max="16" width="26.81640625" customWidth="1"/>
-    <col min="17" max="17" width="46.54296875" customWidth="1"/>
-    <col min="18" max="18" width="46.7265625" customWidth="1"/>
-    <col min="19" max="19" width="32.08984375" customWidth="1"/>
-    <col min="20" max="20" width="18.6328125" customWidth="1"/>
-    <col min="21" max="21" width="45.453125" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" customWidth="1"/>
-    <col min="23" max="23" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="34" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="26.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="46.54296875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6328125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="45.453125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="41.54296875" style="13" customWidth="1"/>
     <col min="24" max="24" width="55.1796875" customWidth="1"/>
     <col min="25" max="26" width="38.36328125" customWidth="1"/>
     <col min="27" max="27" width="34.54296875" customWidth="1"/>
     <col min="28" max="28" width="49.26953125" customWidth="1"/>
     <col min="29" max="29" width="59.1796875" customWidth="1"/>
     <col min="31" max="31" width="14.453125" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="32" max="32" width="46.08984375" customWidth="1"/>
     <col min="34" max="34" width="67.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3837,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -3849,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
@@ -3869,8 +2813,8 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="21" t="s">
-        <v>578</v>
+      <c r="W1" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>21</v>
@@ -3879,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>23</v>
@@ -3887,26 +2831,26 @@
       <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="21" t="s">
-        <v>609</v>
+      <c r="AC1" s="10" t="s">
+        <v>587</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>602</v>
+        <v>548</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>584</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3926,10 +2870,10 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -3950,10 +2894,10 @@
         <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="P2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q2" t="s">
         <v>35</v>
@@ -3973,8 +2917,8 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>560</v>
+      <c r="W2" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -3983,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="AA2" t="s">
         <v>43</v>
@@ -3991,23 +2935,23 @@
       <c r="AB2" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="20" t="s">
-        <v>514</v>
+      <c r="AC2" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD2">
         <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>587</v>
+        <v>539</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>569</v>
       </c>
       <c r="AH2" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4030,10 +2974,10 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -4057,7 +3001,7 @@
         <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q3" t="s">
         <v>40</v>
@@ -4077,8 +3021,8 @@
       <c r="V3" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="20" t="s">
-        <v>561</v>
+      <c r="W3" s="12" t="s">
+        <v>552</v>
       </c>
       <c r="X3" t="s">
         <v>58</v>
@@ -4087,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="AA3" t="s">
         <v>60</v>
@@ -4095,8 +3039,8 @@
       <c r="AB3" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="20" t="s">
-        <v>579</v>
+      <c r="AC3" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD3">
         <v>1.5</v>
@@ -4104,17 +3048,17 @@
       <c r="AE3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>588</v>
+      <c r="AF3" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="AH3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4137,7 +3081,7 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -4155,13 +3099,13 @@
         <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="O4" t="s">
         <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q4" t="s">
         <v>71</v>
@@ -4181,8 +3125,8 @@
       <c r="V4" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="20" t="s">
-        <v>562</v>
+      <c r="W4" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="X4" t="s">
         <v>73</v>
@@ -4199,8 +3143,8 @@
       <c r="AB4" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="20" t="s">
-        <v>579</v>
+      <c r="AC4" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD4">
         <v>3</v>
@@ -4208,14 +3152,14 @@
       <c r="AE4" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>589</v>
+      <c r="AF4" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="AH4" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4229,37 +3173,37 @@
         <v>2016</v>
       </c>
       <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" t="s">
         <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>521</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
       </c>
       <c r="I5" t="s">
         <v>40</v>
       </c>
       <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="K5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" t="s">
         <v>89</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -4271,13 +3215,13 @@
         <v>40</v>
       </c>
       <c r="R5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
         <v>97</v>
-      </c>
-      <c r="S5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" t="s">
-        <v>98</v>
       </c>
       <c r="U5" t="s">
         <v>39</v>
@@ -4285,207 +3229,207 @@
       <c r="V5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="20" t="s">
-        <v>563</v>
+      <c r="W5" s="12" t="s">
+        <v>638</v>
       </c>
       <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB5" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>628</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>579</v>
+      <c r="AC5" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF5" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG5" s="20" t="s">
-        <v>590</v>
+        <v>540</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>572</v>
       </c>
       <c r="AH5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
         <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
         <v>126</v>
       </c>
-      <c r="N6" t="s">
-        <v>127</v>
-      </c>
       <c r="O6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" t="s">
         <v>128</v>
       </c>
-      <c r="S6" t="s">
-        <v>129</v>
-      </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="V6" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="20" t="s">
-        <v>564</v>
+      <c r="W6" s="12" t="s">
+        <v>635</v>
       </c>
       <c r="X6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="AA6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" t="s">
         <v>130</v>
       </c>
-      <c r="AB6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>515</v>
+      <c r="AC6" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>551</v>
-      </c>
-      <c r="AF6" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG6" s="20" t="s">
-        <v>591</v>
+        <v>541</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="AH6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>133</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>520</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
         <v>134</v>
       </c>
-      <c r="G7" t="s">
-        <v>522</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s">
-        <v>530</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" t="s">
-        <v>109</v>
-      </c>
       <c r="M7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q7" t="s">
         <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U7" t="s">
         <v>39</v>
@@ -4493,103 +3437,103 @@
       <c r="V7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="20" t="s">
-        <v>565</v>
+      <c r="W7" s="12" t="s">
+        <v>553</v>
       </c>
       <c r="X7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7" t="s">
         <v>140</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA7" t="s">
         <v>141</v>
       </c>
-      <c r="Z7" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>142</v>
       </c>
-      <c r="AB7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>515</v>
+      <c r="AC7" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD7">
         <v>30</v>
       </c>
       <c r="AE7" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>592</v>
+        <v>542</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>574</v>
       </c>
       <c r="AH7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>509</v>
+      </c>
+      <c r="I8" t="s">
+        <v>519</v>
+      </c>
+      <c r="J8" t="s">
         <v>144</v>
-      </c>
-      <c r="H8" t="s">
-        <v>519</v>
-      </c>
-      <c r="I8" t="s">
-        <v>529</v>
-      </c>
-      <c r="J8" t="s">
-        <v>145</v>
       </c>
       <c r="K8" t="s">
         <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q8" t="s">
         <v>40</v>
       </c>
       <c r="R8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" t="s">
         <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>114</v>
-      </c>
-      <c r="T8" t="s">
-        <v>148</v>
       </c>
       <c r="U8" t="s">
         <v>39</v>
@@ -4597,41 +3541,41 @@
       <c r="V8" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="20" t="s">
-        <v>561</v>
+      <c r="W8" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="X8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" t="s">
         <v>149</v>
       </c>
-      <c r="Z8" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>516</v>
+      <c r="AC8" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="AD8">
         <v>4</v>
       </c>
       <c r="AE8" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF8" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>588</v>
+        <v>543</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="AH8" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4645,37 +3589,37 @@
         <v>2020</v>
       </c>
       <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
         <v>164</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>165</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
         <v>166</v>
       </c>
-      <c r="G9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" t="s">
         <v>173</v>
-      </c>
-      <c r="J9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" t="s">
-        <v>174</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -4684,102 +3628,102 @@
         <v>40</v>
       </c>
       <c r="Q9" t="s">
+        <v>174</v>
+      </c>
+      <c r="R9" t="s">
         <v>175</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" t="s">
         <v>176</v>
       </c>
-      <c r="S9" t="s">
-        <v>182</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>549</v>
+      </c>
+      <c r="V9" t="s">
         <v>177</v>
       </c>
-      <c r="U9" t="s">
-        <v>559</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="X9" t="s">
         <v>178</v>
       </c>
-      <c r="W9" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA9" t="s">
         <v>179</v>
       </c>
-      <c r="Y9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>180</v>
       </c>
-      <c r="AB9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>514</v>
+      <c r="AC9" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>593</v>
+        <v>540</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>575</v>
       </c>
       <c r="AH9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" t="s">
         <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" t="s">
-        <v>154</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
@@ -4791,55 +3735,55 @@
         <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U10" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="V10" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="20" t="s">
-        <v>567</v>
+      <c r="W10" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="X10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB10" t="s">
         <v>162</v>
       </c>
-      <c r="Y10" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC10" s="20" t="s">
-        <v>514</v>
+      <c r="AC10" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD10">
         <v>6</v>
       </c>
       <c r="AE10" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF10" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG10" s="20" t="s">
-        <v>594</v>
+        <v>539</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>576</v>
       </c>
       <c r="AH10" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4853,37 +3797,37 @@
         <v>2007</v>
       </c>
       <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
         <v>184</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>185</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I11" t="s">
+        <v>522</v>
+      </c>
+      <c r="J11" t="s">
+        <v>521</v>
+      </c>
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" t="s">
         <v>186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" t="s">
-        <v>460</v>
-      </c>
-      <c r="I11" t="s">
-        <v>532</v>
-      </c>
-      <c r="J11" t="s">
-        <v>531</v>
-      </c>
-      <c r="K11" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" t="s">
-        <v>194</v>
-      </c>
-      <c r="N11" t="s">
-        <v>187</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
@@ -4895,25 +3839,25 @@
         <v>40</v>
       </c>
       <c r="R11" t="s">
+        <v>191</v>
+      </c>
+      <c r="S11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" t="s">
         <v>192</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
+        <v>549</v>
+      </c>
+      <c r="V11" t="s">
         <v>188</v>
       </c>
-      <c r="T11" t="s">
-        <v>193</v>
-      </c>
-      <c r="U11" t="s">
-        <v>559</v>
-      </c>
-      <c r="V11" t="s">
-        <v>189</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>568</v>
+      <c r="W11" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="X11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y11" t="s">
         <v>40</v>
@@ -4922,13 +3866,13 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB11" t="s">
         <v>196</v>
       </c>
-      <c r="AB11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>517</v>
+      <c r="AC11" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -4936,180 +3880,180 @@
       <c r="AE11" t="s">
         <v>55</v>
       </c>
-      <c r="AF11" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>595</v>
+      <c r="AF11" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="AH11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12">
         <v>2013</v>
       </c>
       <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
         <v>199</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" t="s">
         <v>201</v>
       </c>
-      <c r="G12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" t="s">
-        <v>519</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>202</v>
-      </c>
-      <c r="J12" t="s">
-        <v>203</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N12" t="s">
         <v>207</v>
       </c>
-      <c r="N12" t="s">
-        <v>208</v>
-      </c>
       <c r="O12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
       <c r="R12" t="s">
+        <v>208</v>
+      </c>
+      <c r="S12" t="s">
+        <v>203</v>
+      </c>
+      <c r="T12" t="s">
         <v>209</v>
-      </c>
-      <c r="S12" t="s">
-        <v>204</v>
-      </c>
-      <c r="T12" t="s">
-        <v>210</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12" t="s">
+        <v>210</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="X12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB12" t="s">
         <v>211</v>
       </c>
-      <c r="W12" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="X12" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>515</v>
+      <c r="AC12" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD12">
         <v>25</v>
       </c>
       <c r="AE12" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>596</v>
+        <v>544</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="AH12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>2024</v>
       </c>
       <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
         <v>217</v>
       </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s">
         <v>219</v>
-      </c>
-      <c r="J13" t="s">
-        <v>220</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O13" t="s">
+        <v>442</v>
+      </c>
+      <c r="P13" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" t="s">
         <v>221</v>
       </c>
-      <c r="N13" t="s">
-        <v>226</v>
-      </c>
-      <c r="O13" t="s">
-        <v>448</v>
-      </c>
-      <c r="P13" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>227</v>
-      </c>
-      <c r="R13" t="s">
-        <v>228</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>222</v>
-      </c>
-      <c r="T13" t="s">
-        <v>223</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
@@ -5117,26 +4061,26 @@
       <c r="V13" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="20" t="s">
-        <v>561</v>
+      <c r="W13" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="X13" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA13" t="s">
         <v>229</v>
       </c>
-      <c r="Y13" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>230</v>
       </c>
-      <c r="AB13" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>514</v>
+      <c r="AC13" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD13">
         <v>6</v>
@@ -5144,58 +4088,58 @@
       <c r="AE13" t="s">
         <v>55</v>
       </c>
-      <c r="AF13" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>595</v>
+      <c r="AF13" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="AH13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" t="s">
         <v>233</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>234</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" t="s">
+        <v>454</v>
+      </c>
+      <c r="I14" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" t="s">
         <v>235</v>
-      </c>
-      <c r="G14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" t="s">
-        <v>460</v>
-      </c>
-      <c r="I14" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" t="s">
-        <v>236</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
@@ -5210,7 +4154,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T14" t="s">
         <v>57</v>
@@ -5219,105 +4163,105 @@
         <v>39</v>
       </c>
       <c r="V14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X14" t="s">
         <v>242</v>
       </c>
-      <c r="W14" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>244</v>
-      </c>
       <c r="AB14" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>516</v>
+        <v>238</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF14" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG14" s="20" t="s">
-        <v>597</v>
+        <v>544</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>579</v>
       </c>
       <c r="AH14" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" t="s">
         <v>248</v>
       </c>
-      <c r="E15" t="s">
-        <v>249</v>
-      </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K15" t="s">
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
+        <v>249</v>
+      </c>
+      <c r="N15" t="s">
         <v>250</v>
       </c>
-      <c r="N15" t="s">
-        <v>251</v>
-      </c>
       <c r="O15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P15" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T15" t="s">
         <v>252</v>
-      </c>
-      <c r="T15" t="s">
-        <v>253</v>
       </c>
       <c r="U15" t="s">
         <v>39</v>
@@ -5325,44 +4269,44 @@
       <c r="V15" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="20" t="s">
-        <v>561</v>
+      <c r="W15" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="X15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y15" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB15" t="s">
         <v>260</v>
       </c>
-      <c r="Z15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>579</v>
+      <c r="AC15" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD15">
         <v>18</v>
       </c>
       <c r="AE15" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>588</v>
+        <v>539</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="AH15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5373,82 +4317,82 @@
         <v>2024</v>
       </c>
       <c r="D16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
         <v>262</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" t="s">
         <v>271</v>
-      </c>
-      <c r="F16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" t="s">
-        <v>523</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>534</v>
-      </c>
-      <c r="J16" t="s">
-        <v>272</v>
       </c>
       <c r="K16" t="s">
         <v>40</v>
       </c>
       <c r="L16" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" t="s">
         <v>264</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>265</v>
       </c>
-      <c r="N16" t="s">
-        <v>266</v>
-      </c>
       <c r="O16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q16" t="s">
         <v>40</v>
       </c>
       <c r="R16" t="s">
+        <v>266</v>
+      </c>
+      <c r="S16" t="s">
         <v>267</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>268</v>
       </c>
-      <c r="T16" t="s">
-        <v>269</v>
-      </c>
       <c r="U16" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="V16" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="20" t="s">
-        <v>561</v>
+      <c r="W16" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="X16" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y16" t="s">
         <v>273</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA16" t="s">
         <v>274</v>
       </c>
-      <c r="Z16" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>275</v>
-      </c>
       <c r="AB16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>579</v>
+        <v>269</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD16">
         <v>15</v>
@@ -5456,76 +4400,76 @@
       <c r="AE16" t="s">
         <v>55</v>
       </c>
-      <c r="AF16" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG16" s="20" t="s">
-        <v>598</v>
+      <c r="AF16" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>580</v>
       </c>
       <c r="AH16" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17">
         <v>2014</v>
       </c>
       <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
         <v>277</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>514</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J17" t="s">
         <v>279</v>
       </c>
-      <c r="G17" t="s">
-        <v>524</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>532</v>
-      </c>
-      <c r="J17" t="s">
-        <v>280</v>
-      </c>
       <c r="K17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N17" t="s">
         <v>284</v>
       </c>
-      <c r="L17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s">
-        <v>286</v>
-      </c>
-      <c r="N17" t="s">
-        <v>285</v>
-      </c>
       <c r="O17" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P17" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Q17" t="s">
         <v>40</v>
       </c>
       <c r="R17" t="s">
+        <v>286</v>
+      </c>
+      <c r="S17" t="s">
+        <v>280</v>
+      </c>
+      <c r="T17" t="s">
         <v>287</v>
-      </c>
-      <c r="S17" t="s">
-        <v>281</v>
-      </c>
-      <c r="T17" t="s">
-        <v>288</v>
       </c>
       <c r="U17" t="s">
         <v>39</v>
@@ -5533,85 +4477,85 @@
       <c r="V17" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="20" t="s">
-        <v>570</v>
+      <c r="W17" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="X17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA17" t="s">
         <v>289</v>
       </c>
-      <c r="Y17" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>290</v>
-      </c>
       <c r="AB17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC17" s="20" t="s">
-        <v>515</v>
+        <v>282</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF17" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="AG17" s="20" t="s">
-        <v>591</v>
+        <v>544</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="AH17" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18">
         <v>2016</v>
       </c>
       <c r="D18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" t="s">
         <v>293</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>294</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>515</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>525</v>
+      </c>
+      <c r="J18" t="s">
         <v>295</v>
-      </c>
-      <c r="G18" t="s">
-        <v>525</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>535</v>
-      </c>
-      <c r="J18" t="s">
-        <v>296</v>
       </c>
       <c r="K18" t="s">
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -5623,13 +4567,13 @@
         <v>40</v>
       </c>
       <c r="R18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S18" t="s">
+        <v>297</v>
+      </c>
+      <c r="T18" t="s">
         <v>298</v>
-      </c>
-      <c r="T18" t="s">
-        <v>299</v>
       </c>
       <c r="U18" t="s">
         <v>39</v>
@@ -5637,41 +4581,41 @@
       <c r="V18" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="20" t="s">
-        <v>571</v>
+      <c r="W18" s="12" t="s">
+        <v>557</v>
       </c>
       <c r="X18" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB18" t="s">
         <v>300</v>
       </c>
-      <c r="Y18" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC18" s="20" t="s">
-        <v>515</v>
+      <c r="AC18" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD18">
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF18" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG18" s="20" t="s">
-        <v>595</v>
+        <v>540</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="AH18" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5679,43 +4623,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" t="s">
         <v>308</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>529</v>
+      </c>
+      <c r="J19" t="s">
         <v>326</v>
       </c>
-      <c r="F19" t="s">
+      <c r="K19" t="s">
+        <v>329</v>
+      </c>
+      <c r="L19" t="s">
         <v>309</v>
       </c>
-      <c r="G19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>539</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>327</v>
       </c>
-      <c r="K19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>310</v>
-      </c>
-      <c r="M19" t="s">
-        <v>328</v>
-      </c>
-      <c r="N19" t="s">
-        <v>311</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -5724,58 +4668,58 @@
         <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R19" t="s">
         <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U19" t="s">
         <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>282</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>572</v>
+        <v>281</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>636</v>
       </c>
       <c r="X19" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y19" t="s">
         <v>313</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA19" t="s">
         <v>314</v>
       </c>
-      <c r="Z19" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>315</v>
-      </c>
       <c r="AB19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>515</v>
+        <v>331</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG19" s="20" t="s">
-        <v>589</v>
+        <v>544</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="AH19" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5789,37 +4733,37 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" t="s">
         <v>338</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>339</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>516</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>526</v>
+      </c>
+      <c r="J20" t="s">
         <v>340</v>
-      </c>
-      <c r="G20" t="s">
-        <v>526</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>536</v>
-      </c>
-      <c r="J20" t="s">
-        <v>341</v>
       </c>
       <c r="K20" t="s">
         <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
@@ -5834,52 +4778,52 @@
         <v>40</v>
       </c>
       <c r="S20" t="s">
+        <v>342</v>
+      </c>
+      <c r="T20" t="s">
         <v>343</v>
-      </c>
-      <c r="T20" t="s">
-        <v>344</v>
       </c>
       <c r="U20" t="s">
         <v>39</v>
       </c>
       <c r="V20" t="s">
-        <v>183</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>561</v>
+        <v>182</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>636</v>
       </c>
       <c r="X20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z20" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="AA20" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB20" t="s">
         <v>345</v>
       </c>
-      <c r="AB20" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC20" s="20" t="s">
-        <v>514</v>
+      <c r="AC20" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD20">
         <v>14</v>
       </c>
       <c r="AE20" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF20" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG20" s="20" t="s">
-        <v>595</v>
+        <v>544</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="AH20" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5887,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" t="s">
         <v>317</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>318</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>454</v>
+      </c>
+      <c r="I21" t="s">
+        <v>528</v>
+      </c>
+      <c r="J21" t="s">
         <v>319</v>
-      </c>
-      <c r="G21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" t="s">
-        <v>460</v>
-      </c>
-      <c r="I21" t="s">
-        <v>538</v>
-      </c>
-      <c r="J21" t="s">
-        <v>320</v>
       </c>
       <c r="K21" t="s">
         <v>40</v>
       </c>
       <c r="L21" t="s">
+        <v>320</v>
+      </c>
+      <c r="M21" t="s">
+        <v>332</v>
+      </c>
+      <c r="N21" t="s">
         <v>321</v>
       </c>
-      <c r="M21" t="s">
-        <v>333</v>
-      </c>
-      <c r="N21" t="s">
-        <v>322</v>
-      </c>
       <c r="O21" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P21" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q21" t="s">
         <v>40</v>
@@ -5938,55 +4882,55 @@
         <v>40</v>
       </c>
       <c r="S21" t="s">
+        <v>322</v>
+      </c>
+      <c r="T21" t="s">
+        <v>333</v>
+      </c>
+      <c r="U21" t="s">
+        <v>549</v>
+      </c>
+      <c r="V21" t="s">
         <v>323</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="X21" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y21" t="s">
         <v>334</v>
       </c>
-      <c r="U21" t="s">
-        <v>559</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="Z21" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA21" t="s">
         <v>324</v>
       </c>
-      <c r="W21" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="AB21" t="s">
         <v>336</v>
       </c>
-      <c r="Y21" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC21" s="20" t="s">
-        <v>518</v>
+      <c r="AC21" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="AD21">
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF21" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG21" s="20" t="s">
-        <v>596</v>
+        <v>544</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="AH21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5997,55 +4941,55 @@
         <v>2017</v>
       </c>
       <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" t="s">
         <v>350</v>
       </c>
-      <c r="E22" t="s">
-        <v>351</v>
-      </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G22" t="s">
         <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="J22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K22" t="s">
         <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O22" t="s">
         <v>70</v>
       </c>
       <c r="P22" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q22" t="s">
         <v>40</v>
       </c>
       <c r="R22" t="s">
+        <v>356</v>
+      </c>
+      <c r="S22" t="s">
         <v>357</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>358</v>
-      </c>
-      <c r="T22" t="s">
-        <v>359</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
@@ -6053,88 +4997,76 @@
       <c r="V22" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="20" t="s">
-        <v>561</v>
+      <c r="W22" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="X22" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA22" t="s">
         <v>360</v>
       </c>
-      <c r="Y22" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC22" s="20" t="s">
-        <v>579</v>
+      <c r="AC22" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD22">
         <v>13</v>
       </c>
       <c r="AE22" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF22" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG22" s="20" t="s">
-        <v>599</v>
+        <v>545</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="AH22" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23">
-        <v>2017</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" t="s">
         <v>376</v>
-      </c>
-      <c r="E23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" t="s">
-        <v>378</v>
       </c>
       <c r="G23" t="s">
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K23" t="s">
         <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O23" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P23" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q23" t="s">
         <v>40</v>
@@ -6143,10 +5075,10 @@
         <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U23" t="s">
         <v>39</v>
@@ -6154,91 +5086,59 @@
       <c r="V23" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="X23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC23" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD23">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF23" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG23" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W23" s="12"/>
+      <c r="AC23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+    </row>
+    <row r="24" spans="1:34" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" t="s">
         <v>365</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" t="s">
         <v>366</v>
       </c>
-      <c r="G24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
         <v>367</v>
-      </c>
-      <c r="I24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" t="s">
-        <v>368</v>
       </c>
       <c r="K24" t="s">
         <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s">
+        <v>368</v>
+      </c>
+      <c r="N24" t="s">
         <v>369</v>
       </c>
-      <c r="N24" t="s">
-        <v>370</v>
-      </c>
       <c r="O24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
@@ -6247,10 +5147,10 @@
         <v>55</v>
       </c>
       <c r="S24" t="s">
+        <v>370</v>
+      </c>
+      <c r="T24" t="s">
         <v>371</v>
-      </c>
-      <c r="T24" t="s">
-        <v>372</v>
       </c>
       <c r="U24" t="s">
         <v>39</v>
@@ -6258,26 +5158,26 @@
       <c r="V24" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="20" t="s">
-        <v>573</v>
+      <c r="W24" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="X24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y24" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA24" t="s">
         <v>373</v>
       </c>
-      <c r="Z24" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>374</v>
       </c>
-      <c r="AB24" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC24" s="20" t="s">
-        <v>579</v>
+      <c r="AC24" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD24">
         <v>6</v>
@@ -6285,76 +5185,76 @@
       <c r="AE24" t="s">
         <v>55</v>
       </c>
-      <c r="AF24" s="20" t="s">
+      <c r="AF24" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG24" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="AG24" s="20" t="s">
-        <v>599</v>
-      </c>
       <c r="AH24" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J25" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K25" t="s">
         <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O25" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="P25" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q25" t="s">
         <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S25" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="U25" t="s">
         <v>39</v>
@@ -6362,41 +5262,41 @@
       <c r="V25" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="20" t="s">
-        <v>574</v>
+      <c r="W25" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="X25" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y25" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA25" t="s">
         <v>397</v>
       </c>
-      <c r="Z25" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>403</v>
-      </c>
       <c r="AB25" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC25" s="20" t="s">
-        <v>515</v>
+        <v>392</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="AD25">
         <v>4</v>
       </c>
       <c r="AE25" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF25" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG25" s="20" t="s">
-        <v>587</v>
+        <v>539</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>569</v>
       </c>
       <c r="AH25" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6404,103 +5304,103 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C26">
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G26" t="s">
         <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K26" t="s">
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M26" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N26" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O26" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P26" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q26" t="s">
         <v>40</v>
       </c>
       <c r="R26" t="s">
+        <v>402</v>
+      </c>
+      <c r="S26" t="s">
+        <v>407</v>
+      </c>
+      <c r="T26" t="s">
         <v>408</v>
       </c>
-      <c r="S26" t="s">
-        <v>413</v>
-      </c>
-      <c r="T26" t="s">
-        <v>414</v>
-      </c>
       <c r="U26" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="V26" t="s">
-        <v>183</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>575</v>
+        <v>182</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="X26" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Y26" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Z26" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="AA26" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AB26" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC26" s="20" t="s">
-        <v>514</v>
+        <v>410</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD26">
         <v>3</v>
       </c>
       <c r="AE26" t="s">
-        <v>556</v>
-      </c>
-      <c r="AF26" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG26" s="20" t="s">
-        <v>594</v>
+        <v>546</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>576</v>
       </c>
       <c r="AH26" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6508,88 +5408,88 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N27" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q27" t="s">
         <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="S27" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="T27" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="U27" t="s">
         <v>39</v>
       </c>
       <c r="V27" t="s">
-        <v>183</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>561</v>
+        <v>182</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="X27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Y27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Z27" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="AA27" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AB27" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC27" s="20" t="s">
-        <v>514</v>
+        <v>432</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AD27">
         <v>6</v>
@@ -6597,88 +5497,88 @@
       <c r="AE27" t="s">
         <v>55</v>
       </c>
-      <c r="AF27" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG27" s="20" t="s">
-        <v>596</v>
+      <c r="AF27" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="AH27" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C28">
         <v>2023</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J28" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N28" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O28" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P28" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q28" t="s">
         <v>40</v>
       </c>
       <c r="R28" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="S28" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T28" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>183</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>576</v>
+        <v>182</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>637</v>
       </c>
       <c r="X28" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Y28" t="s">
         <v>40</v>
@@ -6687,28 +5587,28 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AB28" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC28" s="20" t="s">
-        <v>579</v>
+        <v>446</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>603</v>
-      </c>
-      <c r="AF28" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG28" s="20" t="s">
-        <v>600</v>
+        <v>585</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>582</v>
       </c>
       <c r="AH28" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6716,100 +5616,100 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H29" t="s">
         <v>454</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
+        <v>532</v>
+      </c>
+      <c r="J29" t="s">
         <v>455</v>
-      </c>
-      <c r="F29" t="s">
-        <v>456</v>
-      </c>
-      <c r="G29" t="s">
-        <v>459</v>
-      </c>
-      <c r="H29" t="s">
-        <v>460</v>
-      </c>
-      <c r="I29" t="s">
-        <v>542</v>
-      </c>
-      <c r="J29" t="s">
-        <v>461</v>
       </c>
       <c r="K29" t="s">
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M29" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N29" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="O29" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P29" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q29" t="s">
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="S29" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="T29" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="U29" t="s">
         <v>39</v>
       </c>
       <c r="V29" t="s">
+        <v>457</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="X29" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y29" t="s">
         <v>463</v>
       </c>
-      <c r="W29" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="X29" t="s">
-        <v>467</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>469</v>
-      </c>
       <c r="Z29" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="AA29" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AB29" t="s">
-        <v>470</v>
-      </c>
-      <c r="AC29" s="20" t="s">
-        <v>518</v>
+        <v>464</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="AE29" t="s">
-        <v>603</v>
-      </c>
-      <c r="AF29" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG29" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="AG29" s="20" t="s">
-        <v>599</v>
-      </c>
       <c r="AH29" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6817,1411 +5717,1411 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C30">
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E30" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G30" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J30" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K30" t="s">
         <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="N30" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="O30" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P30" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q30" t="s">
         <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="S30" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T30" t="s">
+        <v>469</v>
+      </c>
+      <c r="U30" t="s">
+        <v>549</v>
+      </c>
+      <c r="V30" t="s">
+        <v>182</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="X30" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA30" t="s">
         <v>475</v>
       </c>
-      <c r="U30" t="s">
-        <v>559</v>
-      </c>
-      <c r="V30" t="s">
-        <v>183</v>
-      </c>
-      <c r="W30" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="X30" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>481</v>
-      </c>
       <c r="AB30" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC30" s="20" t="s">
-        <v>514</v>
+        <v>477</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="AE30" t="s">
-        <v>557</v>
-      </c>
-      <c r="AF30" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG30" s="20" t="s">
-        <v>601</v>
+        <v>547</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="AH30" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
+      <c r="W31" s="12"/>
+      <c r="AC31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
     </row>
     <row r="32" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
+      <c r="W32" s="12"/>
+      <c r="AC32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
     </row>
     <row r="33" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
+      <c r="W33" s="12"/>
+      <c r="AC33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
     </row>
     <row r="34" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
+      <c r="W34" s="12"/>
+      <c r="AC34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
     </row>
     <row r="35" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
+      <c r="W35" s="12"/>
+      <c r="AC35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
+      <c r="W36" s="12"/>
+      <c r="AC36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
     </row>
     <row r="37" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
+      <c r="W37" s="12"/>
+      <c r="AC37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
     </row>
     <row r="38" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
+      <c r="W38" s="12"/>
+      <c r="AC38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
     </row>
     <row r="39" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
+      <c r="W39" s="12"/>
+      <c r="AC39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
     </row>
     <row r="40" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
+      <c r="W40" s="12"/>
+      <c r="AC40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
     </row>
     <row r="41" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
+      <c r="W41" s="12"/>
+      <c r="AC41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
     </row>
     <row r="42" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
+      <c r="W42" s="12"/>
+      <c r="AC42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
     </row>
     <row r="43" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
+      <c r="W43" s="12"/>
+      <c r="AC43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
     </row>
     <row r="44" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
+      <c r="W44" s="12"/>
+      <c r="AC44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
     </row>
     <row r="45" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
+      <c r="W45" s="12"/>
+      <c r="AC45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
     </row>
     <row r="46" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
+      <c r="W46" s="12"/>
+      <c r="AC46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
     </row>
     <row r="47" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
+      <c r="W47" s="12"/>
+      <c r="AC47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
     </row>
     <row r="48" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
+      <c r="W48" s="12"/>
+      <c r="AC48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
     </row>
     <row r="49" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
+      <c r="W49" s="12"/>
+      <c r="AC49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
     </row>
     <row r="50" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
+      <c r="W50" s="12"/>
+      <c r="AC50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
     </row>
     <row r="51" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
+      <c r="W51" s="12"/>
+      <c r="AC51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
     </row>
     <row r="52" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
+      <c r="W52" s="12"/>
+      <c r="AC52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
     </row>
     <row r="53" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
+      <c r="W53" s="12"/>
+      <c r="AC53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
     </row>
     <row r="54" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
+      <c r="W54" s="12"/>
+      <c r="AC54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
     </row>
     <row r="55" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W55" s="20"/>
-      <c r="AC55" s="20"/>
-      <c r="AF55" s="20"/>
-      <c r="AG55" s="20"/>
+      <c r="W55" s="12"/>
+      <c r="AC55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
     </row>
     <row r="56" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W56" s="20"/>
-      <c r="AC56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
+      <c r="W56" s="12"/>
+      <c r="AC56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
     </row>
     <row r="57" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W57" s="20"/>
-      <c r="AC57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
+      <c r="W57" s="12"/>
+      <c r="AC57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
     </row>
     <row r="58" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W58" s="20"/>
-      <c r="AC58" s="20"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
+      <c r="W58" s="12"/>
+      <c r="AC58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
     </row>
     <row r="59" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
+      <c r="W59" s="12"/>
+      <c r="AC59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
     </row>
     <row r="60" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W60" s="20"/>
-      <c r="AC60" s="20"/>
-      <c r="AF60" s="20"/>
-      <c r="AG60" s="20"/>
+      <c r="W60" s="12"/>
+      <c r="AC60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
     </row>
     <row r="61" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W61" s="20"/>
-      <c r="AC61" s="20"/>
-      <c r="AF61" s="20"/>
-      <c r="AG61" s="20"/>
+      <c r="W61" s="12"/>
+      <c r="AC61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
     </row>
     <row r="62" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W62" s="20"/>
-      <c r="AC62" s="20"/>
-      <c r="AF62" s="20"/>
-      <c r="AG62" s="20"/>
+      <c r="W62" s="12"/>
+      <c r="AC62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
     </row>
     <row r="63" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W63" s="20"/>
-      <c r="AC63" s="20"/>
-      <c r="AF63" s="20"/>
-      <c r="AG63" s="20"/>
+      <c r="W63" s="12"/>
+      <c r="AC63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
     </row>
     <row r="64" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W64" s="20"/>
-      <c r="AC64" s="20"/>
-      <c r="AF64" s="20"/>
-      <c r="AG64" s="20"/>
+      <c r="W64" s="12"/>
+      <c r="AC64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
     </row>
     <row r="65" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W65" s="20"/>
-      <c r="AC65" s="20"/>
-      <c r="AF65" s="20"/>
-      <c r="AG65" s="20"/>
+      <c r="W65" s="12"/>
+      <c r="AC65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
     </row>
     <row r="66" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
+      <c r="W66" s="12"/>
+      <c r="AC66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
     </row>
     <row r="67" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W67" s="20"/>
-      <c r="AC67" s="20"/>
-      <c r="AF67" s="20"/>
-      <c r="AG67" s="20"/>
+      <c r="W67" s="12"/>
+      <c r="AC67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
     </row>
     <row r="68" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W68" s="20"/>
-      <c r="AC68" s="20"/>
-      <c r="AF68" s="20"/>
-      <c r="AG68" s="20"/>
+      <c r="W68" s="12"/>
+      <c r="AC68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
     </row>
     <row r="69" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W69" s="20"/>
-      <c r="AC69" s="20"/>
-      <c r="AF69" s="20"/>
-      <c r="AG69" s="20"/>
+      <c r="W69" s="12"/>
+      <c r="AC69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
     </row>
     <row r="70" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W70" s="20"/>
-      <c r="AC70" s="20"/>
-      <c r="AF70" s="20"/>
-      <c r="AG70" s="20"/>
+      <c r="W70" s="12"/>
+      <c r="AC70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
     </row>
     <row r="71" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W71" s="20"/>
-      <c r="AC71" s="20"/>
-      <c r="AF71" s="20"/>
-      <c r="AG71" s="20"/>
+      <c r="W71" s="12"/>
+      <c r="AC71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
     </row>
     <row r="72" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W72" s="20"/>
-      <c r="AC72" s="20"/>
-      <c r="AF72" s="20"/>
-      <c r="AG72" s="20"/>
+      <c r="W72" s="12"/>
+      <c r="AC72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
     </row>
     <row r="73" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W73" s="20"/>
-      <c r="AC73" s="20"/>
-      <c r="AF73" s="20"/>
-      <c r="AG73" s="20"/>
+      <c r="W73" s="12"/>
+      <c r="AC73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
     </row>
     <row r="74" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W74" s="20"/>
-      <c r="AC74" s="20"/>
-      <c r="AF74" s="20"/>
-      <c r="AG74" s="20"/>
+      <c r="W74" s="12"/>
+      <c r="AC74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
     </row>
     <row r="75" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W75" s="20"/>
-      <c r="AC75" s="20"/>
-      <c r="AF75" s="20"/>
-      <c r="AG75" s="20"/>
+      <c r="W75" s="12"/>
+      <c r="AC75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
     </row>
     <row r="76" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W76" s="20"/>
-      <c r="AC76" s="20"/>
-      <c r="AF76" s="20"/>
-      <c r="AG76" s="20"/>
+      <c r="W76" s="12"/>
+      <c r="AC76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
     </row>
     <row r="77" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W77" s="20"/>
-      <c r="AC77" s="20"/>
-      <c r="AF77" s="20"/>
-      <c r="AG77" s="20"/>
+      <c r="W77" s="12"/>
+      <c r="AC77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
     </row>
     <row r="78" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W78" s="20"/>
-      <c r="AC78" s="20"/>
-      <c r="AF78" s="20"/>
-      <c r="AG78" s="20"/>
+      <c r="W78" s="12"/>
+      <c r="AC78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
     </row>
     <row r="79" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W79" s="20"/>
-      <c r="AC79" s="20"/>
-      <c r="AF79" s="20"/>
-      <c r="AG79" s="20"/>
+      <c r="W79" s="12"/>
+      <c r="AC79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
     </row>
     <row r="80" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W80" s="20"/>
-      <c r="AC80" s="20"/>
-      <c r="AF80" s="20"/>
-      <c r="AG80" s="20"/>
+      <c r="W80" s="12"/>
+      <c r="AC80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
     </row>
     <row r="81" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W81" s="20"/>
-      <c r="AC81" s="20"/>
-      <c r="AF81" s="20"/>
-      <c r="AG81" s="20"/>
+      <c r="W81" s="12"/>
+      <c r="AC81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
     </row>
     <row r="82" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W82" s="20"/>
-      <c r="AC82" s="20"/>
-      <c r="AF82" s="20"/>
-      <c r="AG82" s="20"/>
+      <c r="W82" s="12"/>
+      <c r="AC82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
     </row>
     <row r="83" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W83" s="20"/>
-      <c r="AC83" s="20"/>
-      <c r="AF83" s="20"/>
-      <c r="AG83" s="20"/>
+      <c r="W83" s="12"/>
+      <c r="AC83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
     </row>
     <row r="84" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
+      <c r="W84" s="12"/>
+      <c r="AC84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
     </row>
     <row r="85" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W85" s="20"/>
-      <c r="AC85" s="20"/>
-      <c r="AF85" s="20"/>
-      <c r="AG85" s="20"/>
+      <c r="W85" s="12"/>
+      <c r="AC85" s="9"/>
+      <c r="AF85" s="9"/>
+      <c r="AG85" s="9"/>
     </row>
     <row r="86" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W86" s="20"/>
-      <c r="AC86" s="20"/>
-      <c r="AF86" s="20"/>
-      <c r="AG86" s="20"/>
+      <c r="W86" s="12"/>
+      <c r="AC86" s="9"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
     </row>
     <row r="87" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W87" s="20"/>
-      <c r="AC87" s="20"/>
-      <c r="AF87" s="20"/>
-      <c r="AG87" s="20"/>
+      <c r="W87" s="12"/>
+      <c r="AC87" s="9"/>
+      <c r="AF87" s="9"/>
+      <c r="AG87" s="9"/>
     </row>
     <row r="88" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W88" s="20"/>
-      <c r="AC88" s="20"/>
-      <c r="AF88" s="20"/>
-      <c r="AG88" s="20"/>
+      <c r="W88" s="12"/>
+      <c r="AC88" s="9"/>
+      <c r="AF88" s="9"/>
+      <c r="AG88" s="9"/>
     </row>
     <row r="89" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W89" s="20"/>
-      <c r="AC89" s="20"/>
-      <c r="AF89" s="20"/>
-      <c r="AG89" s="20"/>
+      <c r="W89" s="12"/>
+      <c r="AC89" s="9"/>
+      <c r="AF89" s="9"/>
+      <c r="AG89" s="9"/>
     </row>
     <row r="90" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W90" s="20"/>
-      <c r="AC90" s="20"/>
-      <c r="AF90" s="20"/>
-      <c r="AG90" s="20"/>
+      <c r="W90" s="12"/>
+      <c r="AC90" s="9"/>
+      <c r="AF90" s="9"/>
+      <c r="AG90" s="9"/>
     </row>
     <row r="91" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W91" s="20"/>
-      <c r="AC91" s="20"/>
-      <c r="AF91" s="20"/>
-      <c r="AG91" s="20"/>
+      <c r="W91" s="12"/>
+      <c r="AC91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
     </row>
     <row r="92" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W92" s="20"/>
-      <c r="AC92" s="20"/>
-      <c r="AF92" s="20"/>
-      <c r="AG92" s="20"/>
+      <c r="W92" s="12"/>
+      <c r="AC92" s="9"/>
+      <c r="AF92" s="9"/>
+      <c r="AG92" s="9"/>
     </row>
     <row r="93" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W93" s="20"/>
-      <c r="AC93" s="20"/>
-      <c r="AF93" s="20"/>
-      <c r="AG93" s="20"/>
+      <c r="W93" s="12"/>
+      <c r="AC93" s="9"/>
+      <c r="AF93" s="9"/>
+      <c r="AG93" s="9"/>
     </row>
     <row r="94" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W94" s="20"/>
-      <c r="AC94" s="20"/>
-      <c r="AF94" s="20"/>
-      <c r="AG94" s="20"/>
+      <c r="W94" s="12"/>
+      <c r="AC94" s="9"/>
+      <c r="AF94" s="9"/>
+      <c r="AG94" s="9"/>
     </row>
     <row r="95" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W95" s="20"/>
-      <c r="AC95" s="20"/>
-      <c r="AF95" s="20"/>
-      <c r="AG95" s="20"/>
+      <c r="W95" s="12"/>
+      <c r="AC95" s="9"/>
+      <c r="AF95" s="9"/>
+      <c r="AG95" s="9"/>
     </row>
     <row r="96" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W96" s="20"/>
-      <c r="AC96" s="20"/>
-      <c r="AF96" s="20"/>
-      <c r="AG96" s="20"/>
+      <c r="W96" s="12"/>
+      <c r="AC96" s="9"/>
+      <c r="AF96" s="9"/>
+      <c r="AG96" s="9"/>
     </row>
     <row r="97" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W97" s="20"/>
-      <c r="AC97" s="20"/>
-      <c r="AF97" s="20"/>
-      <c r="AG97" s="20"/>
+      <c r="W97" s="12"/>
+      <c r="AC97" s="9"/>
+      <c r="AF97" s="9"/>
+      <c r="AG97" s="9"/>
     </row>
     <row r="98" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W98" s="20"/>
-      <c r="AC98" s="20"/>
-      <c r="AF98" s="20"/>
-      <c r="AG98" s="20"/>
+      <c r="W98" s="12"/>
+      <c r="AC98" s="9"/>
+      <c r="AF98" s="9"/>
+      <c r="AG98" s="9"/>
     </row>
     <row r="99" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W99" s="20"/>
-      <c r="AC99" s="20"/>
-      <c r="AF99" s="20"/>
-      <c r="AG99" s="20"/>
+      <c r="W99" s="12"/>
+      <c r="AC99" s="9"/>
+      <c r="AF99" s="9"/>
+      <c r="AG99" s="9"/>
     </row>
     <row r="100" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W100" s="20"/>
-      <c r="AC100" s="20"/>
-      <c r="AF100" s="20"/>
-      <c r="AG100" s="20"/>
+      <c r="W100" s="12"/>
+      <c r="AC100" s="9"/>
+      <c r="AF100" s="9"/>
+      <c r="AG100" s="9"/>
     </row>
     <row r="101" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W101" s="20"/>
-      <c r="AC101" s="20"/>
-      <c r="AF101" s="20"/>
-      <c r="AG101" s="20"/>
+      <c r="W101" s="12"/>
+      <c r="AC101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
     </row>
     <row r="102" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W102" s="20"/>
-      <c r="AC102" s="20"/>
-      <c r="AF102" s="20"/>
-      <c r="AG102" s="20"/>
+      <c r="W102" s="12"/>
+      <c r="AC102" s="9"/>
+      <c r="AF102" s="9"/>
+      <c r="AG102" s="9"/>
     </row>
     <row r="103" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
+      <c r="W103" s="12"/>
+      <c r="AC103" s="9"/>
+      <c r="AF103" s="9"/>
+      <c r="AG103" s="9"/>
     </row>
     <row r="104" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W104" s="20"/>
-      <c r="AC104" s="20"/>
-      <c r="AF104" s="20"/>
-      <c r="AG104" s="20"/>
+      <c r="W104" s="12"/>
+      <c r="AC104" s="9"/>
+      <c r="AF104" s="9"/>
+      <c r="AG104" s="9"/>
     </row>
     <row r="105" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W105" s="20"/>
-      <c r="AC105" s="20"/>
-      <c r="AF105" s="20"/>
-      <c r="AG105" s="20"/>
+      <c r="W105" s="12"/>
+      <c r="AC105" s="9"/>
+      <c r="AF105" s="9"/>
+      <c r="AG105" s="9"/>
     </row>
     <row r="106" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W106" s="20"/>
-      <c r="AC106" s="20"/>
-      <c r="AF106" s="20"/>
-      <c r="AG106" s="20"/>
+      <c r="W106" s="12"/>
+      <c r="AC106" s="9"/>
+      <c r="AF106" s="9"/>
+      <c r="AG106" s="9"/>
     </row>
     <row r="107" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W107" s="20"/>
-      <c r="AC107" s="20"/>
-      <c r="AF107" s="20"/>
-      <c r="AG107" s="20"/>
+      <c r="W107" s="12"/>
+      <c r="AC107" s="9"/>
+      <c r="AF107" s="9"/>
+      <c r="AG107" s="9"/>
     </row>
     <row r="108" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W108" s="20"/>
-      <c r="AC108" s="20"/>
-      <c r="AF108" s="20"/>
-      <c r="AG108" s="20"/>
+      <c r="W108" s="12"/>
+      <c r="AC108" s="9"/>
+      <c r="AF108" s="9"/>
+      <c r="AG108" s="9"/>
     </row>
     <row r="109" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W109" s="20"/>
-      <c r="AC109" s="20"/>
-      <c r="AF109" s="20"/>
-      <c r="AG109" s="20"/>
+      <c r="W109" s="12"/>
+      <c r="AC109" s="9"/>
+      <c r="AF109" s="9"/>
+      <c r="AG109" s="9"/>
     </row>
     <row r="110" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W110" s="20"/>
-      <c r="AC110" s="20"/>
-      <c r="AF110" s="20"/>
-      <c r="AG110" s="20"/>
+      <c r="W110" s="12"/>
+      <c r="AC110" s="9"/>
+      <c r="AF110" s="9"/>
+      <c r="AG110" s="9"/>
     </row>
     <row r="111" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W111" s="20"/>
-      <c r="AC111" s="20"/>
-      <c r="AF111" s="20"/>
-      <c r="AG111" s="20"/>
+      <c r="W111" s="12"/>
+      <c r="AC111" s="9"/>
+      <c r="AF111" s="9"/>
+      <c r="AG111" s="9"/>
     </row>
     <row r="112" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W112" s="20"/>
-      <c r="AC112" s="20"/>
-      <c r="AF112" s="20"/>
-      <c r="AG112" s="20"/>
+      <c r="W112" s="12"/>
+      <c r="AC112" s="9"/>
+      <c r="AF112" s="9"/>
+      <c r="AG112" s="9"/>
     </row>
     <row r="113" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
+      <c r="W113" s="12"/>
+      <c r="AC113" s="9"/>
+      <c r="AF113" s="9"/>
+      <c r="AG113" s="9"/>
     </row>
     <row r="114" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W114" s="20"/>
-      <c r="AC114" s="20"/>
-      <c r="AF114" s="20"/>
-      <c r="AG114" s="20"/>
+      <c r="W114" s="12"/>
+      <c r="AC114" s="9"/>
+      <c r="AF114" s="9"/>
+      <c r="AG114" s="9"/>
     </row>
     <row r="115" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W115" s="20"/>
-      <c r="AC115" s="20"/>
-      <c r="AF115" s="20"/>
-      <c r="AG115" s="20"/>
+      <c r="W115" s="12"/>
+      <c r="AC115" s="9"/>
+      <c r="AF115" s="9"/>
+      <c r="AG115" s="9"/>
     </row>
     <row r="116" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W116" s="20"/>
-      <c r="AC116" s="20"/>
-      <c r="AF116" s="20"/>
-      <c r="AG116" s="20"/>
+      <c r="W116" s="12"/>
+      <c r="AC116" s="9"/>
+      <c r="AF116" s="9"/>
+      <c r="AG116" s="9"/>
     </row>
     <row r="117" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W117" s="20"/>
-      <c r="AC117" s="20"/>
-      <c r="AF117" s="20"/>
-      <c r="AG117" s="20"/>
+      <c r="W117" s="12"/>
+      <c r="AC117" s="9"/>
+      <c r="AF117" s="9"/>
+      <c r="AG117" s="9"/>
     </row>
     <row r="118" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W118" s="20"/>
-      <c r="AC118" s="20"/>
-      <c r="AF118" s="20"/>
-      <c r="AG118" s="20"/>
+      <c r="W118" s="12"/>
+      <c r="AC118" s="9"/>
+      <c r="AF118" s="9"/>
+      <c r="AG118" s="9"/>
     </row>
     <row r="119" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W119" s="20"/>
-      <c r="AC119" s="20"/>
-      <c r="AF119" s="20"/>
-      <c r="AG119" s="20"/>
+      <c r="W119" s="12"/>
+      <c r="AC119" s="9"/>
+      <c r="AF119" s="9"/>
+      <c r="AG119" s="9"/>
     </row>
     <row r="120" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W120" s="20"/>
-      <c r="AC120" s="20"/>
-      <c r="AF120" s="20"/>
-      <c r="AG120" s="20"/>
+      <c r="W120" s="12"/>
+      <c r="AC120" s="9"/>
+      <c r="AF120" s="9"/>
+      <c r="AG120" s="9"/>
     </row>
     <row r="121" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W121" s="20"/>
-      <c r="AC121" s="20"/>
-      <c r="AF121" s="20"/>
-      <c r="AG121" s="20"/>
+      <c r="W121" s="12"/>
+      <c r="AC121" s="9"/>
+      <c r="AF121" s="9"/>
+      <c r="AG121" s="9"/>
     </row>
     <row r="122" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
+      <c r="W122" s="12"/>
+      <c r="AC122" s="9"/>
+      <c r="AF122" s="9"/>
+      <c r="AG122" s="9"/>
     </row>
     <row r="123" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W123" s="20"/>
-      <c r="AC123" s="20"/>
-      <c r="AF123" s="20"/>
-      <c r="AG123" s="20"/>
+      <c r="W123" s="12"/>
+      <c r="AC123" s="9"/>
+      <c r="AF123" s="9"/>
+      <c r="AG123" s="9"/>
     </row>
     <row r="124" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W124" s="20"/>
-      <c r="AC124" s="20"/>
-      <c r="AF124" s="20"/>
-      <c r="AG124" s="20"/>
+      <c r="W124" s="12"/>
+      <c r="AC124" s="9"/>
+      <c r="AF124" s="9"/>
+      <c r="AG124" s="9"/>
     </row>
     <row r="125" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W125" s="20"/>
-      <c r="AC125" s="20"/>
-      <c r="AF125" s="20"/>
-      <c r="AG125" s="20"/>
+      <c r="W125" s="12"/>
+      <c r="AC125" s="9"/>
+      <c r="AF125" s="9"/>
+      <c r="AG125" s="9"/>
     </row>
     <row r="126" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W126" s="20"/>
-      <c r="AC126" s="20"/>
-      <c r="AF126" s="20"/>
-      <c r="AG126" s="20"/>
+      <c r="W126" s="12"/>
+      <c r="AC126" s="9"/>
+      <c r="AF126" s="9"/>
+      <c r="AG126" s="9"/>
     </row>
     <row r="127" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W127" s="20"/>
-      <c r="AC127" s="20"/>
-      <c r="AF127" s="20"/>
-      <c r="AG127" s="20"/>
+      <c r="W127" s="12"/>
+      <c r="AC127" s="9"/>
+      <c r="AF127" s="9"/>
+      <c r="AG127" s="9"/>
     </row>
     <row r="128" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W128" s="20"/>
-      <c r="AC128" s="20"/>
-      <c r="AF128" s="20"/>
-      <c r="AG128" s="20"/>
+      <c r="W128" s="12"/>
+      <c r="AC128" s="9"/>
+      <c r="AF128" s="9"/>
+      <c r="AG128" s="9"/>
     </row>
     <row r="129" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W129" s="20"/>
-      <c r="AC129" s="20"/>
-      <c r="AF129" s="20"/>
-      <c r="AG129" s="20"/>
+      <c r="W129" s="12"/>
+      <c r="AC129" s="9"/>
+      <c r="AF129" s="9"/>
+      <c r="AG129" s="9"/>
     </row>
     <row r="130" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W130" s="20"/>
-      <c r="AC130" s="20"/>
-      <c r="AF130" s="20"/>
-      <c r="AG130" s="20"/>
+      <c r="W130" s="12"/>
+      <c r="AC130" s="9"/>
+      <c r="AF130" s="9"/>
+      <c r="AG130" s="9"/>
     </row>
     <row r="131" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W131" s="20"/>
-      <c r="AC131" s="20"/>
-      <c r="AF131" s="20"/>
-      <c r="AG131" s="20"/>
+      <c r="W131" s="12"/>
+      <c r="AC131" s="9"/>
+      <c r="AF131" s="9"/>
+      <c r="AG131" s="9"/>
     </row>
     <row r="132" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W132" s="20"/>
-      <c r="AC132" s="20"/>
-      <c r="AF132" s="20"/>
-      <c r="AG132" s="20"/>
+      <c r="W132" s="12"/>
+      <c r="AC132" s="9"/>
+      <c r="AF132" s="9"/>
+      <c r="AG132" s="9"/>
     </row>
     <row r="133" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W133" s="20"/>
-      <c r="AC133" s="20"/>
-      <c r="AF133" s="20"/>
-      <c r="AG133" s="20"/>
+      <c r="W133" s="12"/>
+      <c r="AC133" s="9"/>
+      <c r="AF133" s="9"/>
+      <c r="AG133" s="9"/>
     </row>
     <row r="134" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W134" s="20"/>
-      <c r="AC134" s="20"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
+      <c r="W134" s="12"/>
+      <c r="AC134" s="9"/>
+      <c r="AF134" s="9"/>
+      <c r="AG134" s="9"/>
     </row>
     <row r="135" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W135" s="20"/>
-      <c r="AC135" s="20"/>
-      <c r="AF135" s="20"/>
-      <c r="AG135" s="20"/>
+      <c r="W135" s="12"/>
+      <c r="AC135" s="9"/>
+      <c r="AF135" s="9"/>
+      <c r="AG135" s="9"/>
     </row>
     <row r="136" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W136" s="20"/>
-      <c r="AC136" s="20"/>
-      <c r="AF136" s="20"/>
-      <c r="AG136" s="20"/>
+      <c r="W136" s="12"/>
+      <c r="AC136" s="9"/>
+      <c r="AF136" s="9"/>
+      <c r="AG136" s="9"/>
     </row>
     <row r="137" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W137" s="20"/>
-      <c r="AC137" s="20"/>
-      <c r="AF137" s="20"/>
-      <c r="AG137" s="20"/>
+      <c r="W137" s="12"/>
+      <c r="AC137" s="9"/>
+      <c r="AF137" s="9"/>
+      <c r="AG137" s="9"/>
     </row>
     <row r="138" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W138" s="20"/>
-      <c r="AC138" s="20"/>
-      <c r="AF138" s="20"/>
-      <c r="AG138" s="20"/>
+      <c r="W138" s="12"/>
+      <c r="AC138" s="9"/>
+      <c r="AF138" s="9"/>
+      <c r="AG138" s="9"/>
     </row>
     <row r="139" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W139" s="20"/>
-      <c r="AC139" s="20"/>
-      <c r="AF139" s="20"/>
-      <c r="AG139" s="20"/>
+      <c r="W139" s="12"/>
+      <c r="AC139" s="9"/>
+      <c r="AF139" s="9"/>
+      <c r="AG139" s="9"/>
     </row>
     <row r="140" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W140" s="20"/>
-      <c r="AC140" s="20"/>
-      <c r="AF140" s="20"/>
-      <c r="AG140" s="20"/>
+      <c r="W140" s="12"/>
+      <c r="AC140" s="9"/>
+      <c r="AF140" s="9"/>
+      <c r="AG140" s="9"/>
     </row>
     <row r="141" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W141" s="20"/>
-      <c r="AC141" s="20"/>
-      <c r="AF141" s="20"/>
-      <c r="AG141" s="20"/>
+      <c r="W141" s="12"/>
+      <c r="AC141" s="9"/>
+      <c r="AF141" s="9"/>
+      <c r="AG141" s="9"/>
     </row>
     <row r="142" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W142" s="20"/>
-      <c r="AC142" s="20"/>
-      <c r="AF142" s="20"/>
-      <c r="AG142" s="20"/>
+      <c r="W142" s="12"/>
+      <c r="AC142" s="9"/>
+      <c r="AF142" s="9"/>
+      <c r="AG142" s="9"/>
     </row>
     <row r="143" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W143" s="20"/>
-      <c r="AC143" s="20"/>
-      <c r="AF143" s="20"/>
-      <c r="AG143" s="20"/>
+      <c r="W143" s="12"/>
+      <c r="AC143" s="9"/>
+      <c r="AF143" s="9"/>
+      <c r="AG143" s="9"/>
     </row>
     <row r="144" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W144" s="20"/>
-      <c r="AC144" s="20"/>
-      <c r="AF144" s="20"/>
-      <c r="AG144" s="20"/>
+      <c r="W144" s="12"/>
+      <c r="AC144" s="9"/>
+      <c r="AF144" s="9"/>
+      <c r="AG144" s="9"/>
     </row>
     <row r="145" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W145" s="20"/>
-      <c r="AC145" s="20"/>
-      <c r="AF145" s="20"/>
-      <c r="AG145" s="20"/>
+      <c r="W145" s="12"/>
+      <c r="AC145" s="9"/>
+      <c r="AF145" s="9"/>
+      <c r="AG145" s="9"/>
     </row>
     <row r="146" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W146" s="20"/>
-      <c r="AC146" s="20"/>
-      <c r="AF146" s="20"/>
-      <c r="AG146" s="20"/>
+      <c r="W146" s="12"/>
+      <c r="AC146" s="9"/>
+      <c r="AF146" s="9"/>
+      <c r="AG146" s="9"/>
     </row>
     <row r="147" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W147" s="20"/>
-      <c r="AC147" s="20"/>
-      <c r="AF147" s="20"/>
-      <c r="AG147" s="20"/>
+      <c r="W147" s="12"/>
+      <c r="AC147" s="9"/>
+      <c r="AF147" s="9"/>
+      <c r="AG147" s="9"/>
     </row>
     <row r="148" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W148" s="20"/>
-      <c r="AC148" s="20"/>
-      <c r="AF148" s="20"/>
-      <c r="AG148" s="20"/>
+      <c r="W148" s="12"/>
+      <c r="AC148" s="9"/>
+      <c r="AF148" s="9"/>
+      <c r="AG148" s="9"/>
     </row>
     <row r="149" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W149" s="20"/>
-      <c r="AC149" s="20"/>
-      <c r="AF149" s="20"/>
-      <c r="AG149" s="20"/>
+      <c r="W149" s="12"/>
+      <c r="AC149" s="9"/>
+      <c r="AF149" s="9"/>
+      <c r="AG149" s="9"/>
     </row>
     <row r="150" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W150" s="20"/>
-      <c r="AC150" s="20"/>
-      <c r="AF150" s="20"/>
-      <c r="AG150" s="20"/>
+      <c r="W150" s="12"/>
+      <c r="AC150" s="9"/>
+      <c r="AF150" s="9"/>
+      <c r="AG150" s="9"/>
     </row>
     <row r="151" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W151" s="20"/>
-      <c r="AC151" s="20"/>
-      <c r="AF151" s="20"/>
-      <c r="AG151" s="20"/>
+      <c r="W151" s="12"/>
+      <c r="AC151" s="9"/>
+      <c r="AF151" s="9"/>
+      <c r="AG151" s="9"/>
     </row>
     <row r="152" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W152" s="20"/>
-      <c r="AC152" s="20"/>
-      <c r="AF152" s="20"/>
-      <c r="AG152" s="20"/>
+      <c r="W152" s="12"/>
+      <c r="AC152" s="9"/>
+      <c r="AF152" s="9"/>
+      <c r="AG152" s="9"/>
     </row>
     <row r="153" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W153" s="20"/>
-      <c r="AC153" s="20"/>
-      <c r="AF153" s="20"/>
-      <c r="AG153" s="20"/>
+      <c r="W153" s="12"/>
+      <c r="AC153" s="9"/>
+      <c r="AF153" s="9"/>
+      <c r="AG153" s="9"/>
     </row>
     <row r="154" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W154" s="20"/>
-      <c r="AC154" s="20"/>
-      <c r="AF154" s="20"/>
-      <c r="AG154" s="20"/>
+      <c r="W154" s="12"/>
+      <c r="AC154" s="9"/>
+      <c r="AF154" s="9"/>
+      <c r="AG154" s="9"/>
     </row>
     <row r="155" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W155" s="20"/>
-      <c r="AC155" s="20"/>
-      <c r="AF155" s="20"/>
-      <c r="AG155" s="20"/>
+      <c r="W155" s="12"/>
+      <c r="AC155" s="9"/>
+      <c r="AF155" s="9"/>
+      <c r="AG155" s="9"/>
     </row>
     <row r="156" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W156" s="20"/>
-      <c r="AC156" s="20"/>
-      <c r="AF156" s="20"/>
-      <c r="AG156" s="20"/>
+      <c r="W156" s="12"/>
+      <c r="AC156" s="9"/>
+      <c r="AF156" s="9"/>
+      <c r="AG156" s="9"/>
     </row>
     <row r="157" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W157" s="20"/>
-      <c r="AC157" s="20"/>
-      <c r="AF157" s="20"/>
-      <c r="AG157" s="20"/>
+      <c r="W157" s="12"/>
+      <c r="AC157" s="9"/>
+      <c r="AF157" s="9"/>
+      <c r="AG157" s="9"/>
     </row>
     <row r="158" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W158" s="20"/>
-      <c r="AC158" s="20"/>
-      <c r="AF158" s="20"/>
-      <c r="AG158" s="20"/>
+      <c r="W158" s="12"/>
+      <c r="AC158" s="9"/>
+      <c r="AF158" s="9"/>
+      <c r="AG158" s="9"/>
     </row>
     <row r="159" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W159" s="20"/>
-      <c r="AC159" s="20"/>
-      <c r="AF159" s="20"/>
-      <c r="AG159" s="20"/>
+      <c r="W159" s="12"/>
+      <c r="AC159" s="9"/>
+      <c r="AF159" s="9"/>
+      <c r="AG159" s="9"/>
     </row>
     <row r="160" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W160" s="20"/>
-      <c r="AC160" s="20"/>
-      <c r="AF160" s="20"/>
-      <c r="AG160" s="20"/>
+      <c r="W160" s="12"/>
+      <c r="AC160" s="9"/>
+      <c r="AF160" s="9"/>
+      <c r="AG160" s="9"/>
     </row>
     <row r="161" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W161" s="20"/>
-      <c r="AC161" s="20"/>
-      <c r="AF161" s="20"/>
-      <c r="AG161" s="20"/>
+      <c r="W161" s="12"/>
+      <c r="AC161" s="9"/>
+      <c r="AF161" s="9"/>
+      <c r="AG161" s="9"/>
     </row>
     <row r="162" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W162" s="20"/>
-      <c r="AC162" s="20"/>
-      <c r="AF162" s="20"/>
-      <c r="AG162" s="20"/>
+      <c r="W162" s="12"/>
+      <c r="AC162" s="9"/>
+      <c r="AF162" s="9"/>
+      <c r="AG162" s="9"/>
     </row>
     <row r="163" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W163" s="20"/>
-      <c r="AC163" s="20"/>
-      <c r="AF163" s="20"/>
-      <c r="AG163" s="20"/>
+      <c r="W163" s="12"/>
+      <c r="AC163" s="9"/>
+      <c r="AF163" s="9"/>
+      <c r="AG163" s="9"/>
     </row>
     <row r="164" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W164" s="20"/>
-      <c r="AC164" s="20"/>
-      <c r="AF164" s="20"/>
-      <c r="AG164" s="20"/>
+      <c r="W164" s="12"/>
+      <c r="AC164" s="9"/>
+      <c r="AF164" s="9"/>
+      <c r="AG164" s="9"/>
     </row>
     <row r="165" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W165" s="20"/>
-      <c r="AC165" s="20"/>
-      <c r="AF165" s="20"/>
-      <c r="AG165" s="20"/>
+      <c r="W165" s="12"/>
+      <c r="AC165" s="9"/>
+      <c r="AF165" s="9"/>
+      <c r="AG165" s="9"/>
     </row>
     <row r="166" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W166" s="20"/>
-      <c r="AC166" s="20"/>
-      <c r="AF166" s="20"/>
-      <c r="AG166" s="20"/>
+      <c r="W166" s="12"/>
+      <c r="AC166" s="9"/>
+      <c r="AF166" s="9"/>
+      <c r="AG166" s="9"/>
     </row>
     <row r="167" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W167" s="20"/>
-      <c r="AC167" s="20"/>
-      <c r="AF167" s="20"/>
-      <c r="AG167" s="20"/>
+      <c r="W167" s="12"/>
+      <c r="AC167" s="9"/>
+      <c r="AF167" s="9"/>
+      <c r="AG167" s="9"/>
     </row>
     <row r="168" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W168" s="20"/>
-      <c r="AC168" s="20"/>
-      <c r="AF168" s="20"/>
-      <c r="AG168" s="20"/>
+      <c r="W168" s="12"/>
+      <c r="AC168" s="9"/>
+      <c r="AF168" s="9"/>
+      <c r="AG168" s="9"/>
     </row>
     <row r="169" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AF169" s="20"/>
-      <c r="AG169" s="20"/>
+      <c r="W169" s="12"/>
+      <c r="AC169" s="9"/>
+      <c r="AF169" s="9"/>
+      <c r="AG169" s="9"/>
     </row>
     <row r="170" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W170" s="20"/>
-      <c r="AC170" s="20"/>
-      <c r="AF170" s="20"/>
-      <c r="AG170" s="20"/>
+      <c r="W170" s="12"/>
+      <c r="AC170" s="9"/>
+      <c r="AF170" s="9"/>
+      <c r="AG170" s="9"/>
     </row>
     <row r="171" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W171" s="20"/>
-      <c r="AC171" s="20"/>
-      <c r="AF171" s="20"/>
-      <c r="AG171" s="20"/>
+      <c r="W171" s="12"/>
+      <c r="AC171" s="9"/>
+      <c r="AF171" s="9"/>
+      <c r="AG171" s="9"/>
     </row>
     <row r="172" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AF172" s="20"/>
-      <c r="AG172" s="20"/>
+      <c r="W172" s="12"/>
+      <c r="AC172" s="9"/>
+      <c r="AF172" s="9"/>
+      <c r="AG172" s="9"/>
     </row>
     <row r="173" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W173" s="20"/>
-      <c r="AC173" s="20"/>
-      <c r="AF173" s="20"/>
-      <c r="AG173" s="20"/>
+      <c r="W173" s="12"/>
+      <c r="AC173" s="9"/>
+      <c r="AF173" s="9"/>
+      <c r="AG173" s="9"/>
     </row>
     <row r="174" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W174" s="20"/>
-      <c r="AC174" s="20"/>
-      <c r="AF174" s="20"/>
-      <c r="AG174" s="20"/>
+      <c r="W174" s="12"/>
+      <c r="AC174" s="9"/>
+      <c r="AF174" s="9"/>
+      <c r="AG174" s="9"/>
     </row>
     <row r="175" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W175" s="20"/>
-      <c r="AC175" s="20"/>
-      <c r="AF175" s="20"/>
-      <c r="AG175" s="20"/>
+      <c r="W175" s="12"/>
+      <c r="AC175" s="9"/>
+      <c r="AF175" s="9"/>
+      <c r="AG175" s="9"/>
     </row>
     <row r="176" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W176" s="20"/>
-      <c r="AC176" s="20"/>
-      <c r="AF176" s="20"/>
-      <c r="AG176" s="20"/>
+      <c r="W176" s="12"/>
+      <c r="AC176" s="9"/>
+      <c r="AF176" s="9"/>
+      <c r="AG176" s="9"/>
     </row>
     <row r="177" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W177" s="20"/>
-      <c r="AC177" s="20"/>
-      <c r="AF177" s="20"/>
-      <c r="AG177" s="20"/>
+      <c r="W177" s="12"/>
+      <c r="AC177" s="9"/>
+      <c r="AF177" s="9"/>
+      <c r="AG177" s="9"/>
     </row>
     <row r="178" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W178" s="20"/>
-      <c r="AC178" s="20"/>
-      <c r="AF178" s="20"/>
-      <c r="AG178" s="20"/>
+      <c r="W178" s="12"/>
+      <c r="AC178" s="9"/>
+      <c r="AF178" s="9"/>
+      <c r="AG178" s="9"/>
     </row>
     <row r="179" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W179" s="20"/>
-      <c r="AC179" s="20"/>
-      <c r="AF179" s="20"/>
-      <c r="AG179" s="20"/>
+      <c r="W179" s="12"/>
+      <c r="AC179" s="9"/>
+      <c r="AF179" s="9"/>
+      <c r="AG179" s="9"/>
     </row>
     <row r="180" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W180" s="20"/>
-      <c r="AC180" s="20"/>
-      <c r="AF180" s="20"/>
-      <c r="AG180" s="20"/>
+      <c r="W180" s="12"/>
+      <c r="AC180" s="9"/>
+      <c r="AF180" s="9"/>
+      <c r="AG180" s="9"/>
     </row>
     <row r="181" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W181" s="20"/>
-      <c r="AC181" s="20"/>
-      <c r="AF181" s="20"/>
-      <c r="AG181" s="20"/>
+      <c r="W181" s="12"/>
+      <c r="AC181" s="9"/>
+      <c r="AF181" s="9"/>
+      <c r="AG181" s="9"/>
     </row>
     <row r="182" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W182" s="20"/>
-      <c r="AC182" s="20"/>
-      <c r="AF182" s="20"/>
-      <c r="AG182" s="20"/>
+      <c r="W182" s="12"/>
+      <c r="AC182" s="9"/>
+      <c r="AF182" s="9"/>
+      <c r="AG182" s="9"/>
     </row>
     <row r="183" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W183" s="20"/>
-      <c r="AC183" s="20"/>
-      <c r="AF183" s="20"/>
-      <c r="AG183" s="20"/>
+      <c r="W183" s="12"/>
+      <c r="AC183" s="9"/>
+      <c r="AF183" s="9"/>
+      <c r="AG183" s="9"/>
     </row>
     <row r="184" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W184" s="20"/>
-      <c r="AC184" s="20"/>
-      <c r="AF184" s="20"/>
-      <c r="AG184" s="20"/>
+      <c r="W184" s="12"/>
+      <c r="AC184" s="9"/>
+      <c r="AF184" s="9"/>
+      <c r="AG184" s="9"/>
     </row>
     <row r="185" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W185" s="20"/>
-      <c r="AC185" s="20"/>
-      <c r="AF185" s="20"/>
-      <c r="AG185" s="20"/>
+      <c r="W185" s="12"/>
+      <c r="AC185" s="9"/>
+      <c r="AF185" s="9"/>
+      <c r="AG185" s="9"/>
     </row>
     <row r="186" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W186" s="20"/>
-      <c r="AC186" s="20"/>
-      <c r="AF186" s="20"/>
-      <c r="AG186" s="20"/>
+      <c r="W186" s="12"/>
+      <c r="AC186" s="9"/>
+      <c r="AF186" s="9"/>
+      <c r="AG186" s="9"/>
     </row>
     <row r="187" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W187" s="20"/>
-      <c r="AC187" s="20"/>
-      <c r="AF187" s="20"/>
-      <c r="AG187" s="20"/>
+      <c r="W187" s="12"/>
+      <c r="AC187" s="9"/>
+      <c r="AF187" s="9"/>
+      <c r="AG187" s="9"/>
     </row>
     <row r="188" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W188" s="20"/>
-      <c r="AC188" s="20"/>
-      <c r="AF188" s="20"/>
-      <c r="AG188" s="20"/>
+      <c r="W188" s="12"/>
+      <c r="AC188" s="9"/>
+      <c r="AF188" s="9"/>
+      <c r="AG188" s="9"/>
     </row>
     <row r="189" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W189" s="20"/>
-      <c r="AC189" s="20"/>
-      <c r="AF189" s="20"/>
-      <c r="AG189" s="20"/>
+      <c r="W189" s="12"/>
+      <c r="AC189" s="9"/>
+      <c r="AF189" s="9"/>
+      <c r="AG189" s="9"/>
     </row>
     <row r="190" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W190" s="20"/>
-      <c r="AC190" s="20"/>
-      <c r="AF190" s="20"/>
-      <c r="AG190" s="20"/>
+      <c r="W190" s="12"/>
+      <c r="AC190" s="9"/>
+      <c r="AF190" s="9"/>
+      <c r="AG190" s="9"/>
     </row>
     <row r="191" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W191" s="20"/>
-      <c r="AC191" s="20"/>
-      <c r="AF191" s="20"/>
-      <c r="AG191" s="20"/>
+      <c r="W191" s="12"/>
+      <c r="AC191" s="9"/>
+      <c r="AF191" s="9"/>
+      <c r="AG191" s="9"/>
     </row>
     <row r="192" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W192" s="20"/>
-      <c r="AC192" s="20"/>
-      <c r="AF192" s="20"/>
-      <c r="AG192" s="20"/>
+      <c r="W192" s="12"/>
+      <c r="AC192" s="9"/>
+      <c r="AF192" s="9"/>
+      <c r="AG192" s="9"/>
     </row>
     <row r="193" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W193" s="20"/>
-      <c r="AC193" s="20"/>
-      <c r="AF193" s="20"/>
-      <c r="AG193" s="20"/>
+      <c r="W193" s="12"/>
+      <c r="AC193" s="9"/>
+      <c r="AF193" s="9"/>
+      <c r="AG193" s="9"/>
     </row>
     <row r="194" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W194" s="20"/>
-      <c r="AC194" s="20"/>
-      <c r="AF194" s="20"/>
-      <c r="AG194" s="20"/>
+      <c r="W194" s="12"/>
+      <c r="AC194" s="9"/>
+      <c r="AF194" s="9"/>
+      <c r="AG194" s="9"/>
     </row>
     <row r="195" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W195" s="20"/>
-      <c r="AC195" s="20"/>
-      <c r="AF195" s="20"/>
-      <c r="AG195" s="20"/>
+      <c r="W195" s="12"/>
+      <c r="AC195" s="9"/>
+      <c r="AF195" s="9"/>
+      <c r="AG195" s="9"/>
     </row>
     <row r="196" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W196" s="20"/>
-      <c r="AC196" s="20"/>
-      <c r="AF196" s="20"/>
-      <c r="AG196" s="20"/>
+      <c r="W196" s="12"/>
+      <c r="AC196" s="9"/>
+      <c r="AF196" s="9"/>
+      <c r="AG196" s="9"/>
     </row>
     <row r="197" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W197" s="20"/>
-      <c r="AC197" s="20"/>
-      <c r="AF197" s="20"/>
-      <c r="AG197" s="20"/>
+      <c r="W197" s="12"/>
+      <c r="AC197" s="9"/>
+      <c r="AF197" s="9"/>
+      <c r="AG197" s="9"/>
     </row>
     <row r="198" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W198" s="20"/>
-      <c r="AC198" s="20"/>
-      <c r="AF198" s="20"/>
-      <c r="AG198" s="20"/>
+      <c r="W198" s="12"/>
+      <c r="AC198" s="9"/>
+      <c r="AF198" s="9"/>
+      <c r="AG198" s="9"/>
     </row>
     <row r="199" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W199" s="20"/>
-      <c r="AC199" s="20"/>
-      <c r="AF199" s="20"/>
-      <c r="AG199" s="20"/>
+      <c r="W199" s="12"/>
+      <c r="AC199" s="9"/>
+      <c r="AF199" s="9"/>
+      <c r="AG199" s="9"/>
     </row>
     <row r="200" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC200" s="20"/>
-      <c r="AF200" s="20"/>
-      <c r="AG200" s="20"/>
+      <c r="AC200" s="9"/>
+      <c r="AF200" s="9"/>
+      <c r="AG200" s="9"/>
     </row>
     <row r="201" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC201" s="20"/>
+      <c r="AC201" s="9"/>
     </row>
     <row r="202" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC202" s="20"/>
+      <c r="AC202" s="9"/>
     </row>
     <row r="203" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC203" s="20"/>
+      <c r="AC203" s="9"/>
     </row>
     <row r="204" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC204" s="20"/>
+      <c r="AC204" s="9"/>
     </row>
     <row r="205" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC205" s="20"/>
+      <c r="AC205" s="9"/>
     </row>
     <row r="206" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC206" s="20"/>
+      <c r="AC206" s="9"/>
     </row>
     <row r="207" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC207" s="20"/>
+      <c r="AC207" s="9"/>
     </row>
     <row r="208" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC208" s="20"/>
+      <c r="AC208" s="9"/>
     </row>
     <row r="209" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC209" s="20"/>
+      <c r="AC209" s="9"/>
     </row>
     <row r="210" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC210" s="20"/>
+      <c r="AC210" s="9"/>
     </row>
     <row r="211" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC211" s="20"/>
+      <c r="AC211" s="9"/>
     </row>
     <row r="212" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC212" s="20"/>
+      <c r="AC212" s="9"/>
     </row>
     <row r="213" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC213" s="20"/>
+      <c r="AC213" s="9"/>
     </row>
     <row r="214" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC214" s="20"/>
+      <c r="AC214" s="9"/>
     </row>
     <row r="215" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC215" s="20"/>
+      <c r="AC215" s="9"/>
     </row>
     <row r="216" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC216" s="20"/>
+      <c r="AC216" s="9"/>
     </row>
     <row r="217" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC217" s="20"/>
+      <c r="AC217" s="9"/>
     </row>
     <row r="218" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC218" s="20"/>
+      <c r="AC218" s="9"/>
     </row>
     <row r="219" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC219" s="20"/>
+      <c r="AC219" s="9"/>
     </row>
     <row r="220" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC220" s="20"/>
+      <c r="AC220" s="9"/>
     </row>
     <row r="221" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC221" s="20"/>
+      <c r="AC221" s="9"/>
     </row>
     <row r="222" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC222" s="20"/>
+      <c r="AC222" s="9"/>
     </row>
     <row r="223" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC223" s="20"/>
+      <c r="AC223" s="9"/>
     </row>
     <row r="224" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC224" s="20"/>
+      <c r="AC224" s="9"/>
     </row>
     <row r="225" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC225" s="20"/>
+      <c r="AC225" s="9"/>
     </row>
     <row r="226" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC226" s="20"/>
+      <c r="AC226" s="9"/>
     </row>
     <row r="227" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC227" s="20"/>
+      <c r="AC227" s="9"/>
     </row>
     <row r="228" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC228" s="20"/>
+      <c r="AC228" s="9"/>
     </row>
     <row r="229" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC229" s="20"/>
+      <c r="AC229" s="9"/>
     </row>
     <row r="230" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC230" s="20"/>
+      <c r="AC230" s="9"/>
     </row>
     <row r="231" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC231" s="20"/>
+      <c r="AC231" s="9"/>
     </row>
     <row r="232" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC232" s="20"/>
+      <c r="AC232" s="9"/>
     </row>
     <row r="233" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC233" s="20"/>
+      <c r="AC233" s="9"/>
     </row>
     <row r="234" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC234" s="20"/>
+      <c r="AC234" s="9"/>
     </row>
     <row r="235" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC235" s="20"/>
+      <c r="AC235" s="9"/>
     </row>
     <row r="236" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC236" s="20"/>
+      <c r="AC236" s="9"/>
     </row>
     <row r="237" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC237" s="20"/>
+      <c r="AC237" s="9"/>
     </row>
     <row r="238" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC238" s="20"/>
+      <c r="AC238" s="9"/>
     </row>
     <row r="239" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC239" s="20"/>
+      <c r="AC239" s="9"/>
     </row>
     <row r="240" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC240" s="20"/>
+      <c r="AC240" s="9"/>
     </row>
     <row r="241" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC241" s="20"/>
+      <c r="AC241" s="9"/>
     </row>
     <row r="242" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC242" s="20"/>
+      <c r="AC242" s="9"/>
     </row>
     <row r="243" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC243" s="20"/>
+      <c r="AC243" s="9"/>
     </row>
     <row r="244" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC244" s="20"/>
+      <c r="AC244" s="9"/>
     </row>
     <row r="245" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC245" s="20"/>
+      <c r="AC245" s="9"/>
     </row>
     <row r="246" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC246" s="20"/>
+      <c r="AC246" s="9"/>
     </row>
     <row r="247" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC247" s="20"/>
+      <c r="AC247" s="9"/>
     </row>
     <row r="248" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC248" s="20"/>
+      <c r="AC248" s="9"/>
     </row>
     <row r="249" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC249" s="20"/>
+      <c r="AC249" s="9"/>
     </row>
     <row r="250" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC250" s="20"/>
+      <c r="AC250" s="9"/>
     </row>
     <row r="251" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC251" s="20"/>
+      <c r="AC251" s="9"/>
     </row>
     <row r="252" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC252" s="20"/>
+      <c r="AC252" s="9"/>
     </row>
     <row r="253" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC253" s="20"/>
+      <c r="AC253" s="9"/>
     </row>
     <row r="254" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC254" s="20"/>
+      <c r="AC254" s="9"/>
     </row>
     <row r="255" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC255" s="20"/>
+      <c r="AC255" s="9"/>
     </row>
     <row r="256" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC256" s="20"/>
+      <c r="AC256" s="9"/>
     </row>
     <row r="257" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC257" s="20"/>
+      <c r="AC257" s="9"/>
     </row>
     <row r="258" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC258" s="20"/>
+      <c r="AC258" s="9"/>
     </row>
     <row r="259" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC259" s="20"/>
+      <c r="AC259" s="9"/>
     </row>
     <row r="260" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC260" s="20"/>
+      <c r="AC260" s="9"/>
     </row>
     <row r="261" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC261" s="20"/>
+      <c r="AC261" s="9"/>
     </row>
     <row r="262" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC262" s="20"/>
+      <c r="AC262" s="9"/>
     </row>
     <row r="263" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC263" s="20"/>
+      <c r="AC263" s="9"/>
     </row>
     <row r="264" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC264" s="20"/>
+      <c r="AC264" s="9"/>
     </row>
     <row r="265" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC265" s="20"/>
+      <c r="AC265" s="9"/>
     </row>
     <row r="266" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC266" s="20"/>
+      <c r="AC266" s="9"/>
     </row>
     <row r="267" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC267" s="20"/>
+      <c r="AC267" s="9"/>
     </row>
     <row r="268" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC268" s="20"/>
+      <c r="AC268" s="9"/>
     </row>
     <row r="269" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC269" s="20"/>
+      <c r="AC269" s="9"/>
     </row>
     <row r="270" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC270" s="20"/>
+      <c r="AC270" s="9"/>
     </row>
     <row r="271" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC271" s="20"/>
+      <c r="AC271" s="9"/>
     </row>
     <row r="272" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC272" s="20"/>
+      <c r="AC272" s="9"/>
     </row>
     <row r="273" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC273" s="20"/>
+      <c r="AC273" s="9"/>
     </row>
     <row r="274" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC274" s="20"/>
+      <c r="AC274" s="9"/>
     </row>
     <row r="275" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC275" s="20"/>
+      <c r="AC275" s="9"/>
     </row>
     <row r="276" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC276" s="20"/>
+      <c r="AC276" s="9"/>
     </row>
     <row r="277" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC277" s="20"/>
+      <c r="AC277" s="9"/>
     </row>
     <row r="278" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC278" s="20"/>
+      <c r="AC278" s="9"/>
     </row>
     <row r="279" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC279" s="20"/>
+      <c r="AC279" s="9"/>
     </row>
     <row r="280" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC280" s="20"/>
+      <c r="AC280" s="9"/>
     </row>
     <row r="281" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC281" s="20"/>
+      <c r="AC281" s="9"/>
     </row>
     <row r="282" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC282" s="20"/>
+      <c r="AC282" s="9"/>
     </row>
     <row r="283" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC283" s="20"/>
+      <c r="AC283" s="9"/>
     </row>
     <row r="284" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC284" s="20"/>
+      <c r="AC284" s="9"/>
     </row>
     <row r="285" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC285" s="20"/>
+      <c r="AC285" s="9"/>
     </row>
     <row r="286" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC286" s="20"/>
+      <c r="AC286" s="9"/>
     </row>
     <row r="287" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC287" s="20"/>
+      <c r="AC287" s="9"/>
     </row>
     <row r="288" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC288" s="20"/>
+      <c r="AC288" s="9"/>
     </row>
     <row r="289" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC289" s="20"/>
+      <c r="AC289" s="9"/>
     </row>
     <row r="290" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC290" s="20"/>
+      <c r="AC290" s="9"/>
     </row>
     <row r="291" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC291" s="20"/>
+      <c r="AC291" s="9"/>
     </row>
     <row r="292" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC292" s="20"/>
+      <c r="AC292" s="9"/>
     </row>
     <row r="293" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC293" s="20"/>
+      <c r="AC293" s="9"/>
     </row>
     <row r="294" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC294" s="20"/>
+      <c r="AC294" s="9"/>
     </row>
     <row r="295" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC295" s="20"/>
+      <c r="AC295" s="9"/>
     </row>
     <row r="296" spans="29:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC296" s="20"/>
+      <c r="AC296" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="2">
@@ -8232,560 +7132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D4F5-3E9F-48C1-83D6-A4ACD3B7FE09}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="D1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2007</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2013</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2014</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>2016</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2016</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>2014</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2018</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2019</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2020</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>2017</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2021</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>2007</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2023</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2024</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>2017</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <v>2024</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>2014</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
-        <v>2016</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>2022</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18">
-        <v>2017</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17">
-        <v>2017</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18">
-        <v>2017</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="E25" s="23">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="E26" s="23">
-        <v>4</v>
-      </c>
-      <c r="F26" s="23">
-        <v>2</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18">
-        <v>2007</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="E29" s="23">
-        <v>5</v>
-      </c>
-      <c r="F29" s="23">
-        <v>3</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="23">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="18">
-        <v>2021</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="E31" s="23">
-        <v>7</v>
-      </c>
-      <c r="F31" s="23">
-        <v>2</v>
-      </c>
-      <c r="G31" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E33" s="23">
-        <v>3</v>
-      </c>
-      <c r="F33" s="23">
-        <v>2</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E34" s="23">
-        <v>2</v>
-      </c>
-      <c r="F34" s="23">
-        <v>2</v>
-      </c>
-      <c r="G34" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="E35" s="23">
-        <v>4</v>
-      </c>
-      <c r="F35" s="23">
-        <v>1</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="E36" s="23">
-        <v>3</v>
-      </c>
-      <c r="F36" s="23">
-        <v>2</v>
-      </c>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="E38" s="23">
-        <v>2</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="E39" s="23">
-        <v>1</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EDCC4E-E800-4739-B7B4-4E9A0FC08311}">
   <dimension ref="A1:C16394"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8799,8 +7150,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>504</v>
+      <c r="C1" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -8808,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -8816,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -8824,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -8832,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -8840,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -8848,7 +7199,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -8856,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -8864,7 +7215,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -8872,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -8880,7 +7231,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -8888,7 +7239,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -8896,7 +7247,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -8904,7 +7255,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -8912,7 +7263,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -8920,7 +7271,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -8928,7 +7279,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -8936,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -8944,7 +7295,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8952,47 +7303,47 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>507</v>
+      <c r="C21" s="7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>505</v>
+      <c r="C22" s="7" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>506</v>
+      <c r="C23" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>508</v>
+      <c r="C24" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>509</v>
+      <c r="C25" s="8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -9002,33 +7353,33 @@
       <c r="A27" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>419</v>
+      <c r="A29" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>420</v>
+      <c r="A30" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>421</v>
+      <c r="A31" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>422</v>
+      <c r="A32" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>423</v>
+      <c r="A33" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>424</v>
+      <c r="A34" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.35">

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A178278-BE27-430A-AB98-7B26584F2C15}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E4814F-8BE4-4E24-BAB3-7DCD0B8CAB39}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="Y11" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5602,7 +5602,7 @@
         <v>585</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AG28" s="9" t="s">
         <v>582</v>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E4814F-8BE4-4E24-BAB3-7DCD0B8CAB39}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943190FA-194C-40D6-B447-71A5283CDC6C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="636">
   <si>
     <t>Title</t>
   </si>
@@ -1904,18 +1904,9 @@
     <t>communication and coordination,education and information delivery</t>
   </si>
   <si>
-    <t>education and information delivery,decision support and guidance</t>
-  </si>
-  <si>
     <t>communication and coordination,emotional and social support</t>
   </si>
   <si>
-    <t>monitoring and tracking,communication and coordination,education and information delivery,decision support and guidance</t>
-  </si>
-  <si>
-    <t>education and information delivery,emotional and social support,promotion of healthy behavior</t>
-  </si>
-  <si>
     <t>communication and coordination</t>
   </si>
   <si>
@@ -1925,18 +1916,12 @@
     <t>mobile application</t>
   </si>
   <si>
-    <t>During-treatment,Post-treatment</t>
-  </si>
-  <si>
     <t>During-treatment</t>
   </si>
   <si>
     <t>Post-treatment</t>
   </si>
   <si>
-    <t>Pre-treatment,During-treatment,Post-treatment</t>
-  </si>
-  <si>
     <t>Pre-treatment</t>
   </si>
   <si>
@@ -2147,13 +2132,16 @@
     <t>education and information delivery</t>
   </si>
   <si>
-    <t>monitoring and tracking,decision support and guidance</t>
-  </si>
-  <si>
     <t>monitoring and tracking,promotion of healthy behavior</t>
   </si>
   <si>
-    <t>monitoring and tracking,decision support and guidance,emotional and social support</t>
+    <t>monitoring and tracking,education and information delivery</t>
+  </si>
+  <si>
+    <t>monitoring and tracking,communication and coordination,education and information delivery</t>
+  </si>
+  <si>
+    <t>Pre-treatment, Post-treatment</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2327,12 +2315,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2708,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y11" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2735,7 +2717,7 @@
     <col min="20" max="20" width="18.6328125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="45.453125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="41.54296875" style="13" customWidth="1"/>
+    <col min="23" max="23" width="41.54296875" style="11" customWidth="1"/>
     <col min="24" max="24" width="55.1796875" customWidth="1"/>
     <col min="25" max="26" width="38.36328125" customWidth="1"/>
     <col min="27" max="27" width="34.54296875" customWidth="1"/>
@@ -2813,8 +2795,8 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>561</v>
+      <c r="W1" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>21</v>
@@ -2823,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>23</v>
@@ -2832,7 +2814,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>533</v>
@@ -2841,16 +2823,16 @@
         <v>548</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2917,8 +2899,8 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>550</v>
+      <c r="W2" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
@@ -2927,7 +2909,7 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AA2" t="s">
         <v>43</v>
@@ -2945,13 +2927,13 @@
         <v>539</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AH2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3021,7 +3003,7 @@
       <c r="V3" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="9" t="s">
         <v>552</v>
       </c>
       <c r="X3" t="s">
@@ -3031,7 +3013,7 @@
         <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AA3" t="s">
         <v>60</v>
@@ -3040,7 +3022,7 @@
         <v>61</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD3">
         <v>1.5</v>
@@ -3049,16 +3031,16 @@
         <v>55</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AH3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3125,7 +3107,7 @@
       <c r="V4" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="9" t="s">
         <v>550</v>
       </c>
       <c r="X4" t="s">
@@ -3144,7 +3126,7 @@
         <v>76</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD4">
         <v>3</v>
@@ -3153,13 +3135,13 @@
         <v>55</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AH4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3229,8 +3211,8 @@
       <c r="V5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="12" t="s">
-        <v>638</v>
+      <c r="W5" s="9" t="s">
+        <v>632</v>
       </c>
       <c r="X5" t="s">
         <v>91</v>
@@ -3239,7 +3221,7 @@
         <v>98</v>
       </c>
       <c r="Z5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AA5" t="s">
         <v>99</v>
@@ -3248,7 +3230,7 @@
         <v>92</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -3257,16 +3239,16 @@
         <v>540</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AH5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3333,8 +3315,8 @@
       <c r="V6" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>635</v>
+      <c r="W6" s="9" t="s">
+        <v>630</v>
       </c>
       <c r="X6" t="s">
         <v>116</v>
@@ -3343,7 +3325,7 @@
         <v>118</v>
       </c>
       <c r="Z6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AA6" t="s">
         <v>129</v>
@@ -3361,16 +3343,16 @@
         <v>541</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AH6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3437,8 +3419,8 @@
       <c r="V7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="12" t="s">
-        <v>553</v>
+      <c r="W7" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="X7" t="s">
         <v>139</v>
@@ -3447,7 +3429,7 @@
         <v>140</v>
       </c>
       <c r="Z7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AA7" t="s">
         <v>141</v>
@@ -3465,16 +3447,16 @@
         <v>542</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AH7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3541,8 +3523,8 @@
       <c r="V8" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="12" t="s">
-        <v>551</v>
+      <c r="W8" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="X8" t="s">
         <v>117</v>
@@ -3551,7 +3533,7 @@
         <v>148</v>
       </c>
       <c r="Z8" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AA8" t="s">
         <v>119</v>
@@ -3569,13 +3551,13 @@
         <v>543</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AH8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3645,8 +3627,8 @@
       <c r="V9" t="s">
         <v>177</v>
       </c>
-      <c r="W9" s="12" t="s">
-        <v>586</v>
+      <c r="W9" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="X9" t="s">
         <v>178</v>
@@ -3655,7 +3637,7 @@
         <v>167</v>
       </c>
       <c r="Z9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AA9" t="s">
         <v>179</v>
@@ -3673,16 +3655,16 @@
         <v>540</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AH9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3749,8 +3731,8 @@
       <c r="V10" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>639</v>
+      <c r="W10" s="9" t="s">
+        <v>553</v>
       </c>
       <c r="X10" t="s">
         <v>161</v>
@@ -3759,7 +3741,7 @@
         <v>160</v>
       </c>
       <c r="Z10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA10" t="s">
         <v>159</v>
@@ -3777,13 +3759,13 @@
         <v>539</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AH10" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3853,7 +3835,7 @@
       <c r="V11" t="s">
         <v>188</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="W11" s="9" t="s">
         <v>554</v>
       </c>
       <c r="X11" t="s">
@@ -3881,16 +3863,16 @@
         <v>55</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AH11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3957,9 +3939,7 @@
       <c r="V12" t="s">
         <v>210</v>
       </c>
-      <c r="W12" s="12" t="s">
-        <v>555</v>
-      </c>
+      <c r="W12" s="9"/>
       <c r="X12" t="s">
         <v>204</v>
       </c>
@@ -3967,7 +3947,7 @@
         <v>213</v>
       </c>
       <c r="Z12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA12" t="s">
         <v>212</v>
@@ -3985,16 +3965,16 @@
         <v>544</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AH12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4061,8 +4041,8 @@
       <c r="V13" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="12" t="s">
-        <v>551</v>
+      <c r="W13" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="X13" t="s">
         <v>228</v>
@@ -4071,7 +4051,7 @@
         <v>223</v>
       </c>
       <c r="Z13" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AA13" t="s">
         <v>229</v>
@@ -4089,16 +4069,16 @@
         <v>55</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AH13" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4165,8 +4145,8 @@
       <c r="V14" t="s">
         <v>241</v>
       </c>
-      <c r="W14" s="12" t="s">
-        <v>551</v>
+      <c r="W14" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="X14" t="s">
         <v>242</v>
@@ -4175,7 +4155,7 @@
         <v>244</v>
       </c>
       <c r="Z14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AA14" t="s">
         <v>243</v>
@@ -4193,16 +4173,16 @@
         <v>544</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AH14" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4269,7 +4249,7 @@
       <c r="V15" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="W15" s="9" t="s">
         <v>551</v>
       </c>
       <c r="X15" t="s">
@@ -4279,7 +4259,7 @@
         <v>259</v>
       </c>
       <c r="Z15" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA15" t="s">
         <v>258</v>
@@ -4288,7 +4268,7 @@
         <v>260</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD15">
         <v>18</v>
@@ -4297,16 +4277,16 @@
         <v>539</v>
       </c>
       <c r="AF15" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG15" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="AG15" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="AH15" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4373,7 +4353,7 @@
       <c r="V16" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="12" t="s">
+      <c r="W16" s="9" t="s">
         <v>551</v>
       </c>
       <c r="X16" t="s">
@@ -4383,7 +4363,7 @@
         <v>273</v>
       </c>
       <c r="Z16" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AA16" t="s">
         <v>274</v>
@@ -4392,7 +4372,7 @@
         <v>269</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD16">
         <v>15</v>
@@ -4401,16 +4381,16 @@
         <v>55</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AH16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4477,8 +4457,8 @@
       <c r="V17" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="12" t="s">
-        <v>556</v>
+      <c r="W17" s="9" t="s">
+        <v>631</v>
       </c>
       <c r="X17" t="s">
         <v>288</v>
@@ -4487,7 +4467,7 @@
         <v>290</v>
       </c>
       <c r="Z17" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA17" t="s">
         <v>289</v>
@@ -4505,16 +4485,16 @@
         <v>544</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AH17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4581,8 +4561,8 @@
       <c r="V18" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="12" t="s">
-        <v>557</v>
+      <c r="W18" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="X18" t="s">
         <v>299</v>
@@ -4591,7 +4571,7 @@
         <v>304</v>
       </c>
       <c r="Z18" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AA18" t="s">
         <v>305</v>
@@ -4609,13 +4589,13 @@
         <v>540</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AH18" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4685,8 +4665,8 @@
       <c r="V19" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="12" t="s">
-        <v>636</v>
+      <c r="W19" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="X19" t="s">
         <v>312</v>
@@ -4695,7 +4675,7 @@
         <v>313</v>
       </c>
       <c r="Z19" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AA19" t="s">
         <v>314</v>
@@ -4713,13 +4693,13 @@
         <v>544</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AH19" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4789,8 +4769,8 @@
       <c r="V20" t="s">
         <v>182</v>
       </c>
-      <c r="W20" s="12" t="s">
-        <v>636</v>
+      <c r="W20" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="X20" t="s">
         <v>348</v>
@@ -4799,7 +4779,7 @@
         <v>347</v>
       </c>
       <c r="Z20" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA20" t="s">
         <v>344</v>
@@ -4817,13 +4797,13 @@
         <v>544</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AH20" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4893,9 +4873,7 @@
       <c r="V21" t="s">
         <v>323</v>
       </c>
-      <c r="W21" s="12" t="s">
-        <v>552</v>
-      </c>
+      <c r="W21" s="9"/>
       <c r="X21" t="s">
         <v>335</v>
       </c>
@@ -4903,7 +4881,7 @@
         <v>334</v>
       </c>
       <c r="Z21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AA21" t="s">
         <v>324</v>
@@ -4921,16 +4899,16 @@
         <v>544</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AH21" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4997,7 +4975,7 @@
       <c r="V22" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="9" t="s">
         <v>551</v>
       </c>
       <c r="X22" t="s">
@@ -5007,13 +4985,13 @@
         <v>352</v>
       </c>
       <c r="Z22" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AA22" t="s">
         <v>360</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD22">
         <v>13</v>
@@ -5022,13 +5000,13 @@
         <v>545</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AH22" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5086,12 +5064,12 @@
       <c r="V23" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="12"/>
+      <c r="W23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
     </row>
-    <row r="24" spans="1:34" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5158,8 +5136,8 @@
       <c r="V24" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="12" t="s">
-        <v>558</v>
+      <c r="W24" s="9" t="s">
+        <v>634</v>
       </c>
       <c r="X24" t="s">
         <v>363</v>
@@ -5168,7 +5146,7 @@
         <v>372</v>
       </c>
       <c r="Z24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AA24" t="s">
         <v>373</v>
@@ -5177,7 +5155,7 @@
         <v>374</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD24">
         <v>6</v>
@@ -5186,16 +5164,16 @@
         <v>55</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AH24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5262,8 +5240,8 @@
       <c r="V25" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="12" t="s">
-        <v>559</v>
+      <c r="W25" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="X25" t="s">
         <v>396</v>
@@ -5272,7 +5250,7 @@
         <v>391</v>
       </c>
       <c r="Z25" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AA25" t="s">
         <v>397</v>
@@ -5290,13 +5268,13 @@
         <v>539</v>
       </c>
       <c r="AF25" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG25" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="AG25" s="9" t="s">
-        <v>569</v>
-      </c>
       <c r="AH25" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5366,8 +5344,8 @@
       <c r="V26" t="s">
         <v>182</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>560</v>
+      <c r="W26" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="X26" t="s">
         <v>409</v>
@@ -5376,7 +5354,7 @@
         <v>412</v>
       </c>
       <c r="Z26" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AA26" t="s">
         <v>411</v>
@@ -5394,13 +5372,13 @@
         <v>546</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AH26" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5470,8 +5448,8 @@
       <c r="V27" t="s">
         <v>182</v>
       </c>
-      <c r="W27" s="12" t="s">
-        <v>560</v>
+      <c r="W27" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="X27" t="s">
         <v>428</v>
@@ -5480,7 +5458,7 @@
         <v>429</v>
       </c>
       <c r="Z27" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AA27" t="s">
         <v>430</v>
@@ -5498,16 +5476,16 @@
         <v>55</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AH27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5574,8 +5552,8 @@
       <c r="V28" t="s">
         <v>182</v>
       </c>
-      <c r="W28" s="12" t="s">
-        <v>637</v>
+      <c r="W28" s="9" t="s">
+        <v>551</v>
       </c>
       <c r="X28" t="s">
         <v>444</v>
@@ -5593,22 +5571,22 @@
         <v>446</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AH28" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5678,9 +5656,7 @@
       <c r="V29" t="s">
         <v>457</v>
       </c>
-      <c r="W29" s="12" t="s">
-        <v>552</v>
-      </c>
+      <c r="W29" s="9"/>
       <c r="X29" t="s">
         <v>461</v>
       </c>
@@ -5688,7 +5664,7 @@
         <v>463</v>
       </c>
       <c r="Z29" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AA29" t="s">
         <v>462</v>
@@ -5700,16 +5676,16 @@
         <v>508</v>
       </c>
       <c r="AE29" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AH29" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5779,8 +5755,8 @@
       <c r="V30" t="s">
         <v>182</v>
       </c>
-      <c r="W30" s="12" t="s">
-        <v>586</v>
+      <c r="W30" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="X30" t="s">
         <v>476</v>
@@ -5789,7 +5765,7 @@
         <v>478</v>
       </c>
       <c r="Z30" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AA30" t="s">
         <v>475</v>
@@ -5804,1025 +5780,1025 @@
         <v>547</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AH30" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W31" s="12"/>
+      <c r="W31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
     </row>
     <row r="32" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W32" s="12"/>
+      <c r="W32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
     </row>
     <row r="33" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W33" s="12"/>
+      <c r="W33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
     </row>
     <row r="34" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W34" s="12"/>
+      <c r="W34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
     </row>
     <row r="35" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W35" s="12"/>
+      <c r="W35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W36" s="12"/>
+      <c r="W36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
     </row>
     <row r="37" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W37" s="12"/>
+      <c r="W37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
     <row r="38" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W38" s="12"/>
+      <c r="W38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
     </row>
     <row r="39" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W39" s="12"/>
+      <c r="W39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
     </row>
     <row r="40" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W40" s="12"/>
+      <c r="W40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
     </row>
     <row r="41" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W41" s="12"/>
+      <c r="W41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9"/>
     </row>
     <row r="42" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W42" s="12"/>
+      <c r="W42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9"/>
     </row>
     <row r="43" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W43" s="12"/>
+      <c r="W43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
     <row r="44" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W44" s="12"/>
+      <c r="W44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
     </row>
     <row r="45" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W45" s="12"/>
+      <c r="W45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
     </row>
     <row r="46" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W46" s="12"/>
+      <c r="W46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
     </row>
     <row r="47" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W47" s="12"/>
+      <c r="W47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
     </row>
     <row r="48" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W48" s="12"/>
+      <c r="W48" s="9"/>
       <c r="AC48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
     </row>
     <row r="49" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W49" s="12"/>
+      <c r="W49" s="9"/>
       <c r="AC49" s="9"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="9"/>
     </row>
     <row r="50" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W50" s="12"/>
+      <c r="W50" s="9"/>
       <c r="AC50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="9"/>
     </row>
     <row r="51" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W51" s="12"/>
+      <c r="W51" s="9"/>
       <c r="AC51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
     </row>
     <row r="52" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W52" s="12"/>
+      <c r="W52" s="9"/>
       <c r="AC52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="9"/>
     </row>
     <row r="53" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W53" s="12"/>
+      <c r="W53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="9"/>
     </row>
     <row r="54" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W54" s="12"/>
+      <c r="W54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="9"/>
     </row>
     <row r="55" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W55" s="12"/>
+      <c r="W55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="9"/>
     </row>
     <row r="56" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W56" s="12"/>
+      <c r="W56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9"/>
     </row>
     <row r="57" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W57" s="12"/>
+      <c r="W57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="9"/>
     </row>
     <row r="58" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W58" s="12"/>
+      <c r="W58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9"/>
     </row>
     <row r="59" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W59" s="12"/>
+      <c r="W59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="9"/>
     </row>
     <row r="60" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W60" s="12"/>
+      <c r="W60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="9"/>
     </row>
     <row r="61" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W61" s="12"/>
+      <c r="W61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AF61" s="9"/>
       <c r="AG61" s="9"/>
     </row>
     <row r="62" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W62" s="12"/>
+      <c r="W62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="9"/>
     </row>
     <row r="63" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W63" s="12"/>
+      <c r="W63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AF63" s="9"/>
       <c r="AG63" s="9"/>
     </row>
     <row r="64" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W64" s="12"/>
+      <c r="W64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="9"/>
     </row>
     <row r="65" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W65" s="12"/>
+      <c r="W65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="9"/>
     </row>
     <row r="66" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W66" s="12"/>
+      <c r="W66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="9"/>
     </row>
     <row r="67" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W67" s="12"/>
+      <c r="W67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="9"/>
     </row>
     <row r="68" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W68" s="12"/>
+      <c r="W68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AF68" s="9"/>
       <c r="AG68" s="9"/>
     </row>
     <row r="69" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W69" s="12"/>
+      <c r="W69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AF69" s="9"/>
       <c r="AG69" s="9"/>
     </row>
     <row r="70" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W70" s="12"/>
+      <c r="W70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AF70" s="9"/>
       <c r="AG70" s="9"/>
     </row>
     <row r="71" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W71" s="12"/>
+      <c r="W71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AF71" s="9"/>
       <c r="AG71" s="9"/>
     </row>
     <row r="72" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W72" s="12"/>
+      <c r="W72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AF72" s="9"/>
       <c r="AG72" s="9"/>
     </row>
     <row r="73" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W73" s="12"/>
+      <c r="W73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AF73" s="9"/>
       <c r="AG73" s="9"/>
     </row>
     <row r="74" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W74" s="12"/>
+      <c r="W74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AF74" s="9"/>
       <c r="AG74" s="9"/>
     </row>
     <row r="75" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W75" s="12"/>
+      <c r="W75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
     </row>
     <row r="76" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W76" s="12"/>
+      <c r="W76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AF76" s="9"/>
       <c r="AG76" s="9"/>
     </row>
     <row r="77" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W77" s="12"/>
+      <c r="W77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AF77" s="9"/>
       <c r="AG77" s="9"/>
     </row>
     <row r="78" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W78" s="12"/>
+      <c r="W78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AF78" s="9"/>
       <c r="AG78" s="9"/>
     </row>
     <row r="79" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W79" s="12"/>
+      <c r="W79" s="9"/>
       <c r="AC79" s="9"/>
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
     <row r="80" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W80" s="12"/>
+      <c r="W80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AF80" s="9"/>
       <c r="AG80" s="9"/>
     </row>
     <row r="81" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W81" s="12"/>
+      <c r="W81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AF81" s="9"/>
       <c r="AG81" s="9"/>
     </row>
     <row r="82" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W82" s="12"/>
+      <c r="W82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AF82" s="9"/>
       <c r="AG82" s="9"/>
     </row>
     <row r="83" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W83" s="12"/>
+      <c r="W83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AF83" s="9"/>
       <c r="AG83" s="9"/>
     </row>
     <row r="84" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W84" s="12"/>
+      <c r="W84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AF84" s="9"/>
       <c r="AG84" s="9"/>
     </row>
     <row r="85" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W85" s="12"/>
+      <c r="W85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AF85" s="9"/>
       <c r="AG85" s="9"/>
     </row>
     <row r="86" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W86" s="12"/>
+      <c r="W86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AF86" s="9"/>
       <c r="AG86" s="9"/>
     </row>
     <row r="87" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W87" s="12"/>
+      <c r="W87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AF87" s="9"/>
       <c r="AG87" s="9"/>
     </row>
     <row r="88" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W88" s="12"/>
+      <c r="W88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AF88" s="9"/>
       <c r="AG88" s="9"/>
     </row>
     <row r="89" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W89" s="12"/>
+      <c r="W89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AF89" s="9"/>
       <c r="AG89" s="9"/>
     </row>
     <row r="90" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W90" s="12"/>
+      <c r="W90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AF90" s="9"/>
       <c r="AG90" s="9"/>
     </row>
     <row r="91" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W91" s="12"/>
+      <c r="W91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AF91" s="9"/>
       <c r="AG91" s="9"/>
     </row>
     <row r="92" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W92" s="12"/>
+      <c r="W92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AF92" s="9"/>
       <c r="AG92" s="9"/>
     </row>
     <row r="93" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W93" s="12"/>
+      <c r="W93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AF93" s="9"/>
       <c r="AG93" s="9"/>
     </row>
     <row r="94" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W94" s="12"/>
+      <c r="W94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AF94" s="9"/>
       <c r="AG94" s="9"/>
     </row>
     <row r="95" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W95" s="12"/>
+      <c r="W95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AF95" s="9"/>
       <c r="AG95" s="9"/>
     </row>
     <row r="96" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W96" s="12"/>
+      <c r="W96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AF96" s="9"/>
       <c r="AG96" s="9"/>
     </row>
     <row r="97" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W97" s="12"/>
+      <c r="W97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AF97" s="9"/>
       <c r="AG97" s="9"/>
     </row>
     <row r="98" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W98" s="12"/>
+      <c r="W98" s="9"/>
       <c r="AC98" s="9"/>
       <c r="AF98" s="9"/>
       <c r="AG98" s="9"/>
     </row>
     <row r="99" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W99" s="12"/>
+      <c r="W99" s="9"/>
       <c r="AC99" s="9"/>
       <c r="AF99" s="9"/>
       <c r="AG99" s="9"/>
     </row>
     <row r="100" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W100" s="12"/>
+      <c r="W100" s="9"/>
       <c r="AC100" s="9"/>
       <c r="AF100" s="9"/>
       <c r="AG100" s="9"/>
     </row>
     <row r="101" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W101" s="12"/>
+      <c r="W101" s="9"/>
       <c r="AC101" s="9"/>
       <c r="AF101" s="9"/>
       <c r="AG101" s="9"/>
     </row>
     <row r="102" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W102" s="12"/>
+      <c r="W102" s="9"/>
       <c r="AC102" s="9"/>
       <c r="AF102" s="9"/>
       <c r="AG102" s="9"/>
     </row>
     <row r="103" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W103" s="12"/>
+      <c r="W103" s="9"/>
       <c r="AC103" s="9"/>
       <c r="AF103" s="9"/>
       <c r="AG103" s="9"/>
     </row>
     <row r="104" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W104" s="12"/>
+      <c r="W104" s="9"/>
       <c r="AC104" s="9"/>
       <c r="AF104" s="9"/>
       <c r="AG104" s="9"/>
     </row>
     <row r="105" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W105" s="12"/>
+      <c r="W105" s="9"/>
       <c r="AC105" s="9"/>
       <c r="AF105" s="9"/>
       <c r="AG105" s="9"/>
     </row>
     <row r="106" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W106" s="12"/>
+      <c r="W106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AF106" s="9"/>
       <c r="AG106" s="9"/>
     </row>
     <row r="107" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W107" s="12"/>
+      <c r="W107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AF107" s="9"/>
       <c r="AG107" s="9"/>
     </row>
     <row r="108" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W108" s="12"/>
+      <c r="W108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AF108" s="9"/>
       <c r="AG108" s="9"/>
     </row>
     <row r="109" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W109" s="12"/>
+      <c r="W109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AF109" s="9"/>
       <c r="AG109" s="9"/>
     </row>
     <row r="110" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W110" s="12"/>
+      <c r="W110" s="9"/>
       <c r="AC110" s="9"/>
       <c r="AF110" s="9"/>
       <c r="AG110" s="9"/>
     </row>
     <row r="111" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W111" s="12"/>
+      <c r="W111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AF111" s="9"/>
       <c r="AG111" s="9"/>
     </row>
     <row r="112" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W112" s="12"/>
+      <c r="W112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AF112" s="9"/>
       <c r="AG112" s="9"/>
     </row>
     <row r="113" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W113" s="12"/>
+      <c r="W113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AF113" s="9"/>
       <c r="AG113" s="9"/>
     </row>
     <row r="114" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W114" s="12"/>
+      <c r="W114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AF114" s="9"/>
       <c r="AG114" s="9"/>
     </row>
     <row r="115" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W115" s="12"/>
+      <c r="W115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AF115" s="9"/>
       <c r="AG115" s="9"/>
     </row>
     <row r="116" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W116" s="12"/>
+      <c r="W116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AF116" s="9"/>
       <c r="AG116" s="9"/>
     </row>
     <row r="117" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W117" s="12"/>
+      <c r="W117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AF117" s="9"/>
       <c r="AG117" s="9"/>
     </row>
     <row r="118" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W118" s="12"/>
+      <c r="W118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AF118" s="9"/>
       <c r="AG118" s="9"/>
     </row>
     <row r="119" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W119" s="12"/>
+      <c r="W119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AF119" s="9"/>
       <c r="AG119" s="9"/>
     </row>
     <row r="120" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W120" s="12"/>
+      <c r="W120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AF120" s="9"/>
       <c r="AG120" s="9"/>
     </row>
     <row r="121" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W121" s="12"/>
+      <c r="W121" s="9"/>
       <c r="AC121" s="9"/>
       <c r="AF121" s="9"/>
       <c r="AG121" s="9"/>
     </row>
     <row r="122" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W122" s="12"/>
+      <c r="W122" s="9"/>
       <c r="AC122" s="9"/>
       <c r="AF122" s="9"/>
       <c r="AG122" s="9"/>
     </row>
     <row r="123" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W123" s="12"/>
+      <c r="W123" s="9"/>
       <c r="AC123" s="9"/>
       <c r="AF123" s="9"/>
       <c r="AG123" s="9"/>
     </row>
     <row r="124" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W124" s="12"/>
+      <c r="W124" s="9"/>
       <c r="AC124" s="9"/>
       <c r="AF124" s="9"/>
       <c r="AG124" s="9"/>
     </row>
     <row r="125" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W125" s="12"/>
+      <c r="W125" s="9"/>
       <c r="AC125" s="9"/>
       <c r="AF125" s="9"/>
       <c r="AG125" s="9"/>
     </row>
     <row r="126" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W126" s="12"/>
+      <c r="W126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AF126" s="9"/>
       <c r="AG126" s="9"/>
     </row>
     <row r="127" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W127" s="12"/>
+      <c r="W127" s="9"/>
       <c r="AC127" s="9"/>
       <c r="AF127" s="9"/>
       <c r="AG127" s="9"/>
     </row>
     <row r="128" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W128" s="12"/>
+      <c r="W128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AF128" s="9"/>
       <c r="AG128" s="9"/>
     </row>
     <row r="129" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W129" s="12"/>
+      <c r="W129" s="9"/>
       <c r="AC129" s="9"/>
       <c r="AF129" s="9"/>
       <c r="AG129" s="9"/>
     </row>
     <row r="130" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W130" s="12"/>
+      <c r="W130" s="9"/>
       <c r="AC130" s="9"/>
       <c r="AF130" s="9"/>
       <c r="AG130" s="9"/>
     </row>
     <row r="131" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W131" s="12"/>
+      <c r="W131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AF131" s="9"/>
       <c r="AG131" s="9"/>
     </row>
     <row r="132" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W132" s="12"/>
+      <c r="W132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AF132" s="9"/>
       <c r="AG132" s="9"/>
     </row>
     <row r="133" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W133" s="12"/>
+      <c r="W133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AF133" s="9"/>
       <c r="AG133" s="9"/>
     </row>
     <row r="134" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W134" s="12"/>
+      <c r="W134" s="9"/>
       <c r="AC134" s="9"/>
       <c r="AF134" s="9"/>
       <c r="AG134" s="9"/>
     </row>
     <row r="135" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W135" s="12"/>
+      <c r="W135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AF135" s="9"/>
       <c r="AG135" s="9"/>
     </row>
     <row r="136" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W136" s="12"/>
+      <c r="W136" s="9"/>
       <c r="AC136" s="9"/>
       <c r="AF136" s="9"/>
       <c r="AG136" s="9"/>
     </row>
     <row r="137" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W137" s="12"/>
+      <c r="W137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AF137" s="9"/>
       <c r="AG137" s="9"/>
     </row>
     <row r="138" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W138" s="12"/>
+      <c r="W138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AF138" s="9"/>
       <c r="AG138" s="9"/>
     </row>
     <row r="139" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W139" s="12"/>
+      <c r="W139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AF139" s="9"/>
       <c r="AG139" s="9"/>
     </row>
     <row r="140" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W140" s="12"/>
+      <c r="W140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AF140" s="9"/>
       <c r="AG140" s="9"/>
     </row>
     <row r="141" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W141" s="12"/>
+      <c r="W141" s="9"/>
       <c r="AC141" s="9"/>
       <c r="AF141" s="9"/>
       <c r="AG141" s="9"/>
     </row>
     <row r="142" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W142" s="12"/>
+      <c r="W142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AF142" s="9"/>
       <c r="AG142" s="9"/>
     </row>
     <row r="143" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W143" s="12"/>
+      <c r="W143" s="9"/>
       <c r="AC143" s="9"/>
       <c r="AF143" s="9"/>
       <c r="AG143" s="9"/>
     </row>
     <row r="144" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W144" s="12"/>
+      <c r="W144" s="9"/>
       <c r="AC144" s="9"/>
       <c r="AF144" s="9"/>
       <c r="AG144" s="9"/>
     </row>
     <row r="145" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W145" s="12"/>
+      <c r="W145" s="9"/>
       <c r="AC145" s="9"/>
       <c r="AF145" s="9"/>
       <c r="AG145" s="9"/>
     </row>
     <row r="146" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W146" s="12"/>
+      <c r="W146" s="9"/>
       <c r="AC146" s="9"/>
       <c r="AF146" s="9"/>
       <c r="AG146" s="9"/>
     </row>
     <row r="147" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W147" s="12"/>
+      <c r="W147" s="9"/>
       <c r="AC147" s="9"/>
       <c r="AF147" s="9"/>
       <c r="AG147" s="9"/>
     </row>
     <row r="148" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W148" s="12"/>
+      <c r="W148" s="9"/>
       <c r="AC148" s="9"/>
       <c r="AF148" s="9"/>
       <c r="AG148" s="9"/>
     </row>
     <row r="149" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W149" s="12"/>
+      <c r="W149" s="9"/>
       <c r="AC149" s="9"/>
       <c r="AF149" s="9"/>
       <c r="AG149" s="9"/>
     </row>
     <row r="150" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W150" s="12"/>
+      <c r="W150" s="9"/>
       <c r="AC150" s="9"/>
       <c r="AF150" s="9"/>
       <c r="AG150" s="9"/>
     </row>
     <row r="151" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W151" s="12"/>
+      <c r="W151" s="9"/>
       <c r="AC151" s="9"/>
       <c r="AF151" s="9"/>
       <c r="AG151" s="9"/>
     </row>
     <row r="152" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W152" s="12"/>
+      <c r="W152" s="9"/>
       <c r="AC152" s="9"/>
       <c r="AF152" s="9"/>
       <c r="AG152" s="9"/>
     </row>
     <row r="153" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W153" s="12"/>
+      <c r="W153" s="9"/>
       <c r="AC153" s="9"/>
       <c r="AF153" s="9"/>
       <c r="AG153" s="9"/>
     </row>
     <row r="154" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W154" s="12"/>
+      <c r="W154" s="9"/>
       <c r="AC154" s="9"/>
       <c r="AF154" s="9"/>
       <c r="AG154" s="9"/>
     </row>
     <row r="155" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W155" s="12"/>
+      <c r="W155" s="9"/>
       <c r="AC155" s="9"/>
       <c r="AF155" s="9"/>
       <c r="AG155" s="9"/>
     </row>
     <row r="156" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W156" s="12"/>
+      <c r="W156" s="9"/>
       <c r="AC156" s="9"/>
       <c r="AF156" s="9"/>
       <c r="AG156" s="9"/>
     </row>
     <row r="157" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W157" s="12"/>
+      <c r="W157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AF157" s="9"/>
       <c r="AG157" s="9"/>
     </row>
     <row r="158" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W158" s="12"/>
+      <c r="W158" s="9"/>
       <c r="AC158" s="9"/>
       <c r="AF158" s="9"/>
       <c r="AG158" s="9"/>
     </row>
     <row r="159" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W159" s="12"/>
+      <c r="W159" s="9"/>
       <c r="AC159" s="9"/>
       <c r="AF159" s="9"/>
       <c r="AG159" s="9"/>
     </row>
     <row r="160" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W160" s="12"/>
+      <c r="W160" s="9"/>
       <c r="AC160" s="9"/>
       <c r="AF160" s="9"/>
       <c r="AG160" s="9"/>
     </row>
     <row r="161" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W161" s="12"/>
+      <c r="W161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AF161" s="9"/>
       <c r="AG161" s="9"/>
     </row>
     <row r="162" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W162" s="12"/>
+      <c r="W162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AF162" s="9"/>
       <c r="AG162" s="9"/>
     </row>
     <row r="163" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W163" s="12"/>
+      <c r="W163" s="9"/>
       <c r="AC163" s="9"/>
       <c r="AF163" s="9"/>
       <c r="AG163" s="9"/>
     </row>
     <row r="164" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W164" s="12"/>
+      <c r="W164" s="9"/>
       <c r="AC164" s="9"/>
       <c r="AF164" s="9"/>
       <c r="AG164" s="9"/>
     </row>
     <row r="165" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W165" s="12"/>
+      <c r="W165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AF165" s="9"/>
       <c r="AG165" s="9"/>
     </row>
     <row r="166" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W166" s="12"/>
+      <c r="W166" s="9"/>
       <c r="AC166" s="9"/>
       <c r="AF166" s="9"/>
       <c r="AG166" s="9"/>
     </row>
     <row r="167" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W167" s="12"/>
+      <c r="W167" s="9"/>
       <c r="AC167" s="9"/>
       <c r="AF167" s="9"/>
       <c r="AG167" s="9"/>
     </row>
     <row r="168" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W168" s="12"/>
+      <c r="W168" s="9"/>
       <c r="AC168" s="9"/>
       <c r="AF168" s="9"/>
       <c r="AG168" s="9"/>
     </row>
     <row r="169" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W169" s="12"/>
+      <c r="W169" s="9"/>
       <c r="AC169" s="9"/>
       <c r="AF169" s="9"/>
       <c r="AG169" s="9"/>
     </row>
     <row r="170" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W170" s="12"/>
+      <c r="W170" s="9"/>
       <c r="AC170" s="9"/>
       <c r="AF170" s="9"/>
       <c r="AG170" s="9"/>
     </row>
     <row r="171" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W171" s="12"/>
+      <c r="W171" s="9"/>
       <c r="AC171" s="9"/>
       <c r="AF171" s="9"/>
       <c r="AG171" s="9"/>
     </row>
     <row r="172" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W172" s="12"/>
+      <c r="W172" s="9"/>
       <c r="AC172" s="9"/>
       <c r="AF172" s="9"/>
       <c r="AG172" s="9"/>
     </row>
     <row r="173" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W173" s="12"/>
+      <c r="W173" s="9"/>
       <c r="AC173" s="9"/>
       <c r="AF173" s="9"/>
       <c r="AG173" s="9"/>
     </row>
     <row r="174" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W174" s="12"/>
+      <c r="W174" s="9"/>
       <c r="AC174" s="9"/>
       <c r="AF174" s="9"/>
       <c r="AG174" s="9"/>
     </row>
     <row r="175" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W175" s="12"/>
+      <c r="W175" s="9"/>
       <c r="AC175" s="9"/>
       <c r="AF175" s="9"/>
       <c r="AG175" s="9"/>
     </row>
     <row r="176" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W176" s="12"/>
+      <c r="W176" s="9"/>
       <c r="AC176" s="9"/>
       <c r="AF176" s="9"/>
       <c r="AG176" s="9"/>
     </row>
     <row r="177" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W177" s="12"/>
+      <c r="W177" s="9"/>
       <c r="AC177" s="9"/>
       <c r="AF177" s="9"/>
       <c r="AG177" s="9"/>
     </row>
     <row r="178" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W178" s="12"/>
+      <c r="W178" s="9"/>
       <c r="AC178" s="9"/>
       <c r="AF178" s="9"/>
       <c r="AG178" s="9"/>
     </row>
     <row r="179" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W179" s="12"/>
+      <c r="W179" s="9"/>
       <c r="AC179" s="9"/>
       <c r="AF179" s="9"/>
       <c r="AG179" s="9"/>
     </row>
     <row r="180" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W180" s="12"/>
+      <c r="W180" s="9"/>
       <c r="AC180" s="9"/>
       <c r="AF180" s="9"/>
       <c r="AG180" s="9"/>
     </row>
     <row r="181" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W181" s="12"/>
+      <c r="W181" s="9"/>
       <c r="AC181" s="9"/>
       <c r="AF181" s="9"/>
       <c r="AG181" s="9"/>
     </row>
     <row r="182" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W182" s="12"/>
+      <c r="W182" s="9"/>
       <c r="AC182" s="9"/>
       <c r="AF182" s="9"/>
       <c r="AG182" s="9"/>
     </row>
     <row r="183" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W183" s="12"/>
+      <c r="W183" s="9"/>
       <c r="AC183" s="9"/>
       <c r="AF183" s="9"/>
       <c r="AG183" s="9"/>
     </row>
     <row r="184" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W184" s="12"/>
+      <c r="W184" s="9"/>
       <c r="AC184" s="9"/>
       <c r="AF184" s="9"/>
       <c r="AG184" s="9"/>
     </row>
     <row r="185" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W185" s="12"/>
+      <c r="W185" s="9"/>
       <c r="AC185" s="9"/>
       <c r="AF185" s="9"/>
       <c r="AG185" s="9"/>
     </row>
     <row r="186" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W186" s="12"/>
+      <c r="W186" s="9"/>
       <c r="AC186" s="9"/>
       <c r="AF186" s="9"/>
       <c r="AG186" s="9"/>
     </row>
     <row r="187" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W187" s="12"/>
+      <c r="W187" s="9"/>
       <c r="AC187" s="9"/>
       <c r="AF187" s="9"/>
       <c r="AG187" s="9"/>
     </row>
     <row r="188" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W188" s="12"/>
+      <c r="W188" s="9"/>
       <c r="AC188" s="9"/>
       <c r="AF188" s="9"/>
       <c r="AG188" s="9"/>
     </row>
     <row r="189" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W189" s="12"/>
+      <c r="W189" s="9"/>
       <c r="AC189" s="9"/>
       <c r="AF189" s="9"/>
       <c r="AG189" s="9"/>
     </row>
     <row r="190" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W190" s="12"/>
+      <c r="W190" s="9"/>
       <c r="AC190" s="9"/>
       <c r="AF190" s="9"/>
       <c r="AG190" s="9"/>
     </row>
     <row r="191" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W191" s="12"/>
+      <c r="W191" s="9"/>
       <c r="AC191" s="9"/>
       <c r="AF191" s="9"/>
       <c r="AG191" s="9"/>
     </row>
     <row r="192" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W192" s="12"/>
+      <c r="W192" s="9"/>
       <c r="AC192" s="9"/>
       <c r="AF192" s="9"/>
       <c r="AG192" s="9"/>
     </row>
     <row r="193" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W193" s="12"/>
+      <c r="W193" s="9"/>
       <c r="AC193" s="9"/>
       <c r="AF193" s="9"/>
       <c r="AG193" s="9"/>
     </row>
     <row r="194" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W194" s="12"/>
+      <c r="W194" s="9"/>
       <c r="AC194" s="9"/>
       <c r="AF194" s="9"/>
       <c r="AG194" s="9"/>
     </row>
     <row r="195" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W195" s="12"/>
+      <c r="W195" s="9"/>
       <c r="AC195" s="9"/>
       <c r="AF195" s="9"/>
       <c r="AG195" s="9"/>
     </row>
     <row r="196" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W196" s="12"/>
+      <c r="W196" s="9"/>
       <c r="AC196" s="9"/>
       <c r="AF196" s="9"/>
       <c r="AG196" s="9"/>
     </row>
     <row r="197" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W197" s="12"/>
+      <c r="W197" s="9"/>
       <c r="AC197" s="9"/>
       <c r="AF197" s="9"/>
       <c r="AG197" s="9"/>
     </row>
     <row r="198" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W198" s="12"/>
+      <c r="W198" s="9"/>
       <c r="AC198" s="9"/>
       <c r="AF198" s="9"/>
       <c r="AG198" s="9"/>
     </row>
     <row r="199" spans="23:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W199" s="12"/>
+      <c r="W199" s="9"/>
       <c r="AC199" s="9"/>
       <c r="AF199" s="9"/>
       <c r="AG199" s="9"/>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943190FA-194C-40D6-B447-71A5283CDC6C}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759ADE5E-B86B-459B-A44F-381F7197B621}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2141,7 +2141,7 @@
     <t>monitoring and tracking,communication and coordination,education and information delivery</t>
   </si>
   <si>
-    <t>Pre-treatment, Post-treatment</t>
+    <t>Pre-treatment,Post-treatment</t>
   </si>
 </sst>
 </file>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759ADE5E-B86B-459B-A44F-381F7197B621}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3BBD9D-E78B-481C-8788-A5ABEEB45AA9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="635">
   <si>
     <t>Title</t>
   </si>
@@ -2139,9 +2139,6 @@
   </si>
   <si>
     <t>monitoring and tracking,communication and coordination,education and information delivery</t>
-  </si>
-  <si>
-    <t>Pre-treatment,Post-treatment</t>
   </si>
 </sst>
 </file>
@@ -2690,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="AB12" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3655,7 +3652,7 @@
         <v>540</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="AG9" s="9" t="s">
         <v>570</v>

--- a/Data Extraction Sheet.xlsx
+++ b/Data Extraction Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/rw3031_cumc_columbia_edu/Documents/Documents/EveryBreathMatters/systematic review/lungcancer_tech_slr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3BBD9D-E78B-481C-8788-A5ABEEB45AA9}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="8_{B590317F-974E-4B35-BB01-69E387BE72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{611B35E8-772E-4C16-8F3F-71EDCC0EE723}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="1" r:id="rId1"/>
     <sheet name="variable name" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="637">
   <si>
     <t>Title</t>
   </si>
@@ -2139,6 +2140,12 @@
   </si>
   <si>
     <t>monitoring and tracking,communication and coordination,education and information delivery</t>
+  </si>
+  <si>
+    <t>To investigate the feasibility, acceptability, safety, and potential efficacy of inspiratory muscle training (IMT) and walking promotion to disrupt a postulated “dyspnea-inactivity” spiral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage </t>
   </si>
 </sst>
 </file>
@@ -2687,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB12" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView topLeftCell="AB1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection sqref="A1:AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56367,4 +56374,2027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF66AC-F12A-40A3-9D25-6DBBEDD703E7}">
+  <dimension ref="A1:AB24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="4" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" customWidth="1"/>
+    <col min="18" max="18" width="21.54296875" customWidth="1"/>
+    <col min="19" max="19" width="36.08984375" customWidth="1"/>
+    <col min="20" max="20" width="24.1796875" customWidth="1"/>
+    <col min="21" max="21" width="18.7265625" customWidth="1"/>
+    <col min="28" max="28" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>406</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>539</v>
+      </c>
+      <c r="S2" t="s">
+        <v>564</v>
+      </c>
+      <c r="T2" t="s">
+        <v>504</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>561</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>442</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>565</v>
+      </c>
+      <c r="T3" t="s">
+        <v>559</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>560</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>384</v>
+      </c>
+      <c r="O4" t="s">
+        <v>406</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>566</v>
+      </c>
+      <c r="T4" t="s">
+        <v>559</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>560</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>2014</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
+        <v>406</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>541</v>
+      </c>
+      <c r="S5" t="s">
+        <v>568</v>
+      </c>
+      <c r="T5" t="s">
+        <v>505</v>
+      </c>
+      <c r="U5" t="s">
+        <v>549</v>
+      </c>
+      <c r="V5" t="s">
+        <v>562</v>
+      </c>
+      <c r="W5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>542</v>
+      </c>
+      <c r="S6" t="s">
+        <v>569</v>
+      </c>
+      <c r="T6" t="s">
+        <v>505</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>560</v>
+      </c>
+      <c r="W6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>509</v>
+      </c>
+      <c r="I7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>543</v>
+      </c>
+      <c r="S7" t="s">
+        <v>565</v>
+      </c>
+      <c r="T7" t="s">
+        <v>506</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>560</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
+        <v>540</v>
+      </c>
+      <c r="S8" t="s">
+        <v>570</v>
+      </c>
+      <c r="T8" t="s">
+        <v>504</v>
+      </c>
+      <c r="U8" t="s">
+        <v>549</v>
+      </c>
+      <c r="V8" t="s">
+        <v>561</v>
+      </c>
+      <c r="W8" t="s">
+        <v>177</v>
+      </c>
+      <c r="X8" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>539</v>
+      </c>
+      <c r="S9" t="s">
+        <v>571</v>
+      </c>
+      <c r="T9" t="s">
+        <v>504</v>
+      </c>
+      <c r="U9" t="s">
+        <v>549</v>
+      </c>
+      <c r="V9" t="s">
+        <v>560</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>2007</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I10" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>572</v>
+      </c>
+      <c r="T10" t="s">
+        <v>507</v>
+      </c>
+      <c r="U10" t="s">
+        <v>549</v>
+      </c>
+      <c r="V10" t="s">
+        <v>560</v>
+      </c>
+      <c r="W10" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" t="s">
+        <v>225</v>
+      </c>
+      <c r="O11" t="s">
+        <v>442</v>
+      </c>
+      <c r="P11" t="s">
+        <v>226</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>572</v>
+      </c>
+      <c r="T11" t="s">
+        <v>504</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>560</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N12" t="s">
+        <v>236</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s">
+        <v>544</v>
+      </c>
+      <c r="S12" t="s">
+        <v>574</v>
+      </c>
+      <c r="T12" t="s">
+        <v>506</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s">
+        <v>560</v>
+      </c>
+      <c r="W12" t="s">
+        <v>241</v>
+      </c>
+      <c r="X12" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>523</v>
+      </c>
+      <c r="J13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O13" t="s">
+        <v>406</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>539</v>
+      </c>
+      <c r="S13" t="s">
+        <v>565</v>
+      </c>
+      <c r="T13" t="s">
+        <v>559</v>
+      </c>
+      <c r="U13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" t="s">
+        <v>561</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
+      </c>
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" t="s">
+        <v>513</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>524</v>
+      </c>
+      <c r="J14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" t="s">
+        <v>264</v>
+      </c>
+      <c r="N14" t="s">
+        <v>265</v>
+      </c>
+      <c r="O14" t="s">
+        <v>442</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>575</v>
+      </c>
+      <c r="T14" t="s">
+        <v>559</v>
+      </c>
+      <c r="U14" t="s">
+        <v>549</v>
+      </c>
+      <c r="V14" t="s">
+        <v>560</v>
+      </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>522</v>
+      </c>
+      <c r="J15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>285</v>
+      </c>
+      <c r="N15" t="s">
+        <v>284</v>
+      </c>
+      <c r="O15" t="s">
+        <v>538</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s">
+        <v>544</v>
+      </c>
+      <c r="S15" t="s">
+        <v>568</v>
+      </c>
+      <c r="T15" t="s">
+        <v>505</v>
+      </c>
+      <c r="U15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" t="s">
+        <v>562</v>
+      </c>
+      <c r="W15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" t="s">
+        <v>515</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N16" t="s">
+        <v>301</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>540</v>
+      </c>
+      <c r="S16" t="s">
+        <v>572</v>
+      </c>
+      <c r="T16" t="s">
+        <v>505</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
+        <v>561</v>
+      </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" t="s">
+        <v>516</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s">
+        <v>346</v>
+      </c>
+      <c r="N17" t="s">
+        <v>341</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>544</v>
+      </c>
+      <c r="S17" t="s">
+        <v>572</v>
+      </c>
+      <c r="T17" t="s">
+        <v>504</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s">
+        <v>560</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>527</v>
+      </c>
+      <c r="J18" t="s">
+        <v>354</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>355</v>
+      </c>
+      <c r="N18" t="s">
+        <v>351</v>
+      </c>
+      <c r="O18" t="s">
+        <v>406</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s">
+        <v>545</v>
+      </c>
+      <c r="S18" t="s">
+        <v>576</v>
+      </c>
+      <c r="T18" t="s">
+        <v>559</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>561</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" t="s">
+        <v>366</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>367</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s">
+        <v>368</v>
+      </c>
+      <c r="N19" t="s">
+        <v>369</v>
+      </c>
+      <c r="O19" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>576</v>
+      </c>
+      <c r="T19" t="s">
+        <v>559</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>560</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" t="s">
+        <v>393</v>
+      </c>
+      <c r="N20" t="s">
+        <v>389</v>
+      </c>
+      <c r="O20" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s">
+        <v>539</v>
+      </c>
+      <c r="S20" t="s">
+        <v>564</v>
+      </c>
+      <c r="T20" t="s">
+        <v>505</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" t="s">
+        <v>560</v>
+      </c>
+      <c r="W20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" t="s">
+        <v>405</v>
+      </c>
+      <c r="O21" t="s">
+        <v>406</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s">
+        <v>546</v>
+      </c>
+      <c r="S21" t="s">
+        <v>571</v>
+      </c>
+      <c r="T21" t="s">
+        <v>504</v>
+      </c>
+      <c r="U21" t="s">
+        <v>549</v>
+      </c>
+      <c r="V21" t="s">
+        <v>562</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>2007</v>
+      </c>
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" t="s">
+        <v>425</v>
+      </c>
+      <c r="O22" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" t="s">
+        <v>573</v>
+      </c>
+      <c r="T22" t="s">
+        <v>504</v>
+      </c>
+      <c r="U22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" t="s">
+        <v>560</v>
+      </c>
+      <c r="W22" t="s">
+        <v>182</v>
+      </c>
+      <c r="X22" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>531</v>
+      </c>
+      <c r="J23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="s">
+        <v>440</v>
+      </c>
+      <c r="N23" t="s">
+        <v>441</v>
+      </c>
+      <c r="O23" t="s">
+        <v>442</v>
+      </c>
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s">
+        <v>580</v>
+      </c>
+      <c r="S23" t="s">
+        <v>577</v>
+      </c>
+      <c r="T23" t="s">
+        <v>559</v>
+      </c>
+      <c r="U23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" t="s">
+        <v>560</v>
+      </c>
+      <c r="W23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X23" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G24" t="s">
+        <v>517</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>470</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" t="s">
+        <v>472</v>
+      </c>
+      <c r="N24" t="s">
+        <v>471</v>
+      </c>
+      <c r="O24" t="s">
+        <v>442</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s">
+        <v>547</v>
+      </c>
+      <c r="S24" t="s">
+        <v>578</v>
+      </c>
+      <c r="T24" t="s">
+        <v>504</v>
+      </c>
+      <c r="U24" t="s">
+        <v>549</v>
+      </c>
+      <c r="V24" t="s">
+        <v>560</v>
+      </c>
+      <c r="W24" t="s">
+        <v>182</v>
+      </c>
+      <c r="X24" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>